--- a/StudentExperiment.xlsx
+++ b/StudentExperiment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Github\ReflectionMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC7A59A-55D1-4EA0-A990-3D8053A41663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7FE327-72EE-4DC6-9F08-3824CA27C2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="4185" windowWidth="25440" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23460" yWindow="6135" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATION SHEET" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1015">
   <si>
     <t xml:space="preserve">p0: Yes
 </t>
@@ -3288,6 +3288,219 @@
   </si>
   <si>
     <t>The survey is filled out three times for each participant and include either 8 or 9 statements</t>
+  </si>
+  <si>
+    <t>those reflexive questions about age, I did not know what to do with it, I can't always deduce how old people are, I didn't really know what to do with it</t>
+  </si>
+  <si>
+    <t>I don't think many people are suspicious</t>
+  </si>
+  <si>
+    <t>think it can certainly be helpful, but I'm not made to judge this</t>
+  </si>
+  <si>
+    <t>I don't know, it was hard to say because I don't know what people with guns look like. Somehow you would say that in a population of which 70% has a weapon, all the people that the algorithm filters would have a weapon. Most of the people passing by seemed so normal that I couldn't quite imagine carrying a gun.</t>
+  </si>
+  <si>
+    <t>they seemed so ordinary</t>
+  </si>
+  <si>
+    <t>if you trust the algorithm, maybe I was too careful</t>
+  </si>
+  <si>
+    <t>Well I only picked white people so maybe I'm too careful and I'm afraid of ethnic profiling or there were a lot of white people</t>
+  </si>
+  <si>
+    <t>In my opinion, half of the people didn't necessarily look suspicious and I didn't quite understand what it was based on that they were chosen by the algorithm.</t>
+  </si>
+  <si>
+    <t>These notifications will make you doubt your choice. I told all the women I wouldn't search them. At a certain point you think that there should be a woman with a weapon.</t>
+  </si>
+  <si>
+    <t>Partly yes, partly not. I would have singled out the guys with macho behavior, which might be a bit biased. So I would have done the same. But I wouldn't necessarily pick out the people who are fully packed, because it just seems that they are busy with everything and don't have a weapon among all that stuff per se (although that's easy to hide).</t>
+  </si>
+  <si>
+    <t>I think it's good the way it is now, it makes you think critically but you don't get too prejudiced either.</t>
+  </si>
+  <si>
+    <t>Yes, I think it can certainly help. It saves the police work, because they don't have to pick these people out themselves. This leaves more time for the search itself.</t>
+  </si>
+  <si>
+    <t>These look good to me and they also keep you on your toes.</t>
+  </si>
+  <si>
+    <t>A little bit, which I also thought was funny. It shook me awake for a while that I do have a certain bias myself.</t>
+  </si>
+  <si>
+    <t>Yes, as I just mentioned, these notifications did wake me up that I myself have a certain bias. For example, that I select women much less quickly.</t>
+  </si>
+  <si>
+    <t>same reason as before</t>
+  </si>
+  <si>
+    <t>not really, it's often things I've already thought about and I trust myself so stick to my decisions.</t>
+  </si>
+  <si>
+    <t>it seemed very random</t>
+  </si>
+  <si>
+    <t>I  still like the idea of ​​the questions, but there were a lot of the same now.</t>
+  </si>
+  <si>
+    <t>Still good but a lot over 0-10 age, which doesn't affect me much</t>
+  </si>
+  <si>
+    <t>those about ethnicity do, the rest don't.</t>
+  </si>
+  <si>
+    <t>feedback gives more context, creates more awareness</t>
+  </si>
+  <si>
+    <t>I don't think anyone looks suspicious</t>
+  </si>
+  <si>
+    <t>I was already aware of that</t>
+  </si>
+  <si>
+    <t>The accuracy seems okay to me, but not VERY accurate</t>
+  </si>
+  <si>
+    <t>yes I now had quite a lot of times that I thought yes they have a weapon but also a few that I thought never have a weapon in their lives</t>
+  </si>
+  <si>
+    <t>I don't mind the questions, but I would not miss them if they weren't there</t>
+  </si>
+  <si>
+    <t>if it works well it is ideal</t>
+  </si>
+  <si>
+    <t>some are a bit vague</t>
+  </si>
+  <si>
+    <t>I keep frisking white people more, but they also walk by more</t>
+  </si>
+  <si>
+    <t>It selected individuals who looked a bit more mysterious. It was not entirely clear what these individuals are planning and doing.</t>
+  </si>
+  <si>
+    <t>I do think twice about whether I would indeed search this person or not. But most of the time I stick to my choice.</t>
+  </si>
+  <si>
+    <t>Partly because they all looked a bit more mysterious.</t>
+  </si>
+  <si>
+    <t>Good. This time I expected more than I got in the end, because sometimes you didn't get an extra question at all. I found myself thinking twice about it.</t>
+  </si>
+  <si>
+    <t>Yes, it will help the police as it saves work to also select the people.</t>
+  </si>
+  <si>
+    <t>Fine, sometimes there are notifications that don't have much influence. For example those of 60+, because not many people of 60+ come by. But others have a lot more influence on my choice.</t>
+  </si>
+  <si>
+    <t>This time less than last time. But it does keep you sharp.</t>
+  </si>
+  <si>
+    <t>Yes, as just mentioned; one notification more than the other. Especially the ones about skin color and gender help me to look realistic again.</t>
+  </si>
+  <si>
+    <t>about 70% would be carrying a gun and I've frisked most of them, so quite a lot of those will indeed be carrying guns.</t>
+  </si>
+  <si>
+    <t>Usually not, because I already think about the questions that are being asked, but I did when I received new information that 70% are women.</t>
+  </si>
+  <si>
+    <t>Maybe, I could think of a reason why you might want to freshen it up in everyone, but I didn't pay very close attention to the rest. And it may well be that the preselection was just random.</t>
+  </si>
+  <si>
+    <t>I think the notifications are good for keeping you on track, especially when you forget to think about something or when you unintentionally have a bias in the people you frisked.</t>
+  </si>
+  <si>
+    <t>The notifications are very good because they really give you insight into your choices, the questions are also good, but I can imagine that most people already ask these themselves.</t>
+  </si>
+  <si>
+    <t>I  especially felt criticized by the notifications, because they almost seem to assume that I am biased for, for example, ethnicity or age. I probably am too, but that's not very nice to hear.</t>
+  </si>
+  <si>
+    <t>Yes it did make me think about it extra, but I'm also working on that myself because you know that these answers are checked. I think if no one checked on me, I wouldn't have bothered with it.</t>
+  </si>
+  <si>
+    <t>I just don't know much about it, so don't always match the algorithm anyway</t>
+  </si>
+  <si>
+    <t>now I found them more useful because the participant gave different answers than I would have done</t>
+  </si>
+  <si>
+    <t>no, didn't feel critized, I don't understand why this person didn't think the first woman was suspicious, but the second man with a slightly less western appearance did. could not name any valid reasons why that man would be suspicious, and this person did not change his mind by the reflective question whether he was sure</t>
+  </si>
+  <si>
+    <t>most of times sticks with the first choice</t>
+  </si>
+  <si>
+    <t>reasonable but not very</t>
+  </si>
+  <si>
+    <t>Most just seemed to be doing their own thing, so there isn't necessarily a reason to suspect them.</t>
+  </si>
+  <si>
+    <t>That was different. At times he seemed quite confident. In other cases he considered a different answer.</t>
+  </si>
+  <si>
+    <t>Most don't</t>
+  </si>
+  <si>
+    <t>Good, it makes you think again about your choice.</t>
+  </si>
+  <si>
+    <t>Yes, it helps the police as it saves them work to determine who they are going to search.</t>
+  </si>
+  <si>
+    <t>The headscarf's was strong. A very difficult situation.</t>
+  </si>
+  <si>
+    <t>Yes, since he/she often chose a different answer. Also when asked where he/she was very sure, he gave an answer of 'yes, I just said that'.</t>
+  </si>
+  <si>
+    <t>Yes, of course. He usually reconsidered his choice</t>
+  </si>
+  <si>
+    <t>same as before, not paying much attention</t>
+  </si>
+  <si>
+    <t>about half the time, the first few questions really don't, but for example the one about the headscarf</t>
+  </si>
+  <si>
+    <t>I think so, women and people of different ethnicity</t>
+  </si>
+  <si>
+    <t>I thought the questions in this round often made sense.</t>
+  </si>
+  <si>
+    <t>As before, they were mostly good questions, except for the one about 'are you sure' because without extra info to think about, I think you stick to your point of view.</t>
+  </si>
+  <si>
+    <t>I sometimes think so because he / she sometimes changed the answer, and that person was already working on whether he came across as racist, for example.</t>
+  </si>
+  <si>
+    <t>I sometimes think so, because then the person changed his answer.</t>
+  </si>
+  <si>
+    <t>Informed about DSS</t>
+  </si>
+  <si>
+    <t>Order of parts</t>
+  </si>
+  <si>
+    <t>informed</t>
+  </si>
+  <si>
+    <t>A -&gt; B</t>
+  </si>
+  <si>
+    <t>B -&gt; A</t>
+  </si>
+  <si>
+    <t>not informed</t>
   </si>
 </sst>
 </file>
@@ -3477,7 +3690,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEB95DB"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4095,7 +4308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="322">
+  <cellXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4443,6 +4656,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4470,41 +4695,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4513,33 +4708,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4551,15 +4719,6 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4569,6 +4728,15 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4576,6 +4744,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4587,15 +4764,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4603,15 +4771,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4626,18 +4785,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4986,7 +5224,7 @@
   <dimension ref="B2:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5075,14 +5313,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C41995-AC5D-41EB-9D3E-731EEA4989BD}">
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="23" width="9.28515625" customWidth="1"/>
     <col min="24" max="24" width="8.42578125" customWidth="1"/>
     <col min="30" max="30" width="14.85546875" customWidth="1"/>
@@ -5104,7 +5343,7 @@
       <c r="H2" s="254"/>
       <c r="I2" s="254"/>
       <c r="J2" s="254"/>
-      <c r="K2" s="261" t="s">
+      <c r="K2" s="265" t="s">
         <v>737</v>
       </c>
       <c r="L2" s="253" t="s">
@@ -5120,62 +5359,62 @@
       <c r="T2" s="254"/>
       <c r="U2" s="254"/>
       <c r="V2" s="254"/>
-      <c r="W2" s="267"/>
-      <c r="X2" s="261" t="s">
+      <c r="W2" s="269"/>
+      <c r="X2" s="265" t="s">
         <v>737</v>
       </c>
-      <c r="Y2" s="255" t="s">
+      <c r="Y2" s="259" t="s">
         <v>742</v>
       </c>
-      <c r="Z2" s="256"/>
-      <c r="AA2" s="256"/>
-      <c r="AB2" s="257"/>
-      <c r="AC2" s="261" t="s">
+      <c r="Z2" s="260"/>
+      <c r="AA2" s="260"/>
+      <c r="AB2" s="261"/>
+      <c r="AC2" s="265" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="251"/>
       <c r="B3" s="152"/>
-      <c r="C3" s="258" t="s">
+      <c r="C3" s="262" t="s">
         <v>735</v>
       </c>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="258" t="s">
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="262" t="s">
         <v>736</v>
       </c>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
-      <c r="J3" s="259"/>
-      <c r="K3" s="262"/>
-      <c r="L3" s="258" t="s">
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="266"/>
+      <c r="L3" s="262" t="s">
         <v>739</v>
       </c>
-      <c r="M3" s="259"/>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="258" t="s">
+      <c r="M3" s="263"/>
+      <c r="N3" s="263"/>
+      <c r="O3" s="263"/>
+      <c r="P3" s="262" t="s">
         <v>740</v>
       </c>
-      <c r="Q3" s="259"/>
-      <c r="R3" s="259"/>
-      <c r="S3" s="260"/>
-      <c r="T3" s="259" t="s">
+      <c r="Q3" s="263"/>
+      <c r="R3" s="263"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="263" t="s">
         <v>741</v>
       </c>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="260"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="258" t="s">
+      <c r="U3" s="263"/>
+      <c r="V3" s="263"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="266"/>
+      <c r="Y3" s="262" t="s">
         <v>743</v>
       </c>
-      <c r="Z3" s="259"/>
-      <c r="AA3" s="259"/>
-      <c r="AB3" s="260"/>
-      <c r="AC3" s="262"/>
+      <c r="Z3" s="263"/>
+      <c r="AA3" s="263"/>
+      <c r="AB3" s="264"/>
+      <c r="AC3" s="266"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="251"/>
@@ -5206,7 +5445,7 @@
       <c r="J4" s="156" t="s">
         <v>654</v>
       </c>
-      <c r="K4" s="262"/>
+      <c r="K4" s="266"/>
       <c r="L4" s="153" t="s">
         <v>636</v>
       </c>
@@ -5243,7 +5482,7 @@
       <c r="W4" s="157" t="s">
         <v>654</v>
       </c>
-      <c r="X4" s="262"/>
+      <c r="X4" s="266"/>
       <c r="Y4" s="59" t="s">
         <v>654</v>
       </c>
@@ -5256,7 +5495,7 @@
       <c r="AB4" s="59" t="s">
         <v>636</v>
       </c>
-      <c r="AC4" s="262"/>
+      <c r="AC4" s="266"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="251"/>
@@ -5287,7 +5526,7 @@
       <c r="J5" s="159">
         <v>0</v>
       </c>
-      <c r="K5" s="262"/>
+      <c r="K5" s="266"/>
       <c r="L5" s="158">
         <v>0</v>
       </c>
@@ -5324,7 +5563,7 @@
       <c r="W5" s="160">
         <v>0</v>
       </c>
-      <c r="X5" s="262"/>
+      <c r="X5" s="266"/>
       <c r="Y5" s="59">
         <v>0</v>
       </c>
@@ -5337,7 +5576,7 @@
       <c r="AB5" s="59">
         <v>1</v>
       </c>
-      <c r="AC5" s="262"/>
+      <c r="AC5" s="266"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="251"/>
@@ -5368,7 +5607,7 @@
       <c r="J6" s="159" t="s">
         <v>638</v>
       </c>
-      <c r="K6" s="262"/>
+      <c r="K6" s="266"/>
       <c r="L6" s="158" t="s">
         <v>638</v>
       </c>
@@ -5405,7 +5644,7 @@
       <c r="W6" s="160" t="s">
         <v>638</v>
       </c>
-      <c r="X6" s="262"/>
+      <c r="X6" s="266"/>
       <c r="Y6" s="59" t="s">
         <v>648</v>
       </c>
@@ -5418,7 +5657,7 @@
       <c r="AB6" s="59" t="s">
         <v>638</v>
       </c>
-      <c r="AC6" s="262"/>
+      <c r="AC6" s="266"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="251"/>
@@ -5449,7 +5688,7 @@
       <c r="J7" s="159" t="s">
         <v>659</v>
       </c>
-      <c r="K7" s="262"/>
+      <c r="K7" s="266"/>
       <c r="L7" s="158" t="s">
         <v>667</v>
       </c>
@@ -5486,7 +5725,7 @@
       <c r="W7" s="160" t="s">
         <v>642</v>
       </c>
-      <c r="X7" s="262"/>
+      <c r="X7" s="266"/>
       <c r="Y7" s="59" t="s">
         <v>667</v>
       </c>
@@ -5499,7 +5738,7 @@
       <c r="AB7" s="59" t="s">
         <v>640</v>
       </c>
-      <c r="AC7" s="262"/>
+      <c r="AC7" s="266"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="251"/>
@@ -5530,7 +5769,7 @@
       <c r="J8" s="159" t="s">
         <v>643</v>
       </c>
-      <c r="K8" s="262"/>
+      <c r="K8" s="266"/>
       <c r="L8" s="158" t="s">
         <v>643</v>
       </c>
@@ -5567,7 +5806,7 @@
       <c r="W8" s="160" t="s">
         <v>643</v>
       </c>
-      <c r="X8" s="262"/>
+      <c r="X8" s="266"/>
       <c r="Y8" s="59" t="s">
         <v>643</v>
       </c>
@@ -5580,7 +5819,7 @@
       <c r="AB8" s="59" t="s">
         <v>643</v>
       </c>
-      <c r="AC8" s="262"/>
+      <c r="AC8" s="266"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="251"/>
@@ -5611,7 +5850,7 @@
       <c r="J9" s="156" t="s">
         <v>638</v>
       </c>
-      <c r="K9" s="262"/>
+      <c r="K9" s="266"/>
       <c r="L9" s="153" t="s">
         <v>638</v>
       </c>
@@ -5648,7 +5887,7 @@
       <c r="W9" s="157" t="s">
         <v>638</v>
       </c>
-      <c r="X9" s="262"/>
+      <c r="X9" s="266"/>
       <c r="Y9" s="60" t="s">
         <v>638</v>
       </c>
@@ -5661,7 +5900,7 @@
       <c r="AB9" s="59" t="s">
         <v>638</v>
       </c>
-      <c r="AC9" s="262"/>
+      <c r="AC9" s="266"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="251"/>
@@ -5692,7 +5931,7 @@
       <c r="J10" s="159" t="s">
         <v>645</v>
       </c>
-      <c r="K10" s="262"/>
+      <c r="K10" s="266"/>
       <c r="L10" s="158" t="s">
         <v>646</v>
       </c>
@@ -5729,7 +5968,7 @@
       <c r="W10" s="160" t="s">
         <v>646</v>
       </c>
-      <c r="X10" s="262"/>
+      <c r="X10" s="266"/>
       <c r="Y10" s="59" t="s">
         <v>646</v>
       </c>
@@ -5742,7 +5981,7 @@
       <c r="AB10" s="59" t="s">
         <v>646</v>
       </c>
-      <c r="AC10" s="262"/>
+      <c r="AC10" s="266"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="251"/>
@@ -5773,7 +6012,7 @@
       <c r="J11" s="159" t="s">
         <v>662</v>
       </c>
-      <c r="K11" s="262"/>
+      <c r="K11" s="266"/>
       <c r="L11" s="158" t="s">
         <v>661</v>
       </c>
@@ -5810,7 +6049,7 @@
       <c r="W11" s="160" t="s">
         <v>676</v>
       </c>
-      <c r="X11" s="262"/>
+      <c r="X11" s="266"/>
       <c r="Y11" s="59" t="s">
         <v>647</v>
       </c>
@@ -5823,7 +6062,7 @@
       <c r="AB11" s="59" t="s">
         <v>744</v>
       </c>
-      <c r="AC11" s="262"/>
+      <c r="AC11" s="266"/>
     </row>
     <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="252"/>
@@ -5854,7 +6093,7 @@
       <c r="J12" s="164" t="s">
         <v>665</v>
       </c>
-      <c r="K12" s="262"/>
+      <c r="K12" s="266"/>
       <c r="L12" s="162" t="s">
         <v>648</v>
       </c>
@@ -5891,7 +6130,7 @@
       <c r="W12" s="165" t="s">
         <v>648</v>
       </c>
-      <c r="X12" s="262"/>
+      <c r="X12" s="266"/>
       <c r="Y12" s="66" t="s">
         <v>648</v>
       </c>
@@ -5904,7 +6143,7 @@
       <c r="AB12" s="66" t="s">
         <v>652</v>
       </c>
-      <c r="AC12" s="262"/>
+      <c r="AC12" s="266"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="106"/>
@@ -5933,7 +6172,7 @@
       <c r="J13" s="108">
         <v>7</v>
       </c>
-      <c r="K13" s="262"/>
+      <c r="K13" s="266"/>
       <c r="L13" s="109">
         <v>8</v>
       </c>
@@ -5970,7 +6209,7 @@
       <c r="W13" s="108">
         <v>19</v>
       </c>
-      <c r="X13" s="262"/>
+      <c r="X13" s="266"/>
       <c r="Y13" s="109">
         <v>20</v>
       </c>
@@ -5983,7 +6222,7 @@
       <c r="AB13" s="108">
         <v>23</v>
       </c>
-      <c r="AC13" s="262"/>
+      <c r="AC13" s="266"/>
       <c r="AD13" s="110" t="s">
         <v>425</v>
       </c>
@@ -6031,7 +6270,7 @@
       <c r="J14" s="125" t="s">
         <v>748</v>
       </c>
-      <c r="K14" s="262"/>
+      <c r="K14" s="266"/>
       <c r="L14" s="144" t="s">
         <v>762</v>
       </c>
@@ -6068,20 +6307,20 @@
       <c r="W14" s="147" t="s">
         <v>762</v>
       </c>
-      <c r="X14" s="262"/>
-      <c r="Y14" s="270" t="s">
+      <c r="X14" s="266"/>
+      <c r="Y14" s="308" t="s">
         <v>813</v>
       </c>
-      <c r="Z14" s="279" t="s">
+      <c r="Z14" s="314" t="s">
         <v>814</v>
       </c>
-      <c r="AA14" s="279" t="s">
+      <c r="AA14" s="314" t="s">
         <v>814</v>
       </c>
-      <c r="AB14" s="282" t="s">
+      <c r="AB14" s="311" t="s">
         <v>813</v>
       </c>
-      <c r="AC14" s="262"/>
+      <c r="AC14" s="266"/>
       <c r="AD14" s="113">
         <f>COUNTIF(C14:W14,"* No*")</f>
         <v>8</v>
@@ -6132,7 +6371,7 @@
       <c r="J15" s="130" t="s">
         <v>763</v>
       </c>
-      <c r="K15" s="262"/>
+      <c r="K15" s="266"/>
       <c r="L15" s="148" t="s">
         <v>779</v>
       </c>
@@ -6169,12 +6408,12 @@
       <c r="W15" s="130" t="s">
         <v>763</v>
       </c>
-      <c r="X15" s="262"/>
-      <c r="Y15" s="271"/>
-      <c r="Z15" s="280"/>
-      <c r="AA15" s="280"/>
-      <c r="AB15" s="283"/>
-      <c r="AC15" s="262"/>
+      <c r="X15" s="266"/>
+      <c r="Y15" s="309"/>
+      <c r="Z15" s="315"/>
+      <c r="AA15" s="315"/>
+      <c r="AB15" s="312"/>
+      <c r="AC15" s="266"/>
       <c r="AD15" s="113">
         <f t="shared" ref="AD15:AD22" si="0">COUNTIF(C15:W15,"* No*")</f>
         <v>9</v>
@@ -6225,7 +6464,7 @@
       <c r="J16" s="130" t="s">
         <v>787</v>
       </c>
-      <c r="K16" s="262"/>
+      <c r="K16" s="266"/>
       <c r="L16" s="149" t="s">
         <v>787</v>
       </c>
@@ -6262,12 +6501,12 @@
       <c r="W16" s="130" t="s">
         <v>787</v>
       </c>
-      <c r="X16" s="262"/>
-      <c r="Y16" s="271"/>
-      <c r="Z16" s="280"/>
-      <c r="AA16" s="280"/>
-      <c r="AB16" s="283"/>
-      <c r="AC16" s="262"/>
+      <c r="X16" s="266"/>
+      <c r="Y16" s="309"/>
+      <c r="Z16" s="315"/>
+      <c r="AA16" s="315"/>
+      <c r="AB16" s="312"/>
+      <c r="AC16" s="266"/>
       <c r="AD16" s="113">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6318,7 +6557,7 @@
       <c r="J17" s="130" t="s">
         <v>751</v>
       </c>
-      <c r="K17" s="262"/>
+      <c r="K17" s="266"/>
       <c r="L17" s="148" t="s">
         <v>780</v>
       </c>
@@ -6355,12 +6594,12 @@
       <c r="W17" s="130" t="s">
         <v>751</v>
       </c>
-      <c r="X17" s="262"/>
-      <c r="Y17" s="271"/>
-      <c r="Z17" s="280"/>
-      <c r="AA17" s="280"/>
-      <c r="AB17" s="283"/>
-      <c r="AC17" s="262"/>
+      <c r="X17" s="266"/>
+      <c r="Y17" s="309"/>
+      <c r="Z17" s="315"/>
+      <c r="AA17" s="315"/>
+      <c r="AB17" s="312"/>
+      <c r="AC17" s="266"/>
       <c r="AD17" s="113">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6411,7 +6650,7 @@
       <c r="J18" s="133" t="s">
         <v>752</v>
       </c>
-      <c r="K18" s="262"/>
+      <c r="K18" s="266"/>
       <c r="L18" s="148" t="s">
         <v>752</v>
       </c>
@@ -6448,12 +6687,12 @@
       <c r="W18" s="133" t="s">
         <v>752</v>
       </c>
-      <c r="X18" s="262"/>
-      <c r="Y18" s="271"/>
-      <c r="Z18" s="280"/>
-      <c r="AA18" s="280"/>
-      <c r="AB18" s="283"/>
-      <c r="AC18" s="262"/>
+      <c r="X18" s="266"/>
+      <c r="Y18" s="309"/>
+      <c r="Z18" s="315"/>
+      <c r="AA18" s="315"/>
+      <c r="AB18" s="312"/>
+      <c r="AC18" s="266"/>
       <c r="AD18" s="113">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6504,7 +6743,7 @@
       <c r="J19" s="133" t="s">
         <v>764</v>
       </c>
-      <c r="K19" s="262"/>
+      <c r="K19" s="266"/>
       <c r="L19" s="149" t="s">
         <v>753</v>
       </c>
@@ -6541,12 +6780,12 @@
       <c r="W19" s="133" t="s">
         <v>764</v>
       </c>
-      <c r="X19" s="262"/>
-      <c r="Y19" s="271"/>
-      <c r="Z19" s="280"/>
-      <c r="AA19" s="280"/>
-      <c r="AB19" s="283"/>
-      <c r="AC19" s="262"/>
+      <c r="X19" s="266"/>
+      <c r="Y19" s="309"/>
+      <c r="Z19" s="315"/>
+      <c r="AA19" s="315"/>
+      <c r="AB19" s="312"/>
+      <c r="AC19" s="266"/>
       <c r="AD19" s="113">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6597,7 +6836,7 @@
       <c r="J20" s="133" t="s">
         <v>754</v>
       </c>
-      <c r="K20" s="262"/>
+      <c r="K20" s="266"/>
       <c r="L20" s="149" t="s">
         <v>808</v>
       </c>
@@ -6634,12 +6873,12 @@
       <c r="W20" s="133" t="s">
         <v>754</v>
       </c>
-      <c r="X20" s="262"/>
-      <c r="Y20" s="271"/>
-      <c r="Z20" s="280"/>
-      <c r="AA20" s="280"/>
-      <c r="AB20" s="283"/>
-      <c r="AC20" s="262"/>
+      <c r="X20" s="266"/>
+      <c r="Y20" s="309"/>
+      <c r="Z20" s="315"/>
+      <c r="AA20" s="315"/>
+      <c r="AB20" s="312"/>
+      <c r="AC20" s="266"/>
       <c r="AD20" s="113">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6690,7 +6929,7 @@
       <c r="J21" s="137" t="s">
         <v>755</v>
       </c>
-      <c r="K21" s="262"/>
+      <c r="K21" s="266"/>
       <c r="L21" s="149" t="s">
         <v>801</v>
       </c>
@@ -6727,12 +6966,12 @@
       <c r="W21" s="130" t="s">
         <v>801</v>
       </c>
-      <c r="X21" s="262"/>
-      <c r="Y21" s="271"/>
-      <c r="Z21" s="280"/>
-      <c r="AA21" s="280"/>
-      <c r="AB21" s="283"/>
-      <c r="AC21" s="262"/>
+      <c r="X21" s="266"/>
+      <c r="Y21" s="309"/>
+      <c r="Z21" s="315"/>
+      <c r="AA21" s="315"/>
+      <c r="AB21" s="312"/>
+      <c r="AC21" s="266"/>
       <c r="AD21" s="113">
         <f>COUNTIF(C21:W21,"* No*")</f>
         <v>5</v>
@@ -6783,7 +7022,7 @@
       <c r="J22" s="143" t="s">
         <v>746</v>
       </c>
-      <c r="K22" s="262"/>
+      <c r="K22" s="266"/>
       <c r="L22" s="150" t="s">
         <v>756</v>
       </c>
@@ -6820,12 +7059,12 @@
       <c r="W22" s="143" t="s">
         <v>746</v>
       </c>
-      <c r="X22" s="262"/>
-      <c r="Y22" s="272"/>
-      <c r="Z22" s="281"/>
-      <c r="AA22" s="281"/>
-      <c r="AB22" s="284"/>
-      <c r="AC22" s="262"/>
+      <c r="X22" s="266"/>
+      <c r="Y22" s="310"/>
+      <c r="Z22" s="316"/>
+      <c r="AA22" s="316"/>
+      <c r="AB22" s="313"/>
+      <c r="AC22" s="266"/>
       <c r="AD22" s="113">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6878,7 +7117,7 @@
       <c r="J23" s="175" t="s">
         <v>847</v>
       </c>
-      <c r="K23" s="262"/>
+      <c r="K23" s="266"/>
       <c r="L23" s="176" t="s">
         <v>853</v>
       </c>
@@ -6915,20 +7154,20 @@
       <c r="W23" s="175" t="s">
         <v>895</v>
       </c>
-      <c r="X23" s="262"/>
-      <c r="Y23" s="273" t="s">
+      <c r="X23" s="266"/>
+      <c r="Y23" s="326" t="s">
         <v>914</v>
       </c>
-      <c r="Z23" s="285" t="s">
+      <c r="Z23" s="327" t="s">
         <v>915</v>
       </c>
-      <c r="AA23" s="285" t="s">
+      <c r="AA23" s="327" t="s">
         <v>916</v>
       </c>
-      <c r="AB23" s="291" t="s">
+      <c r="AB23" s="328" t="s">
         <v>917</v>
       </c>
-      <c r="AC23" s="262"/>
+      <c r="AC23" s="266"/>
       <c r="AD23" s="113"/>
       <c r="AE23" s="51"/>
       <c r="AF23" s="51"/>
@@ -6964,7 +7203,7 @@
       <c r="J24" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="262"/>
+      <c r="K24" s="266"/>
       <c r="L24" s="180" t="s">
         <v>181</v>
       </c>
@@ -7001,12 +7240,12 @@
       <c r="W24" s="179" t="s">
         <v>399</v>
       </c>
-      <c r="X24" s="262"/>
-      <c r="Y24" s="274"/>
-      <c r="Z24" s="286"/>
-      <c r="AA24" s="286"/>
-      <c r="AB24" s="292"/>
-      <c r="AC24" s="262"/>
+      <c r="X24" s="266"/>
+      <c r="Y24" s="329"/>
+      <c r="Z24" s="330"/>
+      <c r="AA24" s="330"/>
+      <c r="AB24" s="331"/>
+      <c r="AC24" s="266"/>
       <c r="AD24" s="113"/>
       <c r="AE24" s="51"/>
       <c r="AF24" s="51"/>
@@ -7042,7 +7281,7 @@
       <c r="J25" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="262"/>
+      <c r="K25" s="266"/>
       <c r="L25" s="184" t="s">
         <v>182</v>
       </c>
@@ -7079,12 +7318,12 @@
       <c r="W25" s="183" t="s">
         <v>400</v>
       </c>
-      <c r="X25" s="262"/>
-      <c r="Y25" s="274"/>
-      <c r="Z25" s="286"/>
-      <c r="AA25" s="286"/>
-      <c r="AB25" s="292"/>
-      <c r="AC25" s="262"/>
+      <c r="X25" s="266"/>
+      <c r="Y25" s="329"/>
+      <c r="Z25" s="330"/>
+      <c r="AA25" s="330"/>
+      <c r="AB25" s="331"/>
+      <c r="AC25" s="266"/>
       <c r="AD25" s="113"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
@@ -7120,7 +7359,7 @@
       <c r="J26" s="187" t="s">
         <v>848</v>
       </c>
-      <c r="K26" s="262"/>
+      <c r="K26" s="266"/>
       <c r="L26" s="188" t="s">
         <v>854</v>
       </c>
@@ -7157,12 +7396,12 @@
       <c r="W26" s="187" t="s">
         <v>896</v>
       </c>
-      <c r="X26" s="262"/>
-      <c r="Y26" s="274"/>
-      <c r="Z26" s="286"/>
-      <c r="AA26" s="286"/>
-      <c r="AB26" s="292"/>
-      <c r="AC26" s="262"/>
+      <c r="X26" s="266"/>
+      <c r="Y26" s="329"/>
+      <c r="Z26" s="330"/>
+      <c r="AA26" s="330"/>
+      <c r="AB26" s="331"/>
+      <c r="AC26" s="266"/>
       <c r="AD26" s="113"/>
       <c r="AE26" s="51"/>
       <c r="AF26" s="51"/>
@@ -7198,7 +7437,7 @@
       <c r="J27" s="179" t="s">
         <v>849</v>
       </c>
-      <c r="K27" s="262"/>
+      <c r="K27" s="266"/>
       <c r="L27" s="180" t="s">
         <v>184</v>
       </c>
@@ -7235,12 +7474,12 @@
       <c r="W27" s="179" t="s">
         <v>402</v>
       </c>
-      <c r="X27" s="262"/>
-      <c r="Y27" s="274"/>
-      <c r="Z27" s="286"/>
-      <c r="AA27" s="286"/>
-      <c r="AB27" s="292"/>
-      <c r="AC27" s="262"/>
+      <c r="X27" s="266"/>
+      <c r="Y27" s="329"/>
+      <c r="Z27" s="330"/>
+      <c r="AA27" s="330"/>
+      <c r="AB27" s="331"/>
+      <c r="AC27" s="266"/>
       <c r="AD27" s="113"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="51"/>
@@ -7276,7 +7515,7 @@
       <c r="J28" s="183" t="s">
         <v>850</v>
       </c>
-      <c r="K28" s="262"/>
+      <c r="K28" s="266"/>
       <c r="L28" s="184" t="s">
         <v>855</v>
       </c>
@@ -7313,12 +7552,12 @@
       <c r="W28" s="183" t="s">
         <v>897</v>
       </c>
-      <c r="X28" s="262"/>
-      <c r="Y28" s="274"/>
-      <c r="Z28" s="286"/>
-      <c r="AA28" s="286"/>
-      <c r="AB28" s="292"/>
-      <c r="AC28" s="262"/>
+      <c r="X28" s="266"/>
+      <c r="Y28" s="329"/>
+      <c r="Z28" s="330"/>
+      <c r="AA28" s="330"/>
+      <c r="AB28" s="331"/>
+      <c r="AC28" s="266"/>
       <c r="AD28" s="113"/>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
@@ -7354,7 +7593,7 @@
       <c r="J29" s="191" t="s">
         <v>851</v>
       </c>
-      <c r="K29" s="262"/>
+      <c r="K29" s="266"/>
       <c r="L29" s="192" t="s">
         <v>856</v>
       </c>
@@ -7391,12 +7630,12 @@
       <c r="W29" s="191" t="s">
         <v>209</v>
       </c>
-      <c r="X29" s="262"/>
-      <c r="Y29" s="274"/>
-      <c r="Z29" s="286"/>
-      <c r="AA29" s="286"/>
-      <c r="AB29" s="292"/>
-      <c r="AC29" s="262"/>
+      <c r="X29" s="266"/>
+      <c r="Y29" s="329"/>
+      <c r="Z29" s="330"/>
+      <c r="AA29" s="330"/>
+      <c r="AB29" s="331"/>
+      <c r="AC29" s="266"/>
       <c r="AD29" s="113"/>
       <c r="AE29" s="51"/>
       <c r="AF29" s="51"/>
@@ -7432,7 +7671,7 @@
       <c r="J30" s="191" t="s">
         <v>852</v>
       </c>
-      <c r="K30" s="262"/>
+      <c r="K30" s="266"/>
       <c r="L30" s="192" t="s">
         <v>187</v>
       </c>
@@ -7469,12 +7708,12 @@
       <c r="W30" s="191" t="s">
         <v>404</v>
       </c>
-      <c r="X30" s="262"/>
-      <c r="Y30" s="274"/>
-      <c r="Z30" s="286"/>
-      <c r="AA30" s="286"/>
-      <c r="AB30" s="292"/>
-      <c r="AC30" s="262"/>
+      <c r="X30" s="266"/>
+      <c r="Y30" s="329"/>
+      <c r="Z30" s="330"/>
+      <c r="AA30" s="330"/>
+      <c r="AB30" s="331"/>
+      <c r="AC30" s="266"/>
       <c r="AD30" s="113"/>
       <c r="AE30" s="51"/>
       <c r="AF30" s="51"/>
@@ -7510,7 +7749,7 @@
       <c r="J31" s="183" t="s">
         <v>170</v>
       </c>
-      <c r="K31" s="262"/>
+      <c r="K31" s="266"/>
       <c r="L31" s="184" t="s">
         <v>188</v>
       </c>
@@ -7547,12 +7786,12 @@
       <c r="W31" s="183" t="s">
         <v>405</v>
       </c>
-      <c r="X31" s="262"/>
-      <c r="Y31" s="275"/>
-      <c r="Z31" s="287"/>
-      <c r="AA31" s="287"/>
-      <c r="AB31" s="293"/>
-      <c r="AC31" s="262"/>
+      <c r="X31" s="266"/>
+      <c r="Y31" s="332"/>
+      <c r="Z31" s="333"/>
+      <c r="AA31" s="333"/>
+      <c r="AB31" s="334"/>
+      <c r="AC31" s="266"/>
       <c r="AD31" s="113"/>
       <c r="AE31" s="51"/>
       <c r="AF31" s="51"/>
@@ -7586,7 +7825,7 @@
       <c r="J32" s="199" t="s">
         <v>171</v>
       </c>
-      <c r="K32" s="262"/>
+      <c r="K32" s="266"/>
       <c r="L32" s="200" t="s">
         <v>117</v>
       </c>
@@ -7623,20 +7862,20 @@
       <c r="W32" s="199" t="s">
         <v>406</v>
       </c>
-      <c r="X32" s="262"/>
-      <c r="Y32" s="276" t="s">
+      <c r="X32" s="266"/>
+      <c r="Y32" s="270" t="s">
         <v>918</v>
       </c>
-      <c r="Z32" s="288" t="s">
+      <c r="Z32" s="273" t="s">
         <v>919</v>
       </c>
-      <c r="AA32" s="288" t="s">
+      <c r="AA32" s="273" t="s">
         <v>920</v>
       </c>
-      <c r="AB32" s="294" t="s">
+      <c r="AB32" s="276" t="s">
         <v>921</v>
       </c>
-      <c r="AC32" s="262"/>
+      <c r="AC32" s="266"/>
       <c r="AD32" s="113"/>
       <c r="AE32" s="51"/>
       <c r="AF32" s="51"/>
@@ -7668,7 +7907,7 @@
       <c r="J33" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="K33" s="262"/>
+      <c r="K33" s="266"/>
       <c r="L33" s="211" t="s">
         <v>118</v>
       </c>
@@ -7705,12 +7944,12 @@
       <c r="W33" s="210" t="s">
         <v>407</v>
       </c>
-      <c r="X33" s="262"/>
-      <c r="Y33" s="277"/>
-      <c r="Z33" s="289"/>
-      <c r="AA33" s="289"/>
-      <c r="AB33" s="295"/>
-      <c r="AC33" s="262"/>
+      <c r="X33" s="266"/>
+      <c r="Y33" s="271"/>
+      <c r="Z33" s="274"/>
+      <c r="AA33" s="274"/>
+      <c r="AB33" s="277"/>
+      <c r="AC33" s="266"/>
       <c r="AD33" s="113"/>
       <c r="AE33" s="51"/>
       <c r="AF33" s="51"/>
@@ -7742,7 +7981,7 @@
       <c r="J34" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="K34" s="262"/>
+      <c r="K34" s="266"/>
       <c r="L34" s="211" t="s">
         <v>189</v>
       </c>
@@ -7779,12 +8018,12 @@
       <c r="W34" s="210" t="s">
         <v>408</v>
       </c>
-      <c r="X34" s="262"/>
-      <c r="Y34" s="277"/>
-      <c r="Z34" s="289"/>
-      <c r="AA34" s="289"/>
-      <c r="AB34" s="295"/>
-      <c r="AC34" s="262"/>
+      <c r="X34" s="266"/>
+      <c r="Y34" s="271"/>
+      <c r="Z34" s="274"/>
+      <c r="AA34" s="274"/>
+      <c r="AB34" s="277"/>
+      <c r="AC34" s="266"/>
       <c r="AD34" s="113"/>
       <c r="AE34" s="51"/>
       <c r="AF34" s="51"/>
@@ -7816,7 +8055,7 @@
       <c r="J35" s="210" t="s">
         <v>173</v>
       </c>
-      <c r="K35" s="262"/>
+      <c r="K35" s="266"/>
       <c r="L35" s="211" t="s">
         <v>190</v>
       </c>
@@ -7853,12 +8092,12 @@
       <c r="W35" s="210" t="s">
         <v>409</v>
       </c>
-      <c r="X35" s="262"/>
-      <c r="Y35" s="277"/>
-      <c r="Z35" s="289"/>
-      <c r="AA35" s="289"/>
-      <c r="AB35" s="295"/>
-      <c r="AC35" s="262"/>
+      <c r="X35" s="266"/>
+      <c r="Y35" s="271"/>
+      <c r="Z35" s="274"/>
+      <c r="AA35" s="274"/>
+      <c r="AB35" s="277"/>
+      <c r="AC35" s="266"/>
       <c r="AD35" s="113"/>
       <c r="AE35" s="51"/>
       <c r="AF35" s="51"/>
@@ -7890,7 +8129,7 @@
       <c r="J36" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="K36" s="262"/>
+      <c r="K36" s="266"/>
       <c r="L36" s="211" t="s">
         <v>121</v>
       </c>
@@ -7927,12 +8166,12 @@
       <c r="W36" s="210" t="s">
         <v>410</v>
       </c>
-      <c r="X36" s="262"/>
-      <c r="Y36" s="277"/>
-      <c r="Z36" s="289"/>
-      <c r="AA36" s="289"/>
-      <c r="AB36" s="295"/>
-      <c r="AC36" s="262"/>
+      <c r="X36" s="266"/>
+      <c r="Y36" s="271"/>
+      <c r="Z36" s="274"/>
+      <c r="AA36" s="274"/>
+      <c r="AB36" s="277"/>
+      <c r="AC36" s="266"/>
       <c r="AD36" s="113"/>
       <c r="AE36" s="51"/>
       <c r="AF36" s="51"/>
@@ -7964,7 +8203,7 @@
       <c r="J37" s="210" t="s">
         <v>174</v>
       </c>
-      <c r="K37" s="262"/>
+      <c r="K37" s="266"/>
       <c r="L37" s="211" t="s">
         <v>122</v>
       </c>
@@ -8001,12 +8240,12 @@
       <c r="W37" s="210" t="s">
         <v>411</v>
       </c>
-      <c r="X37" s="262"/>
-      <c r="Y37" s="277"/>
-      <c r="Z37" s="289"/>
-      <c r="AA37" s="289"/>
-      <c r="AB37" s="295"/>
-      <c r="AC37" s="262"/>
+      <c r="X37" s="266"/>
+      <c r="Y37" s="271"/>
+      <c r="Z37" s="274"/>
+      <c r="AA37" s="274"/>
+      <c r="AB37" s="277"/>
+      <c r="AC37" s="266"/>
       <c r="AD37" s="113"/>
       <c r="AE37" s="51"/>
       <c r="AF37" s="51"/>
@@ -8038,7 +8277,7 @@
       <c r="J38" s="210" t="s">
         <v>175</v>
       </c>
-      <c r="K38" s="262"/>
+      <c r="K38" s="266"/>
       <c r="L38" s="211" t="s">
         <v>191</v>
       </c>
@@ -8075,12 +8314,12 @@
       <c r="W38" s="210" t="s">
         <v>412</v>
       </c>
-      <c r="X38" s="262"/>
-      <c r="Y38" s="277"/>
-      <c r="Z38" s="289"/>
-      <c r="AA38" s="289"/>
-      <c r="AB38" s="295"/>
-      <c r="AC38" s="262"/>
+      <c r="X38" s="266"/>
+      <c r="Y38" s="271"/>
+      <c r="Z38" s="274"/>
+      <c r="AA38" s="274"/>
+      <c r="AB38" s="277"/>
+      <c r="AC38" s="266"/>
       <c r="AD38" s="113"/>
       <c r="AE38" s="51"/>
       <c r="AF38" s="51"/>
@@ -8112,7 +8351,7 @@
       <c r="J39" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="K39" s="262"/>
+      <c r="K39" s="266"/>
       <c r="L39" s="211" t="s">
         <v>192</v>
       </c>
@@ -8149,12 +8388,12 @@
       <c r="W39" s="210" t="s">
         <v>413</v>
       </c>
-      <c r="X39" s="262"/>
-      <c r="Y39" s="277"/>
-      <c r="Z39" s="289"/>
-      <c r="AA39" s="289"/>
-      <c r="AB39" s="295"/>
-      <c r="AC39" s="262"/>
+      <c r="X39" s="266"/>
+      <c r="Y39" s="271"/>
+      <c r="Z39" s="274"/>
+      <c r="AA39" s="274"/>
+      <c r="AB39" s="277"/>
+      <c r="AC39" s="266"/>
       <c r="AD39" s="113"/>
       <c r="AE39" s="51"/>
       <c r="AF39" s="51"/>
@@ -8186,7 +8425,7 @@
       <c r="J40" s="221" t="s">
         <v>177</v>
       </c>
-      <c r="K40" s="262"/>
+      <c r="K40" s="266"/>
       <c r="L40" s="222" t="s">
         <v>125</v>
       </c>
@@ -8223,12 +8462,12 @@
       <c r="W40" s="221" t="s">
         <v>414</v>
       </c>
-      <c r="X40" s="262"/>
-      <c r="Y40" s="278"/>
-      <c r="Z40" s="290"/>
-      <c r="AA40" s="290"/>
-      <c r="AB40" s="296"/>
-      <c r="AC40" s="262"/>
+      <c r="X40" s="266"/>
+      <c r="Y40" s="272"/>
+      <c r="Z40" s="275"/>
+      <c r="AA40" s="275"/>
+      <c r="AB40" s="278"/>
+      <c r="AC40" s="266"/>
       <c r="AD40" s="113"/>
       <c r="AE40" s="51"/>
       <c r="AF40" s="51"/>
@@ -8243,26 +8482,26 @@
         <v>724</v>
       </c>
       <c r="C41" s="204"/>
-      <c r="D41" s="264" t="s">
+      <c r="D41" s="255" t="s">
         <v>811</v>
       </c>
       <c r="E41" s="206"/>
-      <c r="F41" s="264" t="s">
+      <c r="F41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="G41" s="264" t="s">
+      <c r="G41" s="255" t="s">
         <v>811</v>
       </c>
       <c r="H41" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I41" s="264" t="s">
+      <c r="I41" s="255" t="s">
         <v>812</v>
       </c>
-      <c r="J41" s="264" t="s">
+      <c r="J41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="K41" s="262"/>
+      <c r="K41" s="266"/>
       <c r="L41" s="149" t="s">
         <v>0</v>
       </c>
@@ -8275,40 +8514,40 @@
       <c r="O41" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="264" t="s">
+      <c r="P41" s="255" t="s">
         <v>812</v>
       </c>
-      <c r="Q41" s="264" t="s">
+      <c r="Q41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="R41" s="264" t="s">
+      <c r="R41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="S41" s="264" t="s">
+      <c r="S41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="T41" s="264" t="s">
+      <c r="T41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="U41" s="264" t="s">
+      <c r="U41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="V41" s="264" t="s">
+      <c r="V41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="W41" s="264" t="s">
+      <c r="W41" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="X41" s="262"/>
-      <c r="Y41" s="273"/>
-      <c r="Z41" s="285" t="s">
+      <c r="X41" s="266"/>
+      <c r="Y41" s="326"/>
+      <c r="Z41" s="317" t="s">
         <v>813</v>
       </c>
-      <c r="AA41" s="285" t="s">
+      <c r="AA41" s="317" t="s">
         <v>813</v>
       </c>
-      <c r="AB41" s="291"/>
-      <c r="AC41" s="262"/>
+      <c r="AB41" s="328"/>
+      <c r="AC41" s="266"/>
       <c r="AD41" s="113"/>
       <c r="AE41" s="51"/>
       <c r="AF41" s="51"/>
@@ -8321,16 +8560,16 @@
         <v>725</v>
       </c>
       <c r="C42" s="204"/>
-      <c r="D42" s="265"/>
+      <c r="D42" s="256"/>
       <c r="E42" s="206"/>
-      <c r="F42" s="265"/>
-      <c r="G42" s="265"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
       <c r="H42" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="265"/>
-      <c r="J42" s="265"/>
-      <c r="K42" s="262"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="266"/>
       <c r="L42" s="148" t="s">
         <v>51</v>
       </c>
@@ -8343,20 +8582,20 @@
       <c r="O42" s="178" t="s">
         <v>265</v>
       </c>
-      <c r="P42" s="265"/>
-      <c r="Q42" s="265"/>
-      <c r="R42" s="265"/>
-      <c r="S42" s="265"/>
-      <c r="T42" s="265"/>
-      <c r="U42" s="265"/>
-      <c r="V42" s="265"/>
-      <c r="W42" s="265"/>
-      <c r="X42" s="262"/>
-      <c r="Y42" s="274"/>
-      <c r="Z42" s="286"/>
-      <c r="AA42" s="286"/>
-      <c r="AB42" s="292"/>
-      <c r="AC42" s="262"/>
+      <c r="P42" s="256"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="256"/>
+      <c r="S42" s="256"/>
+      <c r="T42" s="256"/>
+      <c r="U42" s="256"/>
+      <c r="V42" s="256"/>
+      <c r="W42" s="256"/>
+      <c r="X42" s="266"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="318"/>
+      <c r="AA42" s="318"/>
+      <c r="AB42" s="331"/>
+      <c r="AC42" s="266"/>
       <c r="AD42" s="113"/>
       <c r="AE42" s="51"/>
       <c r="AF42" s="51"/>
@@ -8369,16 +8608,16 @@
         <v>726</v>
       </c>
       <c r="C43" s="204"/>
-      <c r="D43" s="265"/>
+      <c r="D43" s="256"/>
       <c r="E43" s="206"/>
-      <c r="F43" s="265"/>
-      <c r="G43" s="265"/>
+      <c r="F43" s="256"/>
+      <c r="G43" s="256"/>
       <c r="H43" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="265"/>
-      <c r="J43" s="265"/>
-      <c r="K43" s="262"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="256"/>
+      <c r="K43" s="266"/>
       <c r="L43" s="149" t="s">
         <v>62</v>
       </c>
@@ -8391,20 +8630,20 @@
       <c r="O43" s="132" t="s">
         <v>62</v>
       </c>
-      <c r="P43" s="265"/>
-      <c r="Q43" s="265"/>
-      <c r="R43" s="265"/>
-      <c r="S43" s="265"/>
-      <c r="T43" s="265"/>
-      <c r="U43" s="265"/>
-      <c r="V43" s="265"/>
-      <c r="W43" s="265"/>
-      <c r="X43" s="262"/>
-      <c r="Y43" s="274"/>
-      <c r="Z43" s="286"/>
-      <c r="AA43" s="286"/>
-      <c r="AB43" s="292"/>
-      <c r="AC43" s="262"/>
+      <c r="P43" s="256"/>
+      <c r="Q43" s="256"/>
+      <c r="R43" s="256"/>
+      <c r="S43" s="256"/>
+      <c r="T43" s="256"/>
+      <c r="U43" s="256"/>
+      <c r="V43" s="256"/>
+      <c r="W43" s="256"/>
+      <c r="X43" s="266"/>
+      <c r="Y43" s="329"/>
+      <c r="Z43" s="318"/>
+      <c r="AA43" s="318"/>
+      <c r="AB43" s="331"/>
+      <c r="AC43" s="266"/>
       <c r="AD43" s="113"/>
       <c r="AE43" s="51"/>
       <c r="AF43" s="51"/>
@@ -8417,16 +8656,16 @@
         <v>727</v>
       </c>
       <c r="C44" s="204"/>
-      <c r="D44" s="265"/>
+      <c r="D44" s="256"/>
       <c r="E44" s="206"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="265"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
       <c r="H44" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="265"/>
-      <c r="J44" s="265"/>
-      <c r="K44" s="262"/>
+      <c r="I44" s="256"/>
+      <c r="J44" s="256"/>
+      <c r="K44" s="266"/>
       <c r="L44" s="228" t="s">
         <v>193</v>
       </c>
@@ -8439,20 +8678,20 @@
       <c r="O44" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="P44" s="265"/>
-      <c r="Q44" s="265"/>
-      <c r="R44" s="265"/>
-      <c r="S44" s="265"/>
-      <c r="T44" s="265"/>
-      <c r="U44" s="265"/>
-      <c r="V44" s="265"/>
-      <c r="W44" s="265"/>
-      <c r="X44" s="262"/>
-      <c r="Y44" s="274"/>
-      <c r="Z44" s="286"/>
-      <c r="AA44" s="286"/>
-      <c r="AB44" s="292"/>
-      <c r="AC44" s="262"/>
+      <c r="P44" s="256"/>
+      <c r="Q44" s="256"/>
+      <c r="R44" s="256"/>
+      <c r="S44" s="256"/>
+      <c r="T44" s="256"/>
+      <c r="U44" s="256"/>
+      <c r="V44" s="256"/>
+      <c r="W44" s="256"/>
+      <c r="X44" s="266"/>
+      <c r="Y44" s="329"/>
+      <c r="Z44" s="318"/>
+      <c r="AA44" s="318"/>
+      <c r="AB44" s="331"/>
+      <c r="AC44" s="266"/>
       <c r="AD44" s="113"/>
       <c r="AE44" s="51"/>
       <c r="AF44" s="51"/>
@@ -8465,16 +8704,16 @@
         <v>728</v>
       </c>
       <c r="C45" s="204"/>
-      <c r="D45" s="265"/>
+      <c r="D45" s="256"/>
       <c r="E45" s="206"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="265"/>
+      <c r="F45" s="256"/>
+      <c r="G45" s="256"/>
       <c r="H45" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="I45" s="265"/>
-      <c r="J45" s="265"/>
-      <c r="K45" s="262"/>
+      <c r="I45" s="256"/>
+      <c r="J45" s="256"/>
+      <c r="K45" s="266"/>
       <c r="L45" s="180" t="s">
         <v>194</v>
       </c>
@@ -8487,20 +8726,20 @@
       <c r="O45" s="178" t="s">
         <v>266</v>
       </c>
-      <c r="P45" s="265"/>
-      <c r="Q45" s="265"/>
-      <c r="R45" s="265"/>
-      <c r="S45" s="265"/>
-      <c r="T45" s="265"/>
-      <c r="U45" s="265"/>
-      <c r="V45" s="265"/>
-      <c r="W45" s="265"/>
-      <c r="X45" s="262"/>
-      <c r="Y45" s="274"/>
-      <c r="Z45" s="286"/>
-      <c r="AA45" s="286"/>
-      <c r="AB45" s="292"/>
-      <c r="AC45" s="262"/>
+      <c r="P45" s="256"/>
+      <c r="Q45" s="256"/>
+      <c r="R45" s="256"/>
+      <c r="S45" s="256"/>
+      <c r="T45" s="256"/>
+      <c r="U45" s="256"/>
+      <c r="V45" s="256"/>
+      <c r="W45" s="256"/>
+      <c r="X45" s="266"/>
+      <c r="Y45" s="329"/>
+      <c r="Z45" s="318"/>
+      <c r="AA45" s="318"/>
+      <c r="AB45" s="331"/>
+      <c r="AC45" s="266"/>
       <c r="AD45" s="113"/>
       <c r="AE45" s="51"/>
       <c r="AF45" s="51"/>
@@ -8513,16 +8752,16 @@
         <v>729</v>
       </c>
       <c r="C46" s="204"/>
-      <c r="D46" s="265"/>
+      <c r="D46" s="256"/>
       <c r="E46" s="206"/>
-      <c r="F46" s="265"/>
-      <c r="G46" s="265"/>
+      <c r="F46" s="256"/>
+      <c r="G46" s="256"/>
       <c r="H46" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="265"/>
-      <c r="J46" s="265"/>
-      <c r="K46" s="262"/>
+      <c r="I46" s="256"/>
+      <c r="J46" s="256"/>
+      <c r="K46" s="266"/>
       <c r="L46" s="149" t="s">
         <v>5</v>
       </c>
@@ -8535,20 +8774,20 @@
       <c r="O46" s="128" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="265"/>
-      <c r="Q46" s="265"/>
-      <c r="R46" s="265"/>
-      <c r="S46" s="265"/>
-      <c r="T46" s="265"/>
-      <c r="U46" s="265"/>
-      <c r="V46" s="265"/>
-      <c r="W46" s="265"/>
-      <c r="X46" s="262"/>
-      <c r="Y46" s="274"/>
-      <c r="Z46" s="286"/>
-      <c r="AA46" s="286"/>
-      <c r="AB46" s="292"/>
-      <c r="AC46" s="262"/>
+      <c r="P46" s="256"/>
+      <c r="Q46" s="256"/>
+      <c r="R46" s="256"/>
+      <c r="S46" s="256"/>
+      <c r="T46" s="256"/>
+      <c r="U46" s="256"/>
+      <c r="V46" s="256"/>
+      <c r="W46" s="256"/>
+      <c r="X46" s="266"/>
+      <c r="Y46" s="329"/>
+      <c r="Z46" s="318"/>
+      <c r="AA46" s="318"/>
+      <c r="AB46" s="331"/>
+      <c r="AC46" s="266"/>
       <c r="AD46" s="113"/>
       <c r="AE46" s="51"/>
       <c r="AF46" s="51"/>
@@ -8561,18 +8800,18 @@
         <v>730</v>
       </c>
       <c r="C47" s="204"/>
-      <c r="D47" s="265"/>
+      <c r="D47" s="256"/>
       <c r="E47" s="206"/>
-      <c r="F47" s="265"/>
-      <c r="G47" s="265"/>
+      <c r="F47" s="256"/>
+      <c r="G47" s="256"/>
       <c r="H47" s="126" t="s">
         <v>107</v>
       </c>
       <c r="I47" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="265"/>
-      <c r="K47" s="262"/>
+      <c r="J47" s="256"/>
+      <c r="K47" s="266"/>
       <c r="L47" s="228" t="s">
         <v>21</v>
       </c>
@@ -8585,20 +8824,20 @@
       <c r="O47" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="P47" s="265"/>
-      <c r="Q47" s="265"/>
-      <c r="R47" s="265"/>
-      <c r="S47" s="265"/>
-      <c r="T47" s="265"/>
-      <c r="U47" s="265"/>
-      <c r="V47" s="265"/>
-      <c r="W47" s="265"/>
-      <c r="X47" s="262"/>
-      <c r="Y47" s="274"/>
-      <c r="Z47" s="286"/>
-      <c r="AA47" s="286"/>
-      <c r="AB47" s="292"/>
-      <c r="AC47" s="262"/>
+      <c r="P47" s="256"/>
+      <c r="Q47" s="256"/>
+      <c r="R47" s="256"/>
+      <c r="S47" s="256"/>
+      <c r="T47" s="256"/>
+      <c r="U47" s="256"/>
+      <c r="V47" s="256"/>
+      <c r="W47" s="256"/>
+      <c r="X47" s="266"/>
+      <c r="Y47" s="329"/>
+      <c r="Z47" s="318"/>
+      <c r="AA47" s="318"/>
+      <c r="AB47" s="331"/>
+      <c r="AC47" s="266"/>
       <c r="AD47" s="113"/>
       <c r="AE47" s="51"/>
       <c r="AF47" s="51"/>
@@ -8611,18 +8850,18 @@
         <v>731</v>
       </c>
       <c r="C48" s="204"/>
-      <c r="D48" s="265"/>
+      <c r="D48" s="256"/>
       <c r="E48" s="206"/>
-      <c r="F48" s="265"/>
-      <c r="G48" s="265"/>
+      <c r="F48" s="256"/>
+      <c r="G48" s="256"/>
       <c r="H48" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="268" t="s">
+      <c r="I48" s="257" t="s">
         <v>812</v>
       </c>
-      <c r="J48" s="265"/>
-      <c r="K48" s="262"/>
+      <c r="J48" s="256"/>
+      <c r="K48" s="266"/>
       <c r="L48" s="149" t="s">
         <v>87</v>
       </c>
@@ -8635,20 +8874,20 @@
       <c r="O48" s="190" t="s">
         <v>267</v>
       </c>
-      <c r="P48" s="265"/>
-      <c r="Q48" s="265"/>
-      <c r="R48" s="265"/>
-      <c r="S48" s="265"/>
-      <c r="T48" s="265"/>
-      <c r="U48" s="265"/>
-      <c r="V48" s="265"/>
-      <c r="W48" s="265"/>
-      <c r="X48" s="262"/>
-      <c r="Y48" s="274"/>
-      <c r="Z48" s="286"/>
-      <c r="AA48" s="286"/>
-      <c r="AB48" s="292"/>
-      <c r="AC48" s="262"/>
+      <c r="P48" s="256"/>
+      <c r="Q48" s="256"/>
+      <c r="R48" s="256"/>
+      <c r="S48" s="256"/>
+      <c r="T48" s="256"/>
+      <c r="U48" s="256"/>
+      <c r="V48" s="256"/>
+      <c r="W48" s="256"/>
+      <c r="X48" s="266"/>
+      <c r="Y48" s="329"/>
+      <c r="Z48" s="318"/>
+      <c r="AA48" s="318"/>
+      <c r="AB48" s="331"/>
+      <c r="AC48" s="266"/>
       <c r="AD48" s="113"/>
       <c r="AE48" s="51"/>
       <c r="AF48" s="51"/>
@@ -8661,16 +8900,16 @@
         <v>732</v>
       </c>
       <c r="C49" s="204"/>
-      <c r="D49" s="266"/>
+      <c r="D49" s="268"/>
       <c r="E49" s="206"/>
-      <c r="F49" s="266"/>
-      <c r="G49" s="266"/>
+      <c r="F49" s="268"/>
+      <c r="G49" s="268"/>
       <c r="H49" s="181" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="269"/>
-      <c r="J49" s="266"/>
-      <c r="K49" s="262"/>
+      <c r="I49" s="258"/>
+      <c r="J49" s="268"/>
+      <c r="K49" s="266"/>
       <c r="L49" s="184" t="s">
         <v>195</v>
       </c>
@@ -8686,19 +8925,19 @@
       <c r="P49" s="129" t="s">
         <v>746</v>
       </c>
-      <c r="Q49" s="266"/>
-      <c r="R49" s="266"/>
-      <c r="S49" s="266"/>
-      <c r="T49" s="266"/>
-      <c r="U49" s="266"/>
-      <c r="V49" s="266"/>
-      <c r="W49" s="266"/>
-      <c r="X49" s="262"/>
-      <c r="Y49" s="275"/>
-      <c r="Z49" s="287"/>
-      <c r="AA49" s="287"/>
-      <c r="AB49" s="293"/>
-      <c r="AC49" s="262"/>
+      <c r="Q49" s="268"/>
+      <c r="R49" s="268"/>
+      <c r="S49" s="268"/>
+      <c r="T49" s="268"/>
+      <c r="U49" s="268"/>
+      <c r="V49" s="268"/>
+      <c r="W49" s="268"/>
+      <c r="X49" s="266"/>
+      <c r="Y49" s="332"/>
+      <c r="Z49" s="319"/>
+      <c r="AA49" s="319"/>
+      <c r="AB49" s="334"/>
+      <c r="AC49" s="266"/>
       <c r="AD49" s="113"/>
       <c r="AE49" s="51"/>
       <c r="AF49" s="51"/>
@@ -8722,7 +8961,7 @@
       </c>
       <c r="I50" s="195"/>
       <c r="J50" s="230"/>
-      <c r="K50" s="262"/>
+      <c r="K50" s="266"/>
       <c r="L50" s="176" t="s">
         <v>902</v>
       </c>
@@ -8743,16 +8982,16 @@
       <c r="U50" s="195"/>
       <c r="V50" s="195"/>
       <c r="W50" s="230"/>
-      <c r="X50" s="262"/>
-      <c r="Y50" s="273"/>
-      <c r="Z50" s="285" t="s">
+      <c r="X50" s="266"/>
+      <c r="Y50" s="326"/>
+      <c r="Z50" s="327" t="s">
         <v>923</v>
       </c>
-      <c r="AA50" s="285" t="s">
+      <c r="AA50" s="327" t="s">
         <v>924</v>
       </c>
-      <c r="AB50" s="291"/>
-      <c r="AC50" s="262"/>
+      <c r="AB50" s="328"/>
+      <c r="AC50" s="266"/>
       <c r="AD50" s="113"/>
       <c r="AE50" s="51"/>
       <c r="AF50" s="51"/>
@@ -8774,7 +9013,7 @@
       </c>
       <c r="I51" s="206"/>
       <c r="J51" s="227"/>
-      <c r="K51" s="262"/>
+      <c r="K51" s="266"/>
       <c r="L51" s="180" t="s">
         <v>197</v>
       </c>
@@ -8795,12 +9034,12 @@
       <c r="U51" s="206"/>
       <c r="V51" s="206"/>
       <c r="W51" s="227"/>
-      <c r="X51" s="262"/>
-      <c r="Y51" s="274"/>
-      <c r="Z51" s="286"/>
-      <c r="AA51" s="286"/>
-      <c r="AB51" s="292"/>
-      <c r="AC51" s="262"/>
+      <c r="X51" s="266"/>
+      <c r="Y51" s="329"/>
+      <c r="Z51" s="330"/>
+      <c r="AA51" s="330"/>
+      <c r="AB51" s="331"/>
+      <c r="AC51" s="266"/>
       <c r="AD51" s="113"/>
       <c r="AE51" s="51"/>
       <c r="AF51" s="51"/>
@@ -8822,7 +9061,7 @@
       </c>
       <c r="I52" s="206"/>
       <c r="J52" s="227"/>
-      <c r="K52" s="262"/>
+      <c r="K52" s="266"/>
       <c r="L52" s="184" t="s">
         <v>198</v>
       </c>
@@ -8843,12 +9082,12 @@
       <c r="U52" s="206"/>
       <c r="V52" s="206"/>
       <c r="W52" s="227"/>
-      <c r="X52" s="262"/>
-      <c r="Y52" s="274"/>
-      <c r="Z52" s="286"/>
-      <c r="AA52" s="286"/>
-      <c r="AB52" s="292"/>
-      <c r="AC52" s="262"/>
+      <c r="X52" s="266"/>
+      <c r="Y52" s="329"/>
+      <c r="Z52" s="330"/>
+      <c r="AA52" s="330"/>
+      <c r="AB52" s="331"/>
+      <c r="AC52" s="266"/>
       <c r="AD52" s="113"/>
       <c r="AE52" s="51"/>
       <c r="AF52" s="51"/>
@@ -8870,7 +9109,7 @@
       </c>
       <c r="I53" s="206"/>
       <c r="J53" s="227"/>
-      <c r="K53" s="262"/>
+      <c r="K53" s="266"/>
       <c r="L53" s="188" t="s">
         <v>903</v>
       </c>
@@ -8891,12 +9130,12 @@
       <c r="U53" s="206"/>
       <c r="V53" s="206"/>
       <c r="W53" s="227"/>
-      <c r="X53" s="262"/>
-      <c r="Y53" s="274"/>
-      <c r="Z53" s="286"/>
-      <c r="AA53" s="286"/>
-      <c r="AB53" s="292"/>
-      <c r="AC53" s="262"/>
+      <c r="X53" s="266"/>
+      <c r="Y53" s="329"/>
+      <c r="Z53" s="330"/>
+      <c r="AA53" s="330"/>
+      <c r="AB53" s="331"/>
+      <c r="AC53" s="266"/>
       <c r="AD53" s="113"/>
       <c r="AE53" s="51"/>
       <c r="AF53" s="51"/>
@@ -8918,7 +9157,7 @@
       </c>
       <c r="I54" s="206"/>
       <c r="J54" s="227"/>
-      <c r="K54" s="262"/>
+      <c r="K54" s="266"/>
       <c r="L54" s="180" t="s">
         <v>184</v>
       </c>
@@ -8939,12 +9178,12 @@
       <c r="U54" s="206"/>
       <c r="V54" s="206"/>
       <c r="W54" s="227"/>
-      <c r="X54" s="262"/>
-      <c r="Y54" s="274"/>
-      <c r="Z54" s="286"/>
-      <c r="AA54" s="286"/>
-      <c r="AB54" s="292"/>
-      <c r="AC54" s="262"/>
+      <c r="X54" s="266"/>
+      <c r="Y54" s="329"/>
+      <c r="Z54" s="330"/>
+      <c r="AA54" s="330"/>
+      <c r="AB54" s="331"/>
+      <c r="AC54" s="266"/>
       <c r="AD54" s="113"/>
       <c r="AE54" s="51"/>
       <c r="AF54" s="51"/>
@@ -8966,7 +9205,7 @@
       </c>
       <c r="I55" s="206"/>
       <c r="J55" s="227"/>
-      <c r="K55" s="262"/>
+      <c r="K55" s="266"/>
       <c r="L55" s="184" t="s">
         <v>904</v>
       </c>
@@ -8987,12 +9226,12 @@
       <c r="U55" s="206"/>
       <c r="V55" s="206"/>
       <c r="W55" s="227"/>
-      <c r="X55" s="262"/>
-      <c r="Y55" s="274"/>
-      <c r="Z55" s="286"/>
-      <c r="AA55" s="286"/>
-      <c r="AB55" s="292"/>
-      <c r="AC55" s="262"/>
+      <c r="X55" s="266"/>
+      <c r="Y55" s="329"/>
+      <c r="Z55" s="330"/>
+      <c r="AA55" s="330"/>
+      <c r="AB55" s="331"/>
+      <c r="AC55" s="266"/>
       <c r="AD55" s="113"/>
       <c r="AE55" s="51"/>
       <c r="AF55" s="51"/>
@@ -9016,7 +9255,7 @@
         <v>156</v>
       </c>
       <c r="J56" s="227"/>
-      <c r="K56" s="262"/>
+      <c r="K56" s="266"/>
       <c r="L56" s="231"/>
       <c r="M56" s="206"/>
       <c r="N56" s="189" t="s">
@@ -9033,12 +9272,12 @@
       <c r="U56" s="206"/>
       <c r="V56" s="206"/>
       <c r="W56" s="227"/>
-      <c r="X56" s="262"/>
-      <c r="Y56" s="274"/>
-      <c r="Z56" s="286"/>
-      <c r="AA56" s="286"/>
-      <c r="AB56" s="292"/>
-      <c r="AC56" s="262"/>
+      <c r="X56" s="266"/>
+      <c r="Y56" s="329"/>
+      <c r="Z56" s="330"/>
+      <c r="AA56" s="330"/>
+      <c r="AB56" s="331"/>
+      <c r="AC56" s="266"/>
       <c r="AD56" s="113"/>
       <c r="AE56" s="51"/>
       <c r="AF56" s="51"/>
@@ -9060,7 +9299,7 @@
       </c>
       <c r="I57" s="206"/>
       <c r="J57" s="227"/>
-      <c r="K57" s="262"/>
+      <c r="K57" s="266"/>
       <c r="L57" s="192" t="s">
         <v>201</v>
       </c>
@@ -9081,12 +9320,12 @@
       <c r="U57" s="206"/>
       <c r="V57" s="206"/>
       <c r="W57" s="227"/>
-      <c r="X57" s="262"/>
-      <c r="Y57" s="274"/>
-      <c r="Z57" s="286"/>
-      <c r="AA57" s="286"/>
-      <c r="AB57" s="292"/>
-      <c r="AC57" s="262"/>
+      <c r="X57" s="266"/>
+      <c r="Y57" s="329"/>
+      <c r="Z57" s="330"/>
+      <c r="AA57" s="330"/>
+      <c r="AB57" s="331"/>
+      <c r="AC57" s="266"/>
       <c r="AD57" s="113"/>
       <c r="AE57" s="51"/>
       <c r="AF57" s="51"/>
@@ -9108,7 +9347,7 @@
       </c>
       <c r="I58" s="217"/>
       <c r="J58" s="234"/>
-      <c r="K58" s="262"/>
+      <c r="K58" s="266"/>
       <c r="L58" s="235" t="s">
         <v>188</v>
       </c>
@@ -9131,12 +9370,12 @@
       <c r="U58" s="217"/>
       <c r="V58" s="217"/>
       <c r="W58" s="234"/>
-      <c r="X58" s="262"/>
-      <c r="Y58" s="275"/>
-      <c r="Z58" s="287"/>
-      <c r="AA58" s="287"/>
-      <c r="AB58" s="293"/>
-      <c r="AC58" s="262"/>
+      <c r="X58" s="266"/>
+      <c r="Y58" s="332"/>
+      <c r="Z58" s="333"/>
+      <c r="AA58" s="333"/>
+      <c r="AB58" s="334"/>
+      <c r="AC58" s="266"/>
       <c r="AD58" s="113" t="s">
         <v>430</v>
       </c>
@@ -9180,7 +9419,7 @@
       <c r="J59" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="K59" s="262"/>
+      <c r="K59" s="266"/>
       <c r="L59" s="148" t="s">
         <v>813</v>
       </c>
@@ -9217,20 +9456,20 @@
       <c r="W59" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="X59" s="262"/>
-      <c r="Y59" s="274" t="s">
+      <c r="X59" s="266"/>
+      <c r="Y59" s="320" t="s">
         <v>813</v>
       </c>
-      <c r="Z59" s="286" t="s">
+      <c r="Z59" s="318" t="s">
         <v>813</v>
       </c>
-      <c r="AA59" s="285" t="s">
+      <c r="AA59" s="317" t="s">
         <v>813</v>
       </c>
-      <c r="AB59" s="291" t="s">
+      <c r="AB59" s="323" t="s">
         <v>922</v>
       </c>
-      <c r="AC59" s="262"/>
+      <c r="AC59" s="266"/>
       <c r="AD59" s="113">
         <f>COUNTIF(C59:W59, "*No*") - COUNTIF(C59:W59,"*know*")</f>
         <v>14</v>
@@ -9277,7 +9516,7 @@
       <c r="J60" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="K60" s="262"/>
+      <c r="K60" s="266"/>
       <c r="L60" s="148" t="s">
         <v>813</v>
       </c>
@@ -9314,12 +9553,12 @@
       <c r="W60" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="X60" s="262"/>
-      <c r="Y60" s="274"/>
-      <c r="Z60" s="286"/>
-      <c r="AA60" s="286"/>
-      <c r="AB60" s="292"/>
-      <c r="AC60" s="262"/>
+      <c r="X60" s="266"/>
+      <c r="Y60" s="320"/>
+      <c r="Z60" s="318"/>
+      <c r="AA60" s="318"/>
+      <c r="AB60" s="324"/>
+      <c r="AC60" s="266"/>
       <c r="AD60" s="113">
         <f t="shared" ref="AD60:AD67" si="6">COUNTIF(C60:W60, "*No*") - COUNTIF(C60:W60,"*know*")</f>
         <v>15</v>
@@ -9366,7 +9605,7 @@
       <c r="J61" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="K61" s="262"/>
+      <c r="K61" s="266"/>
       <c r="L61" s="148" t="s">
         <v>813</v>
       </c>
@@ -9403,12 +9642,12 @@
       <c r="W61" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="X61" s="262"/>
-      <c r="Y61" s="274"/>
-      <c r="Z61" s="286"/>
-      <c r="AA61" s="286"/>
-      <c r="AB61" s="292"/>
-      <c r="AC61" s="262"/>
+      <c r="X61" s="266"/>
+      <c r="Y61" s="320"/>
+      <c r="Z61" s="318"/>
+      <c r="AA61" s="318"/>
+      <c r="AB61" s="324"/>
+      <c r="AC61" s="266"/>
       <c r="AD61" s="113">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -9455,7 +9694,7 @@
       <c r="J62" s="130" t="s">
         <v>814</v>
       </c>
-      <c r="K62" s="262"/>
+      <c r="K62" s="266"/>
       <c r="L62" s="148" t="s">
         <v>813</v>
       </c>
@@ -9492,12 +9731,12 @@
       <c r="W62" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="X62" s="262"/>
-      <c r="Y62" s="274"/>
-      <c r="Z62" s="286"/>
-      <c r="AA62" s="286"/>
-      <c r="AB62" s="292"/>
-      <c r="AC62" s="262"/>
+      <c r="X62" s="266"/>
+      <c r="Y62" s="320"/>
+      <c r="Z62" s="318"/>
+      <c r="AA62" s="318"/>
+      <c r="AB62" s="324"/>
+      <c r="AC62" s="266"/>
       <c r="AD62" s="113">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -9544,7 +9783,7 @@
       <c r="J63" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="K63" s="262"/>
+      <c r="K63" s="266"/>
       <c r="L63" s="148" t="s">
         <v>813</v>
       </c>
@@ -9581,12 +9820,12 @@
       <c r="W63" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="X63" s="262"/>
-      <c r="Y63" s="274"/>
-      <c r="Z63" s="286"/>
-      <c r="AA63" s="286"/>
-      <c r="AB63" s="292"/>
-      <c r="AC63" s="262"/>
+      <c r="X63" s="266"/>
+      <c r="Y63" s="320"/>
+      <c r="Z63" s="318"/>
+      <c r="AA63" s="318"/>
+      <c r="AB63" s="324"/>
+      <c r="AC63" s="266"/>
       <c r="AD63" s="113">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -9633,7 +9872,7 @@
       <c r="J64" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="K64" s="262"/>
+      <c r="K64" s="266"/>
       <c r="L64" s="148" t="s">
         <v>813</v>
       </c>
@@ -9670,12 +9909,12 @@
       <c r="W64" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="X64" s="262"/>
-      <c r="Y64" s="274"/>
-      <c r="Z64" s="286"/>
-      <c r="AA64" s="286"/>
-      <c r="AB64" s="292"/>
-      <c r="AC64" s="262"/>
+      <c r="X64" s="266"/>
+      <c r="Y64" s="320"/>
+      <c r="Z64" s="318"/>
+      <c r="AA64" s="318"/>
+      <c r="AB64" s="324"/>
+      <c r="AC64" s="266"/>
       <c r="AD64" s="113">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -9722,7 +9961,7 @@
       <c r="J65" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="K65" s="262"/>
+      <c r="K65" s="266"/>
       <c r="L65" s="228" t="s">
         <v>815</v>
       </c>
@@ -9759,12 +9998,12 @@
       <c r="W65" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="X65" s="262"/>
-      <c r="Y65" s="274"/>
-      <c r="Z65" s="286"/>
-      <c r="AA65" s="286"/>
-      <c r="AB65" s="292"/>
-      <c r="AC65" s="262"/>
+      <c r="X65" s="266"/>
+      <c r="Y65" s="320"/>
+      <c r="Z65" s="318"/>
+      <c r="AA65" s="318"/>
+      <c r="AB65" s="324"/>
+      <c r="AC65" s="266"/>
       <c r="AD65" s="113">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -9811,7 +10050,7 @@
       <c r="J66" s="137" t="s">
         <v>815</v>
       </c>
-      <c r="K66" s="262"/>
+      <c r="K66" s="266"/>
       <c r="L66" s="148" t="s">
         <v>813</v>
       </c>
@@ -9848,12 +10087,12 @@
       <c r="W66" s="133" t="s">
         <v>813</v>
       </c>
-      <c r="X66" s="262"/>
-      <c r="Y66" s="274"/>
-      <c r="Z66" s="286"/>
-      <c r="AA66" s="286"/>
-      <c r="AB66" s="292"/>
-      <c r="AC66" s="262"/>
+      <c r="X66" s="266"/>
+      <c r="Y66" s="320"/>
+      <c r="Z66" s="318"/>
+      <c r="AA66" s="318"/>
+      <c r="AB66" s="324"/>
+      <c r="AC66" s="266"/>
       <c r="AD66" s="113">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -9900,7 +10139,7 @@
       <c r="J67" s="243" t="s">
         <v>813</v>
       </c>
-      <c r="K67" s="263"/>
+      <c r="K67" s="267"/>
       <c r="L67" s="244" t="s">
         <v>813</v>
       </c>
@@ -9937,12 +10176,12 @@
       <c r="W67" s="243" t="s">
         <v>813</v>
       </c>
-      <c r="X67" s="263"/>
-      <c r="Y67" s="316"/>
-      <c r="Z67" s="317"/>
-      <c r="AA67" s="317"/>
-      <c r="AB67" s="318"/>
-      <c r="AC67" s="263"/>
+      <c r="X67" s="267"/>
+      <c r="Y67" s="321"/>
+      <c r="Z67" s="322"/>
+      <c r="AA67" s="322"/>
+      <c r="AB67" s="325"/>
+      <c r="AC67" s="267"/>
       <c r="AD67" s="116">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -9964,96 +10203,135 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C69" s="83" t="s">
+    <row r="69" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="75"/>
+      <c r="B69" s="75" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C69" s="75" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" s="301" t="s">
         <v>421</v>
       </c>
-      <c r="D69" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C70" s="82" t="s">
+      <c r="B70" s="72" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C70" s="73" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D70" s="75"/>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" s="302" t="s">
         <v>422</v>
       </c>
-      <c r="D70" s="68" t="s">
-        <v>433</v>
-      </c>
-      <c r="E70" s="69" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C71" s="84" t="s">
+      <c r="B71" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C71" s="76" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" s="303" t="s">
         <v>423</v>
       </c>
-      <c r="D71" s="68" t="s">
-        <v>434</v>
-      </c>
-      <c r="E71" s="69" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="85" t="s">
+      <c r="B72" s="75" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C72" s="76" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+    </row>
+    <row r="73" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="304" t="s">
         <v>424</v>
       </c>
-      <c r="D72" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="E72" s="58" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="73" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C74" s="319"/>
-      <c r="D74" s="55" t="s">
+      <c r="B73" s="77" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C73" s="78" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+    </row>
+    <row r="74" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="75"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="75"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" s="305"/>
+      <c r="B75" s="298" t="s">
         <v>925</v>
       </c>
-      <c r="E74" s="55"/>
-    </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C75" s="320"/>
-      <c r="D75" s="69" t="s">
+      <c r="C75" s="75"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" s="306"/>
+      <c r="B76" s="299" t="s">
         <v>926</v>
       </c>
-      <c r="E75" s="69"/>
-    </row>
-    <row r="76" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="321"/>
-      <c r="D76" s="58" t="s">
+      <c r="C76" s="75"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+    </row>
+    <row r="77" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="307"/>
+      <c r="B77" s="300" t="s">
         <v>927</v>
       </c>
-      <c r="E76" s="58"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="Z14:Z22"/>
+    <mergeCell ref="AA14:AA22"/>
+    <mergeCell ref="AB14:AB22"/>
+    <mergeCell ref="Z23:Z31"/>
+    <mergeCell ref="Z32:Z40"/>
+    <mergeCell ref="AB23:AB31"/>
+    <mergeCell ref="AB32:AB40"/>
     <mergeCell ref="AA32:AA40"/>
+    <mergeCell ref="AB41:AB49"/>
+    <mergeCell ref="AB50:AB58"/>
+    <mergeCell ref="AB59:AB67"/>
+    <mergeCell ref="AA23:AA31"/>
+    <mergeCell ref="P41:P48"/>
     <mergeCell ref="AA41:AA49"/>
     <mergeCell ref="AA50:AA58"/>
     <mergeCell ref="AA59:AA67"/>
     <mergeCell ref="Y50:Y58"/>
     <mergeCell ref="Y59:Y67"/>
-    <mergeCell ref="Z14:Z22"/>
-    <mergeCell ref="AA14:AA22"/>
-    <mergeCell ref="AB14:AB22"/>
-    <mergeCell ref="Z23:Z31"/>
-    <mergeCell ref="Z32:Z40"/>
     <mergeCell ref="Z41:Z49"/>
     <mergeCell ref="Z50:Z58"/>
     <mergeCell ref="Z59:Z67"/>
-    <mergeCell ref="AB23:AB31"/>
-    <mergeCell ref="AB32:AB40"/>
-    <mergeCell ref="AB41:AB49"/>
-    <mergeCell ref="AB50:AB58"/>
-    <mergeCell ref="AB59:AB67"/>
-    <mergeCell ref="AA23:AA31"/>
-    <mergeCell ref="P41:P48"/>
     <mergeCell ref="Y14:Y22"/>
     <mergeCell ref="Y23:Y31"/>
     <mergeCell ref="Y32:Y40"/>
@@ -10100,8 +10378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B870D45-F13D-4F8F-9B59-A956B296D93E}">
   <dimension ref="B2:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10124,36 +10402,36 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="38"/>
-      <c r="C2" s="297" t="s">
+      <c r="C2" s="282" t="s">
         <v>435</v>
       </c>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="297" t="s">
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="282" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="297" t="s">
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="284"/>
+      <c r="Q2" s="282" t="s">
         <v>437</v>
       </c>
-      <c r="R2" s="298"/>
-      <c r="S2" s="298"/>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="299"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="283"/>
+      <c r="V2" s="283"/>
+      <c r="W2" s="284"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="309" t="s">
+      <c r="B3" s="285" t="s">
         <v>421</v>
       </c>
       <c r="C3" s="89" t="s">
@@ -10209,7 +10487,7 @@
       <c r="W3" s="52"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="310"/>
+      <c r="B4" s="286"/>
       <c r="C4" s="86">
         <v>1</v>
       </c>
@@ -10257,7 +10535,7 @@
       <c r="W4" s="52"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="310"/>
+      <c r="B5" s="286"/>
       <c r="C5" s="86">
         <v>2</v>
       </c>
@@ -10265,7 +10543,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>458</v>
+        <v>944</v>
       </c>
       <c r="F5" s="45">
         <v>4</v>
@@ -10280,7 +10558,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>441</v>
+        <v>965</v>
       </c>
       <c r="M5" s="45">
         <v>4</v>
@@ -10297,7 +10575,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="40" t="s">
-        <v>476</v>
+        <v>992</v>
       </c>
       <c r="T5" s="48">
         <v>2</v>
@@ -10309,7 +10587,7 @@
       <c r="W5" s="52"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="310"/>
+      <c r="B6" s="286"/>
       <c r="C6" s="86">
         <v>3</v>
       </c>
@@ -10317,7 +10595,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>459</v>
+        <v>945</v>
       </c>
       <c r="F6" s="49">
         <v>3</v>
@@ -10334,7 +10612,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>442</v>
+        <v>966</v>
       </c>
       <c r="M6" s="49">
         <v>3</v>
@@ -10351,7 +10629,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>477</v>
+        <v>989</v>
       </c>
       <c r="T6" s="49">
         <v>3</v>
@@ -10363,7 +10641,7 @@
       <c r="W6" s="52"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="310"/>
+      <c r="B7" s="286"/>
       <c r="C7" s="86">
         <v>4</v>
       </c>
@@ -10397,7 +10675,7 @@
         <v>4</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>478</v>
+        <v>990</v>
       </c>
       <c r="T7" s="49">
         <v>3</v>
@@ -10407,7 +10685,7 @@
       <c r="W7" s="52"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="310"/>
+      <c r="B8" s="286"/>
       <c r="C8" s="86">
         <v>5</v>
       </c>
@@ -10415,7 +10693,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>460</v>
+        <v>946</v>
       </c>
       <c r="F8" s="48">
         <v>2</v>
@@ -10457,7 +10735,7 @@
       <c r="W8" s="52"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="310"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="86">
         <v>6</v>
       </c>
@@ -10501,7 +10779,7 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="310"/>
+      <c r="B10" s="286"/>
       <c r="C10" s="86">
         <v>7</v>
       </c>
@@ -10535,7 +10813,7 @@
         <v>3</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>479</v>
+        <v>991</v>
       </c>
       <c r="T10" s="48">
         <v>2</v>
@@ -10545,7 +10823,7 @@
       <c r="W10" s="52"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="310"/>
+      <c r="B11" s="286"/>
       <c r="C11" s="86">
         <v>8</v>
       </c>
@@ -10566,7 +10844,7 @@
         <v>3</v>
       </c>
       <c r="L11" s="40" t="s">
-        <v>450</v>
+        <v>967</v>
       </c>
       <c r="M11" s="45">
         <v>4</v>
@@ -10591,7 +10869,7 @@
       <c r="W11" s="52"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="311"/>
+      <c r="B12" s="287"/>
       <c r="C12" s="87">
         <v>9</v>
       </c>
@@ -10621,7 +10899,7 @@
       <c r="W12" s="52"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="288" t="s">
         <v>422</v>
       </c>
       <c r="C13" s="89" t="s">
@@ -10677,7 +10955,7 @@
       <c r="W13" s="52"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="301"/>
+      <c r="B14" s="289"/>
       <c r="C14" s="86">
         <v>1</v>
       </c>
@@ -10685,13 +10963,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>490</v>
+        <v>947</v>
       </c>
       <c r="F14" s="49">
         <v>3</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>495</v>
+        <v>951</v>
       </c>
       <c r="H14" s="50"/>
       <c r="I14" s="50"/>
@@ -10702,13 +10980,13 @@
         <v>3</v>
       </c>
       <c r="L14" s="40" t="s">
-        <v>504</v>
+        <v>968</v>
       </c>
       <c r="M14" s="45">
         <v>4</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>510</v>
+        <v>974</v>
       </c>
       <c r="O14" s="50"/>
       <c r="P14" s="50"/>
@@ -10719,19 +10997,19 @@
         <v>3</v>
       </c>
       <c r="S14" s="40" t="s">
-        <v>518</v>
+        <v>993</v>
       </c>
       <c r="T14" s="49">
         <v>3</v>
       </c>
       <c r="U14" s="41" t="s">
-        <v>519</v>
+        <v>994</v>
       </c>
       <c r="V14" s="51"/>
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="301"/>
+      <c r="B15" s="289"/>
       <c r="C15" s="86">
         <v>2</v>
       </c>
@@ -10743,7 +11021,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>496</v>
+        <v>952</v>
       </c>
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
@@ -10758,7 +11036,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="41" t="s">
-        <v>511</v>
+        <v>975</v>
       </c>
       <c r="O15" s="50"/>
       <c r="P15" s="50"/>
@@ -10773,13 +11051,13 @@
         <v>3</v>
       </c>
       <c r="U15" s="41" t="s">
-        <v>520</v>
+        <v>995</v>
       </c>
       <c r="V15" s="51"/>
       <c r="W15" s="52"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="301"/>
+      <c r="B16" s="289"/>
       <c r="C16" s="86">
         <v>3</v>
       </c>
@@ -10787,13 +11065,13 @@
         <v>2</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>491</v>
+        <v>948</v>
       </c>
       <c r="F16" s="49">
         <v>3</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>497</v>
+        <v>953</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="50"/>
@@ -10804,13 +11082,13 @@
         <v>3</v>
       </c>
       <c r="L16" s="40" t="s">
-        <v>505</v>
+        <v>969</v>
       </c>
       <c r="M16" s="49">
         <v>3</v>
       </c>
       <c r="N16" s="41" t="s">
-        <v>512</v>
+        <v>976</v>
       </c>
       <c r="O16" s="50"/>
       <c r="P16" s="50"/>
@@ -10825,13 +11103,13 @@
         <v>2</v>
       </c>
       <c r="U16" s="41" t="s">
-        <v>521</v>
+        <v>996</v>
       </c>
       <c r="V16" s="51"/>
       <c r="W16" s="52"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="301"/>
+      <c r="B17" s="289"/>
       <c r="C17" s="86">
         <v>4</v>
       </c>
@@ -10843,7 +11121,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>498</v>
+        <v>954</v>
       </c>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
@@ -10854,13 +11132,13 @@
         <v>4</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>506</v>
+        <v>970</v>
       </c>
       <c r="M17" s="45">
         <v>4</v>
       </c>
       <c r="N17" s="41" t="s">
-        <v>513</v>
+        <v>977</v>
       </c>
       <c r="O17" s="50"/>
       <c r="P17" s="50"/>
@@ -10875,13 +11153,13 @@
         <v>4</v>
       </c>
       <c r="U17" s="41" t="s">
-        <v>522</v>
+        <v>997</v>
       </c>
       <c r="V17" s="51"/>
       <c r="W17" s="52"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="301"/>
+      <c r="B18" s="289"/>
       <c r="C18" s="86">
         <v>5</v>
       </c>
@@ -10889,13 +11167,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>492</v>
+        <v>949</v>
       </c>
       <c r="F18" s="46">
         <v>5</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>499</v>
+        <v>955</v>
       </c>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
@@ -10906,13 +11184,13 @@
         <v>5</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>507</v>
+        <v>971</v>
       </c>
       <c r="M18" s="45">
         <v>4</v>
       </c>
       <c r="N18" s="41" t="s">
-        <v>514</v>
+        <v>978</v>
       </c>
       <c r="O18" s="50"/>
       <c r="P18" s="50"/>
@@ -10927,13 +11205,13 @@
         <v>4</v>
       </c>
       <c r="U18" s="41" t="s">
-        <v>523</v>
+        <v>998</v>
       </c>
       <c r="V18" s="51"/>
       <c r="W18" s="52"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="301"/>
+      <c r="B19" s="289"/>
       <c r="C19" s="86">
         <v>6</v>
       </c>
@@ -10945,7 +11223,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>500</v>
+        <v>956</v>
       </c>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
@@ -10956,13 +11234,13 @@
         <v>3</v>
       </c>
       <c r="L19" s="40" t="s">
-        <v>508</v>
+        <v>972</v>
       </c>
       <c r="M19" s="45">
         <v>4</v>
       </c>
       <c r="N19" s="41" t="s">
-        <v>515</v>
+        <v>979</v>
       </c>
       <c r="O19" s="50"/>
       <c r="P19" s="50"/>
@@ -10977,13 +11255,13 @@
         <v>4</v>
       </c>
       <c r="U19" s="41" t="s">
-        <v>524</v>
+        <v>999</v>
       </c>
       <c r="V19" s="51"/>
       <c r="W19" s="52"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="301"/>
+      <c r="B20" s="289"/>
       <c r="C20" s="86">
         <v>7</v>
       </c>
@@ -10995,7 +11273,7 @@
         <v>4</v>
       </c>
       <c r="G20" s="41" t="s">
-        <v>501</v>
+        <v>957</v>
       </c>
       <c r="H20" s="50"/>
       <c r="I20" s="50"/>
@@ -11010,7 +11288,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="41" t="s">
-        <v>516</v>
+        <v>980</v>
       </c>
       <c r="O20" s="50"/>
       <c r="P20" s="50"/>
@@ -11025,13 +11303,13 @@
         <v>4</v>
       </c>
       <c r="U20" s="41" t="s">
-        <v>525</v>
+        <v>1000</v>
       </c>
       <c r="V20" s="51"/>
       <c r="W20" s="52"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="301"/>
+      <c r="B21" s="289"/>
       <c r="C21" s="86">
         <v>8</v>
       </c>
@@ -11039,13 +11317,13 @@
         <v>5</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>493</v>
+        <v>950</v>
       </c>
       <c r="F21" s="46">
         <v>5</v>
       </c>
       <c r="G21" s="41" t="s">
-        <v>502</v>
+        <v>958</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
@@ -11056,13 +11334,13 @@
         <v>4</v>
       </c>
       <c r="L21" s="40" t="s">
-        <v>509</v>
+        <v>973</v>
       </c>
       <c r="M21" s="45">
         <v>4</v>
       </c>
       <c r="N21" s="41" t="s">
-        <v>517</v>
+        <v>981</v>
       </c>
       <c r="O21" s="50"/>
       <c r="P21" s="50"/>
@@ -11077,13 +11355,13 @@
         <v>4</v>
       </c>
       <c r="U21" s="41" t="s">
-        <v>526</v>
+        <v>1001</v>
       </c>
       <c r="V21" s="51"/>
       <c r="W21" s="52"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="302"/>
+      <c r="B22" s="290"/>
       <c r="C22" s="87">
         <v>9</v>
       </c>
@@ -11113,7 +11391,7 @@
       <c r="W22" s="52"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="291" t="s">
         <v>424</v>
       </c>
       <c r="C23" s="88" t="s">
@@ -11169,7 +11447,7 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="307"/>
+      <c r="B24" s="292"/>
       <c r="C24" s="86">
         <v>1</v>
       </c>
@@ -11221,7 +11499,7 @@
       <c r="W24" s="52"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="307"/>
+      <c r="B25" s="292"/>
       <c r="C25" s="86">
         <v>2</v>
       </c>
@@ -11275,7 +11553,7 @@
       <c r="W25" s="52"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="307"/>
+      <c r="B26" s="292"/>
       <c r="C26" s="86">
         <v>3</v>
       </c>
@@ -11325,7 +11603,7 @@
       <c r="W26" s="52"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="307"/>
+      <c r="B27" s="292"/>
       <c r="C27" s="86">
         <v>4</v>
       </c>
@@ -11375,7 +11653,7 @@
       <c r="W27" s="52"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="307"/>
+      <c r="B28" s="292"/>
       <c r="C28" s="86">
         <v>5</v>
       </c>
@@ -11405,7 +11683,7 @@
       <c r="W28" s="52"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="307"/>
+      <c r="B29" s="292"/>
       <c r="C29" s="86">
         <v>6</v>
       </c>
@@ -11455,7 +11733,7 @@
       <c r="W29" s="52"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="307"/>
+      <c r="B30" s="292"/>
       <c r="C30" s="86">
         <v>7</v>
       </c>
@@ -11503,7 +11781,7 @@
       <c r="W30" s="52"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="307"/>
+      <c r="B31" s="292"/>
       <c r="C31" s="86">
         <v>8</v>
       </c>
@@ -11555,7 +11833,7 @@
       <c r="W31" s="52"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="308"/>
+      <c r="B32" s="293"/>
       <c r="C32" s="87">
         <v>9</v>
       </c>
@@ -11585,7 +11863,7 @@
       <c r="W32" s="52"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="303" t="s">
+      <c r="B33" s="279" t="s">
         <v>423</v>
       </c>
       <c r="C33" s="89" t="s">
@@ -11653,7 +11931,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="304"/>
+      <c r="B34" s="280"/>
       <c r="C34" s="86">
         <v>1</v>
       </c>
@@ -11667,7 +11945,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>548</v>
+        <v>959</v>
       </c>
       <c r="H34" s="45">
         <v>4</v>
@@ -11688,7 +11966,7 @@
         <v>3</v>
       </c>
       <c r="N34" s="40" t="s">
-        <v>536</v>
+        <v>982</v>
       </c>
       <c r="O34" s="49">
         <v>3</v>
@@ -11709,7 +11987,7 @@
         <v>2</v>
       </c>
       <c r="U34" s="40" t="s">
-        <v>555</v>
+        <v>1002</v>
       </c>
       <c r="V34" s="45">
         <v>4</v>
@@ -11719,7 +11997,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="304"/>
+      <c r="B35" s="280"/>
       <c r="C35" s="86">
         <v>2</v>
       </c>
@@ -11733,7 +12011,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="40" t="s">
-        <v>549</v>
+        <v>960</v>
       </c>
       <c r="H35" s="47">
         <v>1</v>
@@ -11754,7 +12032,7 @@
         <v>2</v>
       </c>
       <c r="N35" s="40" t="s">
-        <v>537</v>
+        <v>983</v>
       </c>
       <c r="O35" s="49">
         <v>3</v>
@@ -11775,7 +12053,7 @@
         <v>3</v>
       </c>
       <c r="U35" s="40" t="s">
-        <v>556</v>
+        <v>1003</v>
       </c>
       <c r="V35" s="48">
         <v>2</v>
@@ -11785,7 +12063,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="304"/>
+      <c r="B36" s="280"/>
       <c r="C36" s="86">
         <v>3</v>
       </c>
@@ -11799,7 +12077,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="40" t="s">
-        <v>550</v>
+        <v>961</v>
       </c>
       <c r="H36" s="49">
         <v>3</v>
@@ -11820,7 +12098,7 @@
         <v>3</v>
       </c>
       <c r="N36" s="40" t="s">
-        <v>538</v>
+        <v>984</v>
       </c>
       <c r="O36" s="49">
         <v>3</v>
@@ -11841,7 +12119,7 @@
         <v>3</v>
       </c>
       <c r="U36" s="40" t="s">
-        <v>557</v>
+        <v>1004</v>
       </c>
       <c r="V36" s="49">
         <v>3</v>
@@ -11851,7 +12129,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="304"/>
+      <c r="B37" s="280"/>
       <c r="C37" s="86">
         <v>4</v>
       </c>
@@ -11865,7 +12143,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="40" t="s">
-        <v>551</v>
+        <v>962</v>
       </c>
       <c r="H37" s="49">
         <v>3</v>
@@ -11886,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="N37" s="40" t="s">
-        <v>539</v>
+        <v>985</v>
       </c>
       <c r="O37" s="45">
         <v>4</v>
@@ -11907,7 +12185,7 @@
         <v>4</v>
       </c>
       <c r="U37" s="40" t="s">
-        <v>558</v>
+        <v>1005</v>
       </c>
       <c r="V37" s="49">
         <v>3</v>
@@ -11917,7 +12195,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="304"/>
+      <c r="B38" s="280"/>
       <c r="C38" s="86">
         <v>5</v>
       </c>
@@ -11947,7 +12225,7 @@
       <c r="W38" s="41"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="304"/>
+      <c r="B39" s="280"/>
       <c r="C39" s="86">
         <v>6</v>
       </c>
@@ -11961,7 +12239,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="40" t="s">
-        <v>552</v>
+        <v>963</v>
       </c>
       <c r="H39" s="48">
         <v>2</v>
@@ -11982,7 +12260,7 @@
         <v>4</v>
       </c>
       <c r="N39" s="40" t="s">
-        <v>540</v>
+        <v>986</v>
       </c>
       <c r="O39" s="48">
         <v>2</v>
@@ -12003,7 +12281,7 @@
         <v>3</v>
       </c>
       <c r="U39" s="40" t="s">
-        <v>559</v>
+        <v>1006</v>
       </c>
       <c r="V39" s="49">
         <v>3</v>
@@ -12013,7 +12291,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="304"/>
+      <c r="B40" s="280"/>
       <c r="C40" s="86">
         <v>7</v>
       </c>
@@ -12027,7 +12305,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="40" t="s">
-        <v>553</v>
+        <v>959</v>
       </c>
       <c r="H40" s="47">
         <v>1</v>
@@ -12048,7 +12326,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="40" t="s">
-        <v>541</v>
+        <v>987</v>
       </c>
       <c r="O40" s="47">
         <v>1</v>
@@ -12069,7 +12347,7 @@
         <v>3</v>
       </c>
       <c r="U40" s="40" t="s">
-        <v>560</v>
+        <v>1007</v>
       </c>
       <c r="V40" s="49">
         <v>3</v>
@@ -12079,7 +12357,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="304"/>
+      <c r="B41" s="280"/>
       <c r="C41" s="86">
         <v>8</v>
       </c>
@@ -12093,7 +12371,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="40" t="s">
-        <v>554</v>
+        <v>964</v>
       </c>
       <c r="H41" s="48">
         <v>2</v>
@@ -12114,7 +12392,7 @@
         <v>4</v>
       </c>
       <c r="N41" s="40" t="s">
-        <v>542</v>
+        <v>988</v>
       </c>
       <c r="O41" s="45">
         <v>4</v>
@@ -12135,7 +12413,7 @@
         <v>3</v>
       </c>
       <c r="U41" s="40" t="s">
-        <v>561</v>
+        <v>1008</v>
       </c>
       <c r="V41" s="45">
         <v>4</v>
@@ -12145,7 +12423,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="305"/>
+      <c r="B42" s="281"/>
       <c r="C42" s="87">
         <v>9</v>
       </c>
@@ -12563,36 +12841,36 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="38"/>
-      <c r="C2" s="297" t="s">
+      <c r="C2" s="282" t="s">
         <v>435</v>
       </c>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="299"/>
-      <c r="J2" s="297" t="s">
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="283"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="282" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="298"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="298"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="297" t="s">
+      <c r="K2" s="283"/>
+      <c r="L2" s="283"/>
+      <c r="M2" s="283"/>
+      <c r="N2" s="283"/>
+      <c r="O2" s="283"/>
+      <c r="P2" s="284"/>
+      <c r="Q2" s="282" t="s">
         <v>437</v>
       </c>
-      <c r="R2" s="298"/>
-      <c r="S2" s="298"/>
-      <c r="T2" s="298"/>
-      <c r="U2" s="298"/>
-      <c r="V2" s="298"/>
-      <c r="W2" s="299"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
+      <c r="T2" s="283"/>
+      <c r="U2" s="283"/>
+      <c r="V2" s="283"/>
+      <c r="W2" s="284"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="309" t="s">
+      <c r="B3" s="285" t="s">
         <v>421</v>
       </c>
       <c r="C3" s="89" t="s">
@@ -12648,7 +12926,7 @@
       <c r="W3" s="52"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="310"/>
+      <c r="B4" s="286"/>
       <c r="C4" s="86">
         <v>1</v>
       </c>
@@ -12696,7 +12974,7 @@
       <c r="W4" s="52"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="310"/>
+      <c r="B5" s="286"/>
       <c r="C5" s="86">
         <v>2</v>
       </c>
@@ -12748,7 +13026,7 @@
       <c r="W5" s="52"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="310"/>
+      <c r="B6" s="286"/>
       <c r="C6" s="86">
         <v>3</v>
       </c>
@@ -12802,7 +13080,7 @@
       <c r="W6" s="52"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="310"/>
+      <c r="B7" s="286"/>
       <c r="C7" s="86">
         <v>4</v>
       </c>
@@ -12846,7 +13124,7 @@
       <c r="W7" s="52"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="310"/>
+      <c r="B8" s="286"/>
       <c r="C8" s="86">
         <v>5</v>
       </c>
@@ -12896,7 +13174,7 @@
       <c r="W8" s="52"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="310"/>
+      <c r="B9" s="286"/>
       <c r="C9" s="86">
         <v>6</v>
       </c>
@@ -12940,7 +13218,7 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="310"/>
+      <c r="B10" s="286"/>
       <c r="C10" s="86">
         <v>7</v>
       </c>
@@ -12984,7 +13262,7 @@
       <c r="W10" s="52"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="310"/>
+      <c r="B11" s="286"/>
       <c r="C11" s="86">
         <v>8</v>
       </c>
@@ -13030,7 +13308,7 @@
       <c r="W11" s="52"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="311"/>
+      <c r="B12" s="287"/>
       <c r="C12" s="87">
         <v>9</v>
       </c>
@@ -13060,7 +13338,7 @@
       <c r="W12" s="52"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="300" t="s">
+      <c r="B13" s="288" t="s">
         <v>422</v>
       </c>
       <c r="C13" s="89" t="s">
@@ -13116,7 +13394,7 @@
       <c r="W13" s="52"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="301"/>
+      <c r="B14" s="289"/>
       <c r="C14" s="86">
         <v>1</v>
       </c>
@@ -13170,7 +13448,7 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="301"/>
+      <c r="B15" s="289"/>
       <c r="C15" s="86">
         <v>2</v>
       </c>
@@ -13218,7 +13496,7 @@
       <c r="W15" s="52"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="301"/>
+      <c r="B16" s="289"/>
       <c r="C16" s="86">
         <v>3</v>
       </c>
@@ -13270,7 +13548,7 @@
       <c r="W16" s="52"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="301"/>
+      <c r="B17" s="289"/>
       <c r="C17" s="86">
         <v>4</v>
       </c>
@@ -13320,7 +13598,7 @@
       <c r="W17" s="52"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="301"/>
+      <c r="B18" s="289"/>
       <c r="C18" s="86">
         <v>5</v>
       </c>
@@ -13372,7 +13650,7 @@
       <c r="W18" s="52"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="301"/>
+      <c r="B19" s="289"/>
       <c r="C19" s="86">
         <v>6</v>
       </c>
@@ -13422,7 +13700,7 @@
       <c r="W19" s="52"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="301"/>
+      <c r="B20" s="289"/>
       <c r="C20" s="86">
         <v>7</v>
       </c>
@@ -13470,7 +13748,7 @@
       <c r="W20" s="52"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="301"/>
+      <c r="B21" s="289"/>
       <c r="C21" s="86">
         <v>8</v>
       </c>
@@ -13522,7 +13800,7 @@
       <c r="W21" s="52"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="302"/>
+      <c r="B22" s="290"/>
       <c r="C22" s="87">
         <v>9</v>
       </c>
@@ -13552,7 +13830,7 @@
       <c r="W22" s="52"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="306" t="s">
+      <c r="B23" s="291" t="s">
         <v>424</v>
       </c>
       <c r="C23" s="88" t="s">
@@ -13608,7 +13886,7 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="307"/>
+      <c r="B24" s="292"/>
       <c r="C24" s="86">
         <v>1</v>
       </c>
@@ -13660,7 +13938,7 @@
       <c r="W24" s="52"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="307"/>
+      <c r="B25" s="292"/>
       <c r="C25" s="86">
         <v>2</v>
       </c>
@@ -13714,7 +13992,7 @@
       <c r="W25" s="52"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="307"/>
+      <c r="B26" s="292"/>
       <c r="C26" s="86">
         <v>3</v>
       </c>
@@ -13764,7 +14042,7 @@
       <c r="W26" s="52"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="307"/>
+      <c r="B27" s="292"/>
       <c r="C27" s="86">
         <v>4</v>
       </c>
@@ -13814,7 +14092,7 @@
       <c r="W27" s="52"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="307"/>
+      <c r="B28" s="292"/>
       <c r="C28" s="86">
         <v>5</v>
       </c>
@@ -13844,7 +14122,7 @@
       <c r="W28" s="52"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="307"/>
+      <c r="B29" s="292"/>
       <c r="C29" s="86">
         <v>6</v>
       </c>
@@ -13894,7 +14172,7 @@
       <c r="W29" s="52"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="307"/>
+      <c r="B30" s="292"/>
       <c r="C30" s="86">
         <v>7</v>
       </c>
@@ -13942,7 +14220,7 @@
       <c r="W30" s="52"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="307"/>
+      <c r="B31" s="292"/>
       <c r="C31" s="86">
         <v>8</v>
       </c>
@@ -13994,7 +14272,7 @@
       <c r="W31" s="52"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="308"/>
+      <c r="B32" s="293"/>
       <c r="C32" s="87">
         <v>9</v>
       </c>
@@ -14024,7 +14302,7 @@
       <c r="W32" s="52"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="303" t="s">
+      <c r="B33" s="279" t="s">
         <v>423</v>
       </c>
       <c r="C33" s="89" t="s">
@@ -14092,7 +14370,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="304"/>
+      <c r="B34" s="280"/>
       <c r="C34" s="86">
         <v>1</v>
       </c>
@@ -14158,7 +14436,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="304"/>
+      <c r="B35" s="280"/>
       <c r="C35" s="86">
         <v>2</v>
       </c>
@@ -14224,7 +14502,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="304"/>
+      <c r="B36" s="280"/>
       <c r="C36" s="86">
         <v>3</v>
       </c>
@@ -14290,7 +14568,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="304"/>
+      <c r="B37" s="280"/>
       <c r="C37" s="86">
         <v>4</v>
       </c>
@@ -14356,7 +14634,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="304"/>
+      <c r="B38" s="280"/>
       <c r="C38" s="86">
         <v>5</v>
       </c>
@@ -14386,7 +14664,7 @@
       <c r="W38" s="41"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="304"/>
+      <c r="B39" s="280"/>
       <c r="C39" s="86">
         <v>6</v>
       </c>
@@ -14452,7 +14730,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="304"/>
+      <c r="B40" s="280"/>
       <c r="C40" s="86">
         <v>7</v>
       </c>
@@ -14518,7 +14796,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="304"/>
+      <c r="B41" s="280"/>
       <c r="C41" s="86">
         <v>8</v>
       </c>
@@ -14584,7 +14862,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="305"/>
+      <c r="B42" s="281"/>
       <c r="C42" s="87">
         <v>9</v>
       </c>
@@ -15722,7 +16000,7 @@
       <c r="AD14" s="105"/>
     </row>
     <row r="15" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="315" t="s">
+      <c r="A15" s="297" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -15787,7 +16065,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="313"/>
+      <c r="A16" s="295"/>
       <c r="B16" s="23" t="s">
         <v>1</v>
       </c>
@@ -15850,7 +16128,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="312"/>
+      <c r="A17" s="294"/>
       <c r="B17" s="20" t="s">
         <v>2</v>
       </c>
@@ -15913,7 +16191,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="312"/>
+      <c r="A18" s="294"/>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
@@ -15976,7 +16254,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="313"/>
+      <c r="A19" s="295"/>
       <c r="B19" s="23" t="s">
         <v>4</v>
       </c>
@@ -16039,7 +16317,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="312"/>
+      <c r="A20" s="294"/>
       <c r="B20" s="20" t="s">
         <v>5</v>
       </c>
@@ -16102,7 +16380,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="312"/>
+      <c r="A21" s="294"/>
       <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
@@ -16165,7 +16443,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="312"/>
+      <c r="A22" s="294"/>
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
@@ -16228,7 +16506,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="314"/>
+      <c r="A23" s="296"/>
       <c r="B23" s="17" t="s">
         <v>8</v>
       </c>
@@ -16291,7 +16569,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="315" t="s">
+      <c r="A24" s="297" t="s">
         <v>416</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -16356,7 +16634,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="313"/>
+      <c r="A25" s="295"/>
       <c r="B25" s="23" t="s">
         <v>10</v>
       </c>
@@ -16419,7 +16697,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="312"/>
+      <c r="A26" s="294"/>
       <c r="B26" s="20" t="s">
         <v>11</v>
       </c>
@@ -16482,7 +16760,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="312"/>
+      <c r="A27" s="294"/>
       <c r="B27" s="11" t="s">
         <v>12</v>
       </c>
@@ -16545,7 +16823,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="313"/>
+      <c r="A28" s="295"/>
       <c r="B28" s="23" t="s">
         <v>13</v>
       </c>
@@ -16608,7 +16886,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="312"/>
+      <c r="A29" s="294"/>
       <c r="B29" s="20" t="s">
         <v>14</v>
       </c>
@@ -16671,7 +16949,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="312"/>
+      <c r="A30" s="294"/>
       <c r="B30" s="14" t="s">
         <v>15</v>
       </c>
@@ -16734,7 +17012,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="312"/>
+      <c r="A31" s="294"/>
       <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
@@ -16797,7 +17075,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="312"/>
+      <c r="A32" s="294"/>
       <c r="B32" s="20" t="s">
         <v>17</v>
       </c>
@@ -16860,7 +17138,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="315" t="s">
+      <c r="A33" s="297" t="s">
         <v>417</v>
       </c>
       <c r="B33" s="26"/>
@@ -16921,7 +17199,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="313"/>
+      <c r="A34" s="295"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24" t="s">
         <v>34</v>
@@ -16980,7 +17258,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="312"/>
+      <c r="A35" s="294"/>
       <c r="B35" s="29"/>
       <c r="C35" s="21" t="s">
         <v>35</v>
@@ -17039,7 +17317,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="312"/>
+      <c r="A36" s="294"/>
       <c r="B36" s="29"/>
       <c r="C36" s="12" t="s">
         <v>36</v>
@@ -17098,7 +17376,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="313"/>
+      <c r="A37" s="295"/>
       <c r="B37" s="29"/>
       <c r="C37" s="24" t="s">
         <v>37</v>
@@ -17157,7 +17435,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="312"/>
+      <c r="A38" s="294"/>
       <c r="B38" s="29"/>
       <c r="C38" s="21" t="s">
         <v>38</v>
@@ -17216,7 +17494,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="312"/>
+      <c r="A39" s="294"/>
       <c r="B39" s="29"/>
       <c r="C39" s="15" t="s">
         <v>39</v>
@@ -17275,7 +17553,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="312"/>
+      <c r="A40" s="294"/>
       <c r="B40" s="29"/>
       <c r="C40" s="15" t="s">
         <v>40</v>
@@ -17334,7 +17612,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="314"/>
+      <c r="A41" s="296"/>
       <c r="B41" s="32"/>
       <c r="C41" s="18" t="s">
         <v>41</v>
@@ -17393,7 +17671,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="312" t="s">
+      <c r="A42" s="294" t="s">
         <v>418</v>
       </c>
       <c r="B42" s="29"/>
@@ -17454,7 +17732,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="313"/>
+      <c r="A43" s="295"/>
       <c r="B43" s="29"/>
       <c r="C43" s="35" t="s">
         <v>432</v>
@@ -17513,7 +17791,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="312"/>
+      <c r="A44" s="294"/>
       <c r="B44" s="29"/>
       <c r="C44" s="35" t="s">
         <v>432</v>
@@ -17572,7 +17850,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="312"/>
+      <c r="A45" s="294"/>
       <c r="B45" s="29"/>
       <c r="C45" s="35" t="s">
         <v>432</v>
@@ -17631,7 +17909,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="313"/>
+      <c r="A46" s="295"/>
       <c r="B46" s="29"/>
       <c r="C46" s="35" t="s">
         <v>432</v>
@@ -17690,7 +17968,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="312"/>
+      <c r="A47" s="294"/>
       <c r="B47" s="29"/>
       <c r="C47" s="35" t="s">
         <v>432</v>
@@ -17749,7 +18027,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="312"/>
+      <c r="A48" s="294"/>
       <c r="B48" s="29"/>
       <c r="C48" s="35" t="s">
         <v>432</v>
@@ -17808,7 +18086,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="312"/>
+      <c r="A49" s="294"/>
       <c r="B49" s="29"/>
       <c r="C49" s="35" t="s">
         <v>432</v>
@@ -17867,7 +18145,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="312"/>
+      <c r="A50" s="294"/>
       <c r="B50" s="29"/>
       <c r="C50" s="35" t="s">
         <v>432</v>
@@ -17926,7 +18204,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="315" t="s">
+      <c r="A51" s="297" t="s">
         <v>419</v>
       </c>
       <c r="B51" s="26"/>
@@ -17961,7 +18239,7 @@
       <c r="U51" s="28"/>
     </row>
     <row r="52" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="313"/>
+      <c r="A52" s="295"/>
       <c r="B52" s="29"/>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
@@ -17994,7 +18272,7 @@
       <c r="U52" s="31"/>
     </row>
     <row r="53" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="312"/>
+      <c r="A53" s="294"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -18027,7 +18305,7 @@
       <c r="U53" s="31"/>
     </row>
     <row r="54" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="312"/>
+      <c r="A54" s="294"/>
       <c r="B54" s="29"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -18060,7 +18338,7 @@
       <c r="U54" s="31"/>
     </row>
     <row r="55" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="313"/>
+      <c r="A55" s="295"/>
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -18093,7 +18371,7 @@
       <c r="U55" s="31"/>
     </row>
     <row r="56" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="312"/>
+      <c r="A56" s="294"/>
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
@@ -18126,7 +18404,7 @@
       <c r="U56" s="31"/>
     </row>
     <row r="57" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="312"/>
+      <c r="A57" s="294"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
@@ -18157,7 +18435,7 @@
       <c r="U57" s="31"/>
     </row>
     <row r="58" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="312"/>
+      <c r="A58" s="294"/>
       <c r="B58" s="29"/>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -18190,7 +18468,7 @@
       <c r="U58" s="31"/>
     </row>
     <row r="59" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="314"/>
+      <c r="A59" s="296"/>
       <c r="B59" s="32"/>
       <c r="C59" s="30"/>
       <c r="D59" s="33"/>
@@ -18225,7 +18503,7 @@
       <c r="U59" s="34"/>
     </row>
     <row r="60" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="312" t="s">
+      <c r="A60" s="294" t="s">
         <v>420</v>
       </c>
       <c r="B60" s="29"/>
@@ -18286,7 +18564,7 @@
       </c>
     </row>
     <row r="61" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="313"/>
+      <c r="A61" s="295"/>
       <c r="B61" s="29"/>
       <c r="C61" s="24" t="s">
         <v>43</v>
@@ -18345,7 +18623,7 @@
       </c>
     </row>
     <row r="62" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="312"/>
+      <c r="A62" s="294"/>
       <c r="B62" s="29"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
@@ -18404,7 +18682,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="312"/>
+      <c r="A63" s="294"/>
       <c r="B63" s="29"/>
       <c r="C63" s="12" t="s">
         <v>45</v>
@@ -18463,7 +18741,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="313"/>
+      <c r="A64" s="295"/>
       <c r="B64" s="29"/>
       <c r="C64" s="24" t="s">
         <v>46</v>
@@ -18522,7 +18800,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="312"/>
+      <c r="A65" s="294"/>
       <c r="B65" s="29"/>
       <c r="C65" s="21" t="s">
         <v>47</v>
@@ -18581,7 +18859,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="312"/>
+      <c r="A66" s="294"/>
       <c r="B66" s="29"/>
       <c r="C66" s="15" t="s">
         <v>48</v>
@@ -18640,7 +18918,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="312"/>
+      <c r="A67" s="294"/>
       <c r="B67" s="29"/>
       <c r="C67" s="15" t="s">
         <v>49</v>
@@ -18699,7 +18977,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="314"/>
+      <c r="A68" s="296"/>
       <c r="B68" s="32"/>
       <c r="C68" s="18" t="s">
         <v>50</v>

--- a/StudentExperiment.xlsx
+++ b/StudentExperiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Github\ReflectionMachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7FE327-72EE-4DC6-9F08-3824CA27C2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D2924-A0A8-43D7-9EA6-916A3A36F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23460" yWindow="6135" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INFORMATION SHEET" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="1020">
   <si>
     <t xml:space="preserve">p0: Yes
 </t>
@@ -3501,6 +3501,21 @@
   </si>
   <si>
     <t>not informed</t>
+  </si>
+  <si>
+    <t>Survey after part B</t>
+  </si>
+  <si>
+    <t>Survey after part A</t>
+  </si>
+  <si>
+    <t>RM intervention</t>
+  </si>
+  <si>
+    <t>Response to RM</t>
+  </si>
+  <si>
+    <t>Motivation response to RM</t>
   </si>
 </sst>
 </file>
@@ -4308,7 +4323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="335">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4493,12 +4508,6 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4626,35 +4635,78 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
@@ -4662,11 +4714,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4695,38 +4789,44 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4784,97 +4884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5315,8 +5324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C41995-AC5D-41EB-9D3E-731EEA4989BD}">
   <dimension ref="A1:AH77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5329,160 +5338,160 @@
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="309" t="s">
         <v>733</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="253" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="301" t="s">
         <v>734</v>
       </c>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="265" t="s">
+      <c r="D2" s="302"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="302"/>
+      <c r="H2" s="302"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="302"/>
+      <c r="K2" s="298" t="s">
         <v>737</v>
       </c>
-      <c r="L2" s="253" t="s">
+      <c r="L2" s="301" t="s">
         <v>738</v>
       </c>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="254"/>
-      <c r="S2" s="254"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="265" t="s">
+      <c r="M2" s="302"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="302"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="302"/>
+      <c r="U2" s="302"/>
+      <c r="V2" s="302"/>
+      <c r="W2" s="303"/>
+      <c r="X2" s="298" t="s">
         <v>737</v>
       </c>
-      <c r="Y2" s="259" t="s">
+      <c r="Y2" s="292" t="s">
         <v>742</v>
       </c>
-      <c r="Z2" s="260"/>
-      <c r="AA2" s="260"/>
-      <c r="AB2" s="261"/>
-      <c r="AC2" s="265" t="s">
+      <c r="Z2" s="293"/>
+      <c r="AA2" s="293"/>
+      <c r="AB2" s="294"/>
+      <c r="AC2" s="298" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="251"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="262" t="s">
+      <c r="A3" s="310"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="295" t="s">
         <v>735</v>
       </c>
-      <c r="D3" s="263"/>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="262" t="s">
+      <c r="D3" s="296"/>
+      <c r="E3" s="296"/>
+      <c r="F3" s="296"/>
+      <c r="G3" s="295" t="s">
         <v>736</v>
       </c>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="262" t="s">
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="295" t="s">
         <v>739</v>
       </c>
-      <c r="M3" s="263"/>
-      <c r="N3" s="263"/>
-      <c r="O3" s="263"/>
-      <c r="P3" s="262" t="s">
+      <c r="M3" s="296"/>
+      <c r="N3" s="296"/>
+      <c r="O3" s="296"/>
+      <c r="P3" s="295" t="s">
         <v>740</v>
       </c>
-      <c r="Q3" s="263"/>
-      <c r="R3" s="263"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="263" t="s">
+      <c r="Q3" s="296"/>
+      <c r="R3" s="296"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="296" t="s">
         <v>741</v>
       </c>
-      <c r="U3" s="263"/>
-      <c r="V3" s="263"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="262" t="s">
+      <c r="U3" s="296"/>
+      <c r="V3" s="296"/>
+      <c r="W3" s="297"/>
+      <c r="X3" s="299"/>
+      <c r="Y3" s="295" t="s">
         <v>743</v>
       </c>
-      <c r="Z3" s="263"/>
-      <c r="AA3" s="263"/>
-      <c r="AB3" s="264"/>
-      <c r="AC3" s="266"/>
+      <c r="Z3" s="296"/>
+      <c r="AA3" s="296"/>
+      <c r="AB3" s="297"/>
+      <c r="AC3" s="299"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="251"/>
-      <c r="B4" s="152" t="s">
+      <c r="A4" s="310"/>
+      <c r="B4" s="150" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="153" t="s">
+      <c r="C4" s="151" t="s">
         <v>635</v>
       </c>
-      <c r="D4" s="154" t="s">
+      <c r="D4" s="152" t="s">
         <v>636</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="152" t="s">
         <v>636</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="G4" s="155" t="s">
+      <c r="G4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="H4" s="154" t="s">
+      <c r="H4" s="152" t="s">
         <v>654</v>
       </c>
-      <c r="I4" s="154" t="s">
+      <c r="I4" s="152" t="s">
         <v>635</v>
       </c>
-      <c r="J4" s="156" t="s">
+      <c r="J4" s="154" t="s">
         <v>654</v>
       </c>
-      <c r="K4" s="266"/>
-      <c r="L4" s="153" t="s">
+      <c r="K4" s="299"/>
+      <c r="L4" s="151" t="s">
         <v>636</v>
       </c>
-      <c r="M4" s="155" t="s">
+      <c r="M4" s="153" t="s">
         <v>654</v>
       </c>
-      <c r="N4" s="155" t="s">
+      <c r="N4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="O4" s="155" t="s">
+      <c r="O4" s="153" t="s">
         <v>654</v>
       </c>
-      <c r="P4" s="155" t="s">
+      <c r="P4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="Q4" s="155" t="s">
+      <c r="Q4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="R4" s="155" t="s">
+      <c r="R4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="S4" s="155" t="s">
+      <c r="S4" s="153" t="s">
         <v>654</v>
       </c>
-      <c r="T4" s="155" t="s">
+      <c r="T4" s="153" t="s">
         <v>654</v>
       </c>
-      <c r="U4" s="155" t="s">
+      <c r="U4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="V4" s="155" t="s">
+      <c r="V4" s="153" t="s">
         <v>636</v>
       </c>
-      <c r="W4" s="157" t="s">
+      <c r="W4" s="155" t="s">
         <v>654</v>
       </c>
-      <c r="X4" s="266"/>
+      <c r="X4" s="299"/>
       <c r="Y4" s="59" t="s">
         <v>654</v>
       </c>
@@ -5495,75 +5504,75 @@
       <c r="AB4" s="59" t="s">
         <v>636</v>
       </c>
-      <c r="AC4" s="266"/>
+      <c r="AC4" s="299"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="251"/>
-      <c r="B5" s="152" t="s">
+      <c r="A5" s="310"/>
+      <c r="B5" s="150" t="s">
         <v>696</v>
       </c>
-      <c r="C5" s="158">
+      <c r="C5" s="156">
         <v>2</v>
       </c>
-      <c r="D5" s="155">
+      <c r="D5" s="153">
         <v>2</v>
       </c>
-      <c r="E5" s="155">
+      <c r="E5" s="153">
         <v>1</v>
       </c>
-      <c r="F5" s="155">
+      <c r="F5" s="153">
         <v>0</v>
       </c>
-      <c r="G5" s="155">
+      <c r="G5" s="153">
         <v>0</v>
       </c>
-      <c r="H5" s="155">
+      <c r="H5" s="153">
         <v>1</v>
       </c>
-      <c r="I5" s="155">
+      <c r="I5" s="153">
         <v>0</v>
       </c>
-      <c r="J5" s="159">
+      <c r="J5" s="157">
         <v>0</v>
       </c>
-      <c r="K5" s="266"/>
-      <c r="L5" s="158">
+      <c r="K5" s="299"/>
+      <c r="L5" s="156">
         <v>0</v>
       </c>
-      <c r="M5" s="155">
+      <c r="M5" s="153">
         <v>0</v>
       </c>
-      <c r="N5" s="155">
+      <c r="N5" s="153">
         <v>1</v>
       </c>
-      <c r="O5" s="155">
+      <c r="O5" s="153">
         <v>0</v>
       </c>
-      <c r="P5" s="155">
+      <c r="P5" s="153">
         <v>0</v>
       </c>
-      <c r="Q5" s="155">
+      <c r="Q5" s="153">
         <v>0</v>
       </c>
-      <c r="R5" s="155">
+      <c r="R5" s="153">
         <v>4</v>
       </c>
-      <c r="S5" s="155">
+      <c r="S5" s="153">
         <v>0</v>
       </c>
-      <c r="T5" s="155">
+      <c r="T5" s="153">
         <v>0</v>
       </c>
-      <c r="U5" s="155">
+      <c r="U5" s="153">
         <v>1</v>
       </c>
-      <c r="V5" s="155">
+      <c r="V5" s="153">
         <v>0</v>
       </c>
-      <c r="W5" s="160">
+      <c r="W5" s="158">
         <v>0</v>
       </c>
-      <c r="X5" s="266"/>
+      <c r="X5" s="299"/>
       <c r="Y5" s="59">
         <v>0</v>
       </c>
@@ -5576,75 +5585,75 @@
       <c r="AB5" s="59">
         <v>1</v>
       </c>
-      <c r="AC5" s="266"/>
+      <c r="AC5" s="299"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="251"/>
-      <c r="B6" s="152" t="s">
+      <c r="A6" s="310"/>
+      <c r="B6" s="150" t="s">
         <v>697</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="156" t="s">
         <v>637</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="153" t="s">
         <v>637</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="G6" s="155" t="s">
+      <c r="G6" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="153" t="s">
         <v>655</v>
       </c>
-      <c r="I6" s="155" t="s">
+      <c r="I6" s="153" t="s">
         <v>656</v>
       </c>
-      <c r="J6" s="159" t="s">
+      <c r="J6" s="157" t="s">
         <v>638</v>
       </c>
-      <c r="K6" s="266"/>
-      <c r="L6" s="158" t="s">
+      <c r="K6" s="299"/>
+      <c r="L6" s="156" t="s">
         <v>638</v>
       </c>
-      <c r="M6" s="155" t="s">
+      <c r="M6" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="N6" s="155" t="s">
+      <c r="N6" s="153" t="s">
         <v>666</v>
       </c>
-      <c r="O6" s="155" t="s">
+      <c r="O6" s="153" t="s">
         <v>648</v>
       </c>
-      <c r="P6" s="155" t="s">
+      <c r="P6" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="Q6" s="155" t="s">
+      <c r="Q6" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="R6" s="155" t="s">
+      <c r="R6" s="153" t="s">
         <v>637</v>
       </c>
-      <c r="S6" s="155" t="s">
+      <c r="S6" s="153" t="s">
         <v>648</v>
       </c>
-      <c r="T6" s="155" t="s">
+      <c r="T6" s="153" t="s">
         <v>655</v>
       </c>
-      <c r="U6" s="155" t="s">
+      <c r="U6" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="V6" s="155" t="s">
+      <c r="V6" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="W6" s="160" t="s">
+      <c r="W6" s="158" t="s">
         <v>638</v>
       </c>
-      <c r="X6" s="266"/>
+      <c r="X6" s="299"/>
       <c r="Y6" s="59" t="s">
         <v>648</v>
       </c>
@@ -5657,75 +5666,75 @@
       <c r="AB6" s="59" t="s">
         <v>638</v>
       </c>
-      <c r="AC6" s="266"/>
+      <c r="AC6" s="299"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="251"/>
-      <c r="B7" s="152" t="s">
+      <c r="A7" s="310"/>
+      <c r="B7" s="150" t="s">
         <v>698</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="156" t="s">
         <v>639</v>
       </c>
-      <c r="D7" s="155" t="s">
+      <c r="D7" s="153" t="s">
         <v>640</v>
       </c>
-      <c r="E7" s="155" t="s">
+      <c r="E7" s="153" t="s">
         <v>641</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="153" t="s">
         <v>642</v>
       </c>
-      <c r="G7" s="155" t="s">
+      <c r="G7" s="153" t="s">
         <v>657</v>
       </c>
-      <c r="H7" s="155" t="s">
+      <c r="H7" s="153" t="s">
         <v>658</v>
       </c>
-      <c r="I7" s="155" t="s">
+      <c r="I7" s="153" t="s">
         <v>657</v>
       </c>
-      <c r="J7" s="159" t="s">
+      <c r="J7" s="157" t="s">
         <v>659</v>
       </c>
-      <c r="K7" s="266"/>
-      <c r="L7" s="158" t="s">
+      <c r="K7" s="299"/>
+      <c r="L7" s="156" t="s">
         <v>667</v>
       </c>
-      <c r="M7" s="155" t="s">
+      <c r="M7" s="153" t="s">
         <v>642</v>
       </c>
-      <c r="N7" s="155" t="s">
+      <c r="N7" s="153" t="s">
         <v>668</v>
       </c>
-      <c r="O7" s="155" t="s">
+      <c r="O7" s="153" t="s">
         <v>642</v>
       </c>
-      <c r="P7" s="155" t="s">
+      <c r="P7" s="153" t="s">
         <v>642</v>
       </c>
-      <c r="Q7" s="155" t="s">
+      <c r="Q7" s="153" t="s">
         <v>657</v>
       </c>
-      <c r="R7" s="155" t="s">
+      <c r="R7" s="153" t="s">
         <v>674</v>
       </c>
-      <c r="S7" s="155" t="s">
+      <c r="S7" s="153" t="s">
         <v>657</v>
       </c>
-      <c r="T7" s="155" t="s">
+      <c r="T7" s="153" t="s">
         <v>641</v>
       </c>
-      <c r="U7" s="155" t="s">
+      <c r="U7" s="153" t="s">
         <v>679</v>
       </c>
-      <c r="V7" s="155" t="s">
+      <c r="V7" s="153" t="s">
         <v>642</v>
       </c>
-      <c r="W7" s="160" t="s">
+      <c r="W7" s="158" t="s">
         <v>642</v>
       </c>
-      <c r="X7" s="266"/>
+      <c r="X7" s="299"/>
       <c r="Y7" s="59" t="s">
         <v>667</v>
       </c>
@@ -5738,75 +5747,75 @@
       <c r="AB7" s="59" t="s">
         <v>640</v>
       </c>
-      <c r="AC7" s="266"/>
+      <c r="AC7" s="299"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="251"/>
-      <c r="B8" s="152" t="s">
+      <c r="A8" s="310"/>
+      <c r="B8" s="150" t="s">
         <v>699</v>
       </c>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="156" t="s">
         <v>643</v>
       </c>
-      <c r="D8" s="155" t="s">
+      <c r="D8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="E8" s="155" t="s">
+      <c r="E8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="F8" s="155" t="s">
+      <c r="F8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="G8" s="155" t="s">
+      <c r="G8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="H8" s="155" t="s">
+      <c r="H8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="I8" s="155" t="s">
+      <c r="I8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="J8" s="159" t="s">
+      <c r="J8" s="157" t="s">
         <v>643</v>
       </c>
-      <c r="K8" s="266"/>
-      <c r="L8" s="158" t="s">
+      <c r="K8" s="299"/>
+      <c r="L8" s="156" t="s">
         <v>643</v>
       </c>
-      <c r="M8" s="155" t="s">
+      <c r="M8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="N8" s="155" t="s">
+      <c r="N8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="O8" s="155" t="s">
+      <c r="O8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="P8" s="155" t="s">
+      <c r="P8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="Q8" s="155" t="s">
+      <c r="Q8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="R8" s="155" t="s">
+      <c r="R8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="S8" s="155" t="s">
+      <c r="S8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="T8" s="155" t="s">
+      <c r="T8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="U8" s="155" t="s">
+      <c r="U8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="V8" s="155" t="s">
+      <c r="V8" s="153" t="s">
         <v>643</v>
       </c>
-      <c r="W8" s="160" t="s">
+      <c r="W8" s="158" t="s">
         <v>643</v>
       </c>
-      <c r="X8" s="266"/>
+      <c r="X8" s="299"/>
       <c r="Y8" s="59" t="s">
         <v>643</v>
       </c>
@@ -5819,75 +5828,75 @@
       <c r="AB8" s="59" t="s">
         <v>643</v>
       </c>
-      <c r="AC8" s="266"/>
+      <c r="AC8" s="299"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="251"/>
-      <c r="B9" s="152" t="s">
+      <c r="A9" s="310"/>
+      <c r="B9" s="150" t="s">
         <v>700</v>
       </c>
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="151" t="s">
         <v>644</v>
       </c>
-      <c r="D9" s="154" t="s">
+      <c r="D9" s="152" t="s">
         <v>644</v>
       </c>
-      <c r="E9" s="154" t="s">
+      <c r="E9" s="152" t="s">
         <v>638</v>
       </c>
-      <c r="F9" s="155" t="s">
+      <c r="F9" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="G9" s="155" t="s">
+      <c r="G9" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="H9" s="154" t="s">
+      <c r="H9" s="152" t="s">
         <v>644</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="152" t="s">
         <v>638</v>
       </c>
-      <c r="J9" s="156" t="s">
+      <c r="J9" s="154" t="s">
         <v>638</v>
       </c>
-      <c r="K9" s="266"/>
-      <c r="L9" s="153" t="s">
+      <c r="K9" s="299"/>
+      <c r="L9" s="151" t="s">
         <v>638</v>
       </c>
-      <c r="M9" s="155" t="s">
+      <c r="M9" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="N9" s="155" t="s">
+      <c r="N9" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="O9" s="155" t="s">
+      <c r="O9" s="153" t="s">
         <v>669</v>
       </c>
-      <c r="P9" s="155" t="s">
+      <c r="P9" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="Q9" s="155" t="s">
+      <c r="Q9" s="153" t="s">
         <v>675</v>
       </c>
-      <c r="R9" s="155" t="s">
+      <c r="R9" s="153" t="s">
         <v>644</v>
       </c>
-      <c r="S9" s="155" t="s">
+      <c r="S9" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="T9" s="155" t="s">
+      <c r="T9" s="153" t="s">
         <v>638</v>
       </c>
-      <c r="U9" s="155" t="s">
+      <c r="U9" s="153" t="s">
         <v>644</v>
       </c>
-      <c r="V9" s="155" t="s">
+      <c r="V9" s="153" t="s">
         <v>644</v>
       </c>
-      <c r="W9" s="157" t="s">
+      <c r="W9" s="155" t="s">
         <v>638</v>
       </c>
-      <c r="X9" s="266"/>
+      <c r="X9" s="299"/>
       <c r="Y9" s="60" t="s">
         <v>638</v>
       </c>
@@ -5900,75 +5909,75 @@
       <c r="AB9" s="59" t="s">
         <v>638</v>
       </c>
-      <c r="AC9" s="266"/>
+      <c r="AC9" s="299"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="251"/>
-      <c r="B10" s="152" t="s">
+      <c r="A10" s="310"/>
+      <c r="B10" s="150" t="s">
         <v>701</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="156" t="s">
         <v>645</v>
       </c>
-      <c r="D10" s="155" t="s">
+      <c r="D10" s="153" t="s">
         <v>646</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="F10" s="155" t="s">
+      <c r="F10" s="153" t="s">
         <v>646</v>
       </c>
-      <c r="G10" s="155" t="s">
+      <c r="G10" s="153" t="s">
         <v>646</v>
       </c>
-      <c r="H10" s="155" t="s">
+      <c r="H10" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="I10" s="155" t="s">
+      <c r="I10" s="153" t="s">
         <v>646</v>
       </c>
-      <c r="J10" s="159" t="s">
+      <c r="J10" s="157" t="s">
         <v>645</v>
       </c>
-      <c r="K10" s="266"/>
-      <c r="L10" s="158" t="s">
+      <c r="K10" s="299"/>
+      <c r="L10" s="156" t="s">
         <v>646</v>
       </c>
-      <c r="M10" s="155" t="s">
+      <c r="M10" s="153" t="s">
         <v>646</v>
       </c>
-      <c r="N10" s="155" t="s">
+      <c r="N10" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="O10" s="155" t="s">
+      <c r="O10" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="P10" s="155" t="s">
+      <c r="P10" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="Q10" s="155" t="s">
+      <c r="Q10" s="153" t="s">
         <v>646</v>
       </c>
-      <c r="R10" s="155" t="s">
+      <c r="R10" s="153" t="s">
         <v>646</v>
       </c>
-      <c r="S10" s="155" t="s">
+      <c r="S10" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="T10" s="155" t="s">
+      <c r="T10" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="U10" s="155" t="s">
+      <c r="U10" s="153" t="s">
         <v>645</v>
       </c>
-      <c r="V10" s="155" t="s">
+      <c r="V10" s="153" t="s">
         <v>646</v>
       </c>
-      <c r="W10" s="160" t="s">
+      <c r="W10" s="158" t="s">
         <v>646</v>
       </c>
-      <c r="X10" s="266"/>
+      <c r="X10" s="299"/>
       <c r="Y10" s="59" t="s">
         <v>646</v>
       </c>
@@ -5981,75 +5990,75 @@
       <c r="AB10" s="59" t="s">
         <v>646</v>
       </c>
-      <c r="AC10" s="266"/>
+      <c r="AC10" s="299"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="251"/>
-      <c r="B11" s="152" t="s">
+      <c r="A11" s="310"/>
+      <c r="B11" s="150" t="s">
         <v>702</v>
       </c>
-      <c r="C11" s="158" t="s">
+      <c r="C11" s="156" t="s">
         <v>647</v>
       </c>
-      <c r="D11" s="155" t="s">
+      <c r="D11" s="153" t="s">
         <v>648</v>
       </c>
-      <c r="E11" s="155" t="s">
+      <c r="E11" s="153" t="s">
         <v>647</v>
       </c>
-      <c r="F11" s="155" t="s">
+      <c r="F11" s="153" t="s">
         <v>649</v>
       </c>
-      <c r="G11" s="155" t="s">
+      <c r="G11" s="153" t="s">
         <v>660</v>
       </c>
-      <c r="H11" s="155" t="s">
+      <c r="H11" s="153" t="s">
         <v>647</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="153" t="s">
         <v>661</v>
       </c>
-      <c r="J11" s="159" t="s">
+      <c r="J11" s="157" t="s">
         <v>662</v>
       </c>
-      <c r="K11" s="266"/>
-      <c r="L11" s="158" t="s">
+      <c r="K11" s="299"/>
+      <c r="L11" s="156" t="s">
         <v>661</v>
       </c>
-      <c r="M11" s="155" t="s">
+      <c r="M11" s="153" t="s">
         <v>670</v>
       </c>
-      <c r="N11" s="155" t="s">
+      <c r="N11" s="153" t="s">
         <v>647</v>
       </c>
-      <c r="O11" s="155" t="s">
+      <c r="O11" s="153" t="s">
         <v>647</v>
       </c>
-      <c r="P11" s="155" t="s">
+      <c r="P11" s="153" t="s">
         <v>676</v>
       </c>
-      <c r="Q11" s="155" t="s">
+      <c r="Q11" s="153" t="s">
         <v>649</v>
       </c>
-      <c r="R11" s="155" t="s">
+      <c r="R11" s="153" t="s">
         <v>649</v>
       </c>
-      <c r="S11" s="155" t="s">
+      <c r="S11" s="153" t="s">
         <v>647</v>
       </c>
-      <c r="T11" s="155" t="s">
+      <c r="T11" s="153" t="s">
         <v>647</v>
       </c>
-      <c r="U11" s="155" t="s">
+      <c r="U11" s="153" t="s">
         <v>647</v>
       </c>
-      <c r="V11" s="155" t="s">
+      <c r="V11" s="153" t="s">
         <v>680</v>
       </c>
-      <c r="W11" s="160" t="s">
+      <c r="W11" s="158" t="s">
         <v>676</v>
       </c>
-      <c r="X11" s="266"/>
+      <c r="X11" s="299"/>
       <c r="Y11" s="59" t="s">
         <v>647</v>
       </c>
@@ -6062,75 +6071,75 @@
       <c r="AB11" s="59" t="s">
         <v>744</v>
       </c>
-      <c r="AC11" s="266"/>
+      <c r="AC11" s="299"/>
     </row>
     <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="252"/>
-      <c r="B12" s="161" t="s">
+      <c r="A12" s="311"/>
+      <c r="B12" s="159" t="s">
         <v>703</v>
       </c>
-      <c r="C12" s="162" t="s">
+      <c r="C12" s="160" t="s">
         <v>650</v>
       </c>
-      <c r="D12" s="163" t="s">
+      <c r="D12" s="161" t="s">
         <v>651</v>
       </c>
-      <c r="E12" s="163" t="s">
+      <c r="E12" s="161" t="s">
         <v>652</v>
       </c>
-      <c r="F12" s="164" t="s">
+      <c r="F12" s="162" t="s">
         <v>653</v>
       </c>
-      <c r="G12" s="163" t="s">
+      <c r="G12" s="161" t="s">
         <v>663</v>
       </c>
-      <c r="H12" s="163" t="s">
+      <c r="H12" s="161" t="s">
         <v>664</v>
       </c>
-      <c r="I12" s="163" t="s">
+      <c r="I12" s="161" t="s">
         <v>648</v>
       </c>
-      <c r="J12" s="164" t="s">
+      <c r="J12" s="162" t="s">
         <v>665</v>
       </c>
-      <c r="K12" s="266"/>
-      <c r="L12" s="162" t="s">
+      <c r="K12" s="299"/>
+      <c r="L12" s="160" t="s">
         <v>648</v>
       </c>
-      <c r="M12" s="163" t="s">
+      <c r="M12" s="161" t="s">
         <v>671</v>
       </c>
-      <c r="N12" s="163" t="s">
+      <c r="N12" s="161" t="s">
         <v>672</v>
       </c>
-      <c r="O12" s="164" t="s">
+      <c r="O12" s="162" t="s">
         <v>673</v>
       </c>
-      <c r="P12" s="163" t="s">
+      <c r="P12" s="161" t="s">
         <v>648</v>
       </c>
-      <c r="Q12" s="163" t="s">
+      <c r="Q12" s="161" t="s">
         <v>648</v>
       </c>
-      <c r="R12" s="163" t="s">
+      <c r="R12" s="161" t="s">
         <v>677</v>
       </c>
-      <c r="S12" s="164" t="s">
+      <c r="S12" s="162" t="s">
         <v>678</v>
       </c>
-      <c r="T12" s="163" t="s">
+      <c r="T12" s="161" t="s">
         <v>652</v>
       </c>
-      <c r="U12" s="163" t="s">
+      <c r="U12" s="161" t="s">
         <v>681</v>
       </c>
-      <c r="V12" s="163" t="s">
+      <c r="V12" s="161" t="s">
         <v>682</v>
       </c>
-      <c r="W12" s="165" t="s">
+      <c r="W12" s="163" t="s">
         <v>648</v>
       </c>
-      <c r="X12" s="266"/>
+      <c r="X12" s="299"/>
       <c r="Y12" s="66" t="s">
         <v>648</v>
       </c>
@@ -6143,11 +6152,11 @@
       <c r="AB12" s="66" t="s">
         <v>652</v>
       </c>
-      <c r="AC12" s="266"/>
+      <c r="AC12" s="299"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="106"/>
-      <c r="B13" s="166"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="107">
         <v>0</v>
       </c>
@@ -6172,7 +6181,7 @@
       <c r="J13" s="108">
         <v>7</v>
       </c>
-      <c r="K13" s="266"/>
+      <c r="K13" s="299"/>
       <c r="L13" s="109">
         <v>8</v>
       </c>
@@ -6209,7 +6218,7 @@
       <c r="W13" s="108">
         <v>19</v>
       </c>
-      <c r="X13" s="266"/>
+      <c r="X13" s="299"/>
       <c r="Y13" s="109">
         <v>20</v>
       </c>
@@ -6222,7 +6231,7 @@
       <c r="AB13" s="108">
         <v>23</v>
       </c>
-      <c r="AC13" s="266"/>
+      <c r="AC13" s="299"/>
       <c r="AD13" s="110" t="s">
         <v>425</v>
       </c>
@@ -6240,87 +6249,87 @@
       </c>
     </row>
     <row r="14" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="247" t="s">
+      <c r="A14" s="306" t="s">
         <v>415</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="165" t="s">
         <v>724</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>748</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="120" t="s">
         <v>762</v>
       </c>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="121" t="s">
         <v>748</v>
       </c>
-      <c r="F14" s="124" t="s">
+      <c r="F14" s="122" t="s">
         <v>762</v>
       </c>
-      <c r="G14" s="121" t="s">
+      <c r="G14" s="119" t="s">
         <v>748</v>
       </c>
-      <c r="H14" s="123" t="s">
+      <c r="H14" s="121" t="s">
         <v>748</v>
       </c>
-      <c r="I14" s="123" t="s">
+      <c r="I14" s="121" t="s">
         <v>748</v>
       </c>
-      <c r="J14" s="125" t="s">
+      <c r="J14" s="123" t="s">
         <v>748</v>
       </c>
-      <c r="K14" s="266"/>
-      <c r="L14" s="144" t="s">
+      <c r="K14" s="299"/>
+      <c r="L14" s="142" t="s">
         <v>762</v>
       </c>
-      <c r="M14" s="122" t="s">
+      <c r="M14" s="120" t="s">
         <v>762</v>
       </c>
-      <c r="N14" s="122" t="s">
+      <c r="N14" s="120" t="s">
         <v>762</v>
       </c>
-      <c r="O14" s="145" t="s">
+      <c r="O14" s="143" t="s">
         <v>748</v>
       </c>
-      <c r="P14" s="146" t="s">
+      <c r="P14" s="144" t="s">
         <v>762</v>
       </c>
-      <c r="Q14" s="123" t="s">
+      <c r="Q14" s="121" t="s">
         <v>748</v>
       </c>
-      <c r="R14" s="122" t="s">
+      <c r="R14" s="120" t="s">
         <v>762</v>
       </c>
-      <c r="S14" s="145" t="s">
+      <c r="S14" s="143" t="s">
         <v>748</v>
       </c>
-      <c r="T14" s="121" t="s">
+      <c r="T14" s="119" t="s">
         <v>748</v>
       </c>
-      <c r="U14" s="123" t="s">
+      <c r="U14" s="121" t="s">
         <v>748</v>
       </c>
-      <c r="V14" s="123" t="s">
+      <c r="V14" s="121" t="s">
         <v>748</v>
       </c>
-      <c r="W14" s="147" t="s">
+      <c r="W14" s="145" t="s">
         <v>762</v>
       </c>
-      <c r="X14" s="266"/>
-      <c r="Y14" s="308" t="s">
+      <c r="X14" s="299"/>
+      <c r="Y14" s="285" t="s">
         <v>813</v>
       </c>
-      <c r="Z14" s="314" t="s">
+      <c r="Z14" s="253" t="s">
         <v>814</v>
       </c>
-      <c r="AA14" s="314" t="s">
+      <c r="AA14" s="253" t="s">
         <v>814</v>
       </c>
-      <c r="AB14" s="311" t="s">
+      <c r="AB14" s="256" t="s">
         <v>813</v>
       </c>
-      <c r="AC14" s="266"/>
+      <c r="AC14" s="299"/>
       <c r="AD14" s="113">
         <f>COUNTIF(C14:W14,"* No*")</f>
         <v>8</v>
@@ -6343,77 +6352,77 @@
       </c>
     </row>
     <row r="15" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246"/>
-      <c r="B15" s="168" t="s">
+      <c r="A15" s="305"/>
+      <c r="B15" s="166" t="s">
         <v>725</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="118" t="s">
         <v>749</v>
       </c>
-      <c r="D15" s="126" t="s">
+      <c r="D15" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="E15" s="127" t="s">
+      <c r="E15" s="125" t="s">
         <v>779</v>
       </c>
-      <c r="F15" s="128" t="s">
+      <c r="F15" s="126" t="s">
         <v>779</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="G15" s="127" t="s">
         <v>763</v>
       </c>
-      <c r="H15" s="126" t="s">
+      <c r="H15" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="I15" s="127" t="s">
+      <c r="I15" s="125" t="s">
         <v>779</v>
       </c>
-      <c r="J15" s="130" t="s">
+      <c r="J15" s="128" t="s">
         <v>763</v>
       </c>
-      <c r="K15" s="266"/>
-      <c r="L15" s="148" t="s">
+      <c r="K15" s="299"/>
+      <c r="L15" s="146" t="s">
         <v>779</v>
       </c>
-      <c r="M15" s="126" t="s">
+      <c r="M15" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="N15" s="126" t="s">
+      <c r="N15" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="O15" s="132" t="s">
+      <c r="O15" s="130" t="s">
         <v>763</v>
       </c>
-      <c r="P15" s="131" t="s">
+      <c r="P15" s="129" t="s">
         <v>779</v>
       </c>
-      <c r="Q15" s="127" t="s">
+      <c r="Q15" s="125" t="s">
         <v>779</v>
       </c>
-      <c r="R15" s="127" t="s">
+      <c r="R15" s="125" t="s">
         <v>779</v>
       </c>
-      <c r="S15" s="132" t="s">
+      <c r="S15" s="130" t="s">
         <v>763</v>
       </c>
-      <c r="T15" s="131" t="s">
+      <c r="T15" s="129" t="s">
         <v>779</v>
       </c>
-      <c r="U15" s="127" t="s">
+      <c r="U15" s="125" t="s">
         <v>779</v>
       </c>
-      <c r="V15" s="126" t="s">
+      <c r="V15" s="124" t="s">
         <v>763</v>
       </c>
-      <c r="W15" s="130" t="s">
+      <c r="W15" s="128" t="s">
         <v>763</v>
       </c>
-      <c r="X15" s="266"/>
-      <c r="Y15" s="309"/>
-      <c r="Z15" s="315"/>
-      <c r="AA15" s="315"/>
-      <c r="AB15" s="312"/>
-      <c r="AC15" s="266"/>
+      <c r="X15" s="299"/>
+      <c r="Y15" s="286"/>
+      <c r="Z15" s="254"/>
+      <c r="AA15" s="254"/>
+      <c r="AB15" s="257"/>
+      <c r="AC15" s="299"/>
       <c r="AD15" s="113">
         <f t="shared" ref="AD15:AD22" si="0">COUNTIF(C15:W15,"* No*")</f>
         <v>9</v>
@@ -6436,77 +6445,77 @@
       </c>
     </row>
     <row r="16" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="245"/>
-      <c r="B16" s="169" t="s">
+      <c r="A16" s="304"/>
+      <c r="B16" s="167" t="s">
         <v>726</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="129" t="s">
         <v>750</v>
       </c>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="125" t="s">
         <v>750</v>
       </c>
-      <c r="E16" s="127" t="s">
+      <c r="E16" s="125" t="s">
         <v>750</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="130" t="s">
         <v>787</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="G16" s="127" t="s">
         <v>787</v>
       </c>
-      <c r="H16" s="126" t="s">
+      <c r="H16" s="124" t="s">
         <v>787</v>
       </c>
-      <c r="I16" s="126" t="s">
+      <c r="I16" s="124" t="s">
         <v>787</v>
       </c>
-      <c r="J16" s="130" t="s">
+      <c r="J16" s="128" t="s">
         <v>787</v>
       </c>
-      <c r="K16" s="266"/>
-      <c r="L16" s="149" t="s">
+      <c r="K16" s="299"/>
+      <c r="L16" s="147" t="s">
         <v>787</v>
       </c>
-      <c r="M16" s="126" t="s">
+      <c r="M16" s="124" t="s">
         <v>787</v>
       </c>
-      <c r="N16" s="126" t="s">
+      <c r="N16" s="124" t="s">
         <v>787</v>
       </c>
-      <c r="O16" s="132" t="s">
+      <c r="O16" s="130" t="s">
         <v>787</v>
       </c>
-      <c r="P16" s="129" t="s">
+      <c r="P16" s="127" t="s">
         <v>787</v>
       </c>
-      <c r="Q16" s="126" t="s">
+      <c r="Q16" s="124" t="s">
         <v>787</v>
       </c>
-      <c r="R16" s="127" t="s">
+      <c r="R16" s="125" t="s">
         <v>750</v>
       </c>
-      <c r="S16" s="132" t="s">
+      <c r="S16" s="130" t="s">
         <v>787</v>
       </c>
-      <c r="T16" s="129" t="s">
+      <c r="T16" s="127" t="s">
         <v>787</v>
       </c>
-      <c r="U16" s="126" t="s">
+      <c r="U16" s="124" t="s">
         <v>787</v>
       </c>
-      <c r="V16" s="127" t="s">
+      <c r="V16" s="125" t="s">
         <v>750</v>
       </c>
-      <c r="W16" s="130" t="s">
+      <c r="W16" s="128" t="s">
         <v>787</v>
       </c>
-      <c r="X16" s="266"/>
-      <c r="Y16" s="309"/>
-      <c r="Z16" s="315"/>
-      <c r="AA16" s="315"/>
-      <c r="AB16" s="312"/>
-      <c r="AC16" s="266"/>
+      <c r="X16" s="299"/>
+      <c r="Y16" s="286"/>
+      <c r="Z16" s="254"/>
+      <c r="AA16" s="254"/>
+      <c r="AB16" s="257"/>
+      <c r="AC16" s="299"/>
       <c r="AD16" s="113">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6529,77 +6538,77 @@
       </c>
     </row>
     <row r="17" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="245"/>
-      <c r="B17" s="170" t="s">
+      <c r="A17" s="304"/>
+      <c r="B17" s="168" t="s">
         <v>727</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="127" t="s">
         <v>751</v>
       </c>
-      <c r="D17" s="126" t="s">
+      <c r="D17" s="124" t="s">
         <v>751</v>
       </c>
-      <c r="E17" s="127" t="s">
+      <c r="E17" s="125" t="s">
         <v>780</v>
       </c>
-      <c r="F17" s="132" t="s">
+      <c r="F17" s="130" t="s">
         <v>751</v>
       </c>
-      <c r="G17" s="129" t="s">
+      <c r="G17" s="127" t="s">
         <v>751</v>
       </c>
-      <c r="H17" s="126" t="s">
+      <c r="H17" s="124" t="s">
         <v>751</v>
       </c>
-      <c r="I17" s="127" t="s">
+      <c r="I17" s="125" t="s">
         <v>780</v>
       </c>
-      <c r="J17" s="130" t="s">
+      <c r="J17" s="128" t="s">
         <v>751</v>
       </c>
-      <c r="K17" s="266"/>
-      <c r="L17" s="148" t="s">
+      <c r="K17" s="299"/>
+      <c r="L17" s="146" t="s">
         <v>780</v>
       </c>
-      <c r="M17" s="127" t="s">
+      <c r="M17" s="125" t="s">
         <v>780</v>
       </c>
-      <c r="N17" s="127" t="s">
+      <c r="N17" s="125" t="s">
         <v>780</v>
       </c>
-      <c r="O17" s="132" t="s">
+      <c r="O17" s="130" t="s">
         <v>751</v>
       </c>
-      <c r="P17" s="131" t="s">
+      <c r="P17" s="129" t="s">
         <v>780</v>
       </c>
-      <c r="Q17" s="134" t="s">
+      <c r="Q17" s="132" t="s">
         <v>810</v>
       </c>
-      <c r="R17" s="126" t="s">
+      <c r="R17" s="124" t="s">
         <v>751</v>
       </c>
-      <c r="S17" s="132" t="s">
+      <c r="S17" s="130" t="s">
         <v>751</v>
       </c>
-      <c r="T17" s="131" t="s">
+      <c r="T17" s="129" t="s">
         <v>780</v>
       </c>
-      <c r="U17" s="126" t="s">
+      <c r="U17" s="124" t="s">
         <v>751</v>
       </c>
-      <c r="V17" s="127" t="s">
+      <c r="V17" s="125" t="s">
         <v>780</v>
       </c>
-      <c r="W17" s="130" t="s">
+      <c r="W17" s="128" t="s">
         <v>751</v>
       </c>
-      <c r="X17" s="266"/>
-      <c r="Y17" s="309"/>
-      <c r="Z17" s="315"/>
-      <c r="AA17" s="315"/>
-      <c r="AB17" s="312"/>
-      <c r="AC17" s="266"/>
+      <c r="X17" s="299"/>
+      <c r="Y17" s="286"/>
+      <c r="Z17" s="254"/>
+      <c r="AA17" s="254"/>
+      <c r="AB17" s="257"/>
+      <c r="AC17" s="299"/>
       <c r="AD17" s="113">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6622,77 +6631,77 @@
       </c>
     </row>
     <row r="18" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="246"/>
-      <c r="B18" s="168" t="s">
+      <c r="A18" s="305"/>
+      <c r="B18" s="166" t="s">
         <v>728</v>
       </c>
-      <c r="C18" s="131" t="s">
+      <c r="C18" s="129" t="s">
         <v>752</v>
       </c>
-      <c r="D18" s="127" t="s">
+      <c r="D18" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="F18" s="128" t="s">
+      <c r="F18" s="126" t="s">
         <v>752</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="129" t="s">
         <v>752</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="I18" s="126" t="s">
+      <c r="I18" s="124" t="s">
         <v>809</v>
       </c>
-      <c r="J18" s="133" t="s">
+      <c r="J18" s="131" t="s">
         <v>752</v>
       </c>
-      <c r="K18" s="266"/>
-      <c r="L18" s="148" t="s">
+      <c r="K18" s="299"/>
+      <c r="L18" s="146" t="s">
         <v>752</v>
       </c>
-      <c r="M18" s="127" t="s">
+      <c r="M18" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="N18" s="126" t="s">
+      <c r="N18" s="124" t="s">
         <v>809</v>
       </c>
-      <c r="O18" s="132" t="s">
+      <c r="O18" s="130" t="s">
         <v>809</v>
       </c>
-      <c r="P18" s="131" t="s">
+      <c r="P18" s="129" t="s">
         <v>752</v>
       </c>
-      <c r="Q18" s="127" t="s">
+      <c r="Q18" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="R18" s="127" t="s">
+      <c r="R18" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="S18" s="132" t="s">
+      <c r="S18" s="130" t="s">
         <v>809</v>
       </c>
-      <c r="T18" s="131" t="s">
+      <c r="T18" s="129" t="s">
         <v>752</v>
       </c>
-      <c r="U18" s="127" t="s">
+      <c r="U18" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="V18" s="127" t="s">
+      <c r="V18" s="125" t="s">
         <v>752</v>
       </c>
-      <c r="W18" s="133" t="s">
+      <c r="W18" s="131" t="s">
         <v>752</v>
       </c>
-      <c r="X18" s="266"/>
-      <c r="Y18" s="309"/>
-      <c r="Z18" s="315"/>
-      <c r="AA18" s="315"/>
-      <c r="AB18" s="312"/>
-      <c r="AC18" s="266"/>
+      <c r="X18" s="299"/>
+      <c r="Y18" s="286"/>
+      <c r="Z18" s="254"/>
+      <c r="AA18" s="254"/>
+      <c r="AB18" s="257"/>
+      <c r="AC18" s="299"/>
       <c r="AD18" s="113">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6715,77 +6724,77 @@
       </c>
     </row>
     <row r="19" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="245"/>
-      <c r="B19" s="169" t="s">
+      <c r="A19" s="304"/>
+      <c r="B19" s="167" t="s">
         <v>729</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="127" t="s">
         <v>753</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="125" t="s">
         <v>764</v>
       </c>
-      <c r="E19" s="126" t="s">
+      <c r="E19" s="124" t="s">
         <v>753</v>
       </c>
-      <c r="F19" s="132" t="s">
+      <c r="F19" s="130" t="s">
         <v>753</v>
       </c>
-      <c r="G19" s="129" t="s">
+      <c r="G19" s="127" t="s">
         <v>753</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="124" t="s">
         <v>753</v>
       </c>
-      <c r="I19" s="127" t="s">
+      <c r="I19" s="125" t="s">
         <v>764</v>
       </c>
-      <c r="J19" s="133" t="s">
+      <c r="J19" s="131" t="s">
         <v>764</v>
       </c>
-      <c r="K19" s="266"/>
-      <c r="L19" s="149" t="s">
+      <c r="K19" s="299"/>
+      <c r="L19" s="147" t="s">
         <v>753</v>
       </c>
-      <c r="M19" s="126" t="s">
+      <c r="M19" s="124" t="s">
         <v>753</v>
       </c>
-      <c r="N19" s="126" t="s">
+      <c r="N19" s="124" t="s">
         <v>753</v>
       </c>
-      <c r="O19" s="132" t="s">
+      <c r="O19" s="130" t="s">
         <v>753</v>
       </c>
-      <c r="P19" s="131" t="s">
+      <c r="P19" s="129" t="s">
         <v>764</v>
       </c>
-      <c r="Q19" s="126" t="s">
+      <c r="Q19" s="124" t="s">
         <v>753</v>
       </c>
-      <c r="R19" s="127" t="s">
+      <c r="R19" s="125" t="s">
         <v>764</v>
       </c>
-      <c r="S19" s="132" t="s">
+      <c r="S19" s="130" t="s">
         <v>753</v>
       </c>
-      <c r="T19" s="129" t="s">
+      <c r="T19" s="127" t="s">
         <v>753</v>
       </c>
-      <c r="U19" s="127" t="s">
+      <c r="U19" s="125" t="s">
         <v>764</v>
       </c>
-      <c r="V19" s="127" t="s">
+      <c r="V19" s="125" t="s">
         <v>764</v>
       </c>
-      <c r="W19" s="133" t="s">
+      <c r="W19" s="131" t="s">
         <v>764</v>
       </c>
-      <c r="X19" s="266"/>
-      <c r="Y19" s="309"/>
-      <c r="Z19" s="315"/>
-      <c r="AA19" s="315"/>
-      <c r="AB19" s="312"/>
-      <c r="AC19" s="266"/>
+      <c r="X19" s="299"/>
+      <c r="Y19" s="286"/>
+      <c r="Z19" s="254"/>
+      <c r="AA19" s="254"/>
+      <c r="AB19" s="257"/>
+      <c r="AC19" s="299"/>
       <c r="AD19" s="113">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6808,77 +6817,77 @@
       </c>
     </row>
     <row r="20" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="245"/>
-      <c r="B20" s="171" t="s">
+      <c r="A20" s="304"/>
+      <c r="B20" s="169" t="s">
         <v>730</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="132" t="s">
         <v>765</v>
       </c>
-      <c r="E20" s="127" t="s">
+      <c r="E20" s="125" t="s">
         <v>754</v>
       </c>
-      <c r="F20" s="135" t="s">
+      <c r="F20" s="133" t="s">
         <v>765</v>
       </c>
-      <c r="G20" s="131" t="s">
+      <c r="G20" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="124" t="s">
         <v>808</v>
       </c>
-      <c r="I20" s="126" t="s">
+      <c r="I20" s="124" t="s">
         <v>808</v>
       </c>
-      <c r="J20" s="133" t="s">
+      <c r="J20" s="131" t="s">
         <v>754</v>
       </c>
-      <c r="K20" s="266"/>
-      <c r="L20" s="149" t="s">
+      <c r="K20" s="299"/>
+      <c r="L20" s="147" t="s">
         <v>808</v>
       </c>
-      <c r="M20" s="127" t="s">
+      <c r="M20" s="125" t="s">
         <v>754</v>
       </c>
-      <c r="N20" s="127" t="s">
+      <c r="N20" s="125" t="s">
         <v>754</v>
       </c>
-      <c r="O20" s="132" t="s">
+      <c r="O20" s="130" t="s">
         <v>808</v>
       </c>
-      <c r="P20" s="131" t="s">
+      <c r="P20" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="Q20" s="127" t="s">
+      <c r="Q20" s="125" t="s">
         <v>754</v>
       </c>
-      <c r="R20" s="127" t="s">
+      <c r="R20" s="125" t="s">
         <v>754</v>
       </c>
-      <c r="S20" s="135" t="s">
+      <c r="S20" s="133" t="s">
         <v>765</v>
       </c>
-      <c r="T20" s="136" t="s">
+      <c r="T20" s="134" t="s">
         <v>765</v>
       </c>
-      <c r="U20" s="127" t="s">
+      <c r="U20" s="125" t="s">
         <v>754</v>
       </c>
-      <c r="V20" s="127" t="s">
+      <c r="V20" s="125" t="s">
         <v>754</v>
       </c>
-      <c r="W20" s="133" t="s">
+      <c r="W20" s="131" t="s">
         <v>754</v>
       </c>
-      <c r="X20" s="266"/>
-      <c r="Y20" s="309"/>
-      <c r="Z20" s="315"/>
-      <c r="AA20" s="315"/>
-      <c r="AB20" s="312"/>
-      <c r="AC20" s="266"/>
+      <c r="X20" s="299"/>
+      <c r="Y20" s="286"/>
+      <c r="Z20" s="254"/>
+      <c r="AA20" s="254"/>
+      <c r="AB20" s="257"/>
+      <c r="AC20" s="299"/>
       <c r="AD20" s="113">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6901,77 +6910,77 @@
       </c>
     </row>
     <row r="21" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="245"/>
-      <c r="B21" s="171" t="s">
+      <c r="A21" s="304"/>
+      <c r="B21" s="169" t="s">
         <v>731</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="134" t="s">
         <v>755</v>
       </c>
-      <c r="D21" s="127" t="s">
+      <c r="D21" s="125" t="s">
         <v>766</v>
       </c>
-      <c r="E21" s="127" t="s">
+      <c r="E21" s="125" t="s">
         <v>766</v>
       </c>
-      <c r="F21" s="135" t="s">
+      <c r="F21" s="133" t="s">
         <v>755</v>
       </c>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="127" t="s">
         <v>801</v>
       </c>
-      <c r="H21" s="126" t="s">
+      <c r="H21" s="124" t="s">
         <v>801</v>
       </c>
-      <c r="I21" s="134" t="s">
+      <c r="I21" s="132" t="s">
         <v>755</v>
       </c>
-      <c r="J21" s="137" t="s">
+      <c r="J21" s="135" t="s">
         <v>755</v>
       </c>
-      <c r="K21" s="266"/>
-      <c r="L21" s="149" t="s">
+      <c r="K21" s="299"/>
+      <c r="L21" s="147" t="s">
         <v>801</v>
       </c>
-      <c r="M21" s="126" t="s">
+      <c r="M21" s="124" t="s">
         <v>801</v>
       </c>
-      <c r="N21" s="126" t="s">
+      <c r="N21" s="124" t="s">
         <v>801</v>
       </c>
-      <c r="O21" s="132" t="s">
+      <c r="O21" s="130" t="s">
         <v>801</v>
       </c>
-      <c r="P21" s="129" t="s">
+      <c r="P21" s="127" t="s">
         <v>801</v>
       </c>
-      <c r="Q21" s="127" t="s">
+      <c r="Q21" s="125" t="s">
         <v>766</v>
       </c>
-      <c r="R21" s="127" t="s">
+      <c r="R21" s="125" t="s">
         <v>766</v>
       </c>
-      <c r="S21" s="132" t="s">
+      <c r="S21" s="130" t="s">
         <v>801</v>
       </c>
-      <c r="T21" s="129" t="s">
+      <c r="T21" s="127" t="s">
         <v>801</v>
       </c>
-      <c r="U21" s="134" t="s">
+      <c r="U21" s="132" t="s">
         <v>755</v>
       </c>
-      <c r="V21" s="127" t="s">
+      <c r="V21" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="130" t="s">
+      <c r="W21" s="128" t="s">
         <v>801</v>
       </c>
-      <c r="X21" s="266"/>
-      <c r="Y21" s="309"/>
-      <c r="Z21" s="315"/>
-      <c r="AA21" s="315"/>
-      <c r="AB21" s="312"/>
-      <c r="AC21" s="266"/>
+      <c r="X21" s="299"/>
+      <c r="Y21" s="286"/>
+      <c r="Z21" s="254"/>
+      <c r="AA21" s="254"/>
+      <c r="AB21" s="257"/>
+      <c r="AC21" s="299"/>
       <c r="AD21" s="113">
         <f>COUNTIF(C21:W21,"* No*")</f>
         <v>5</v>
@@ -6994,77 +7003,77 @@
       </c>
     </row>
     <row r="22" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="248"/>
-      <c r="B22" s="172" t="s">
+      <c r="A22" s="307"/>
+      <c r="B22" s="170" t="s">
         <v>732</v>
       </c>
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="136" t="s">
         <v>756</v>
       </c>
-      <c r="D22" s="139" t="s">
+      <c r="D22" s="137" t="s">
         <v>746</v>
       </c>
-      <c r="E22" s="140" t="s">
+      <c r="E22" s="138" t="s">
         <v>756</v>
       </c>
-      <c r="F22" s="141" t="s">
+      <c r="F22" s="139" t="s">
         <v>746</v>
       </c>
-      <c r="G22" s="142" t="s">
+      <c r="G22" s="140" t="s">
         <v>746</v>
       </c>
-      <c r="H22" s="139" t="s">
+      <c r="H22" s="137" t="s">
         <v>746</v>
       </c>
-      <c r="I22" s="140" t="s">
+      <c r="I22" s="138" t="s">
         <v>756</v>
       </c>
-      <c r="J22" s="143" t="s">
+      <c r="J22" s="141" t="s">
         <v>746</v>
       </c>
-      <c r="K22" s="266"/>
-      <c r="L22" s="150" t="s">
+      <c r="K22" s="299"/>
+      <c r="L22" s="148" t="s">
         <v>756</v>
       </c>
-      <c r="M22" s="139" t="s">
+      <c r="M22" s="137" t="s">
         <v>746</v>
       </c>
-      <c r="N22" s="140" t="s">
+      <c r="N22" s="138" t="s">
         <v>756</v>
       </c>
-      <c r="O22" s="141" t="s">
+      <c r="O22" s="139" t="s">
         <v>746</v>
       </c>
-      <c r="P22" s="138" t="s">
+      <c r="P22" s="136" t="s">
         <v>756</v>
       </c>
-      <c r="Q22" s="140" t="s">
+      <c r="Q22" s="138" t="s">
         <v>756</v>
       </c>
-      <c r="R22" s="140" t="s">
+      <c r="R22" s="138" t="s">
         <v>756</v>
       </c>
-      <c r="S22" s="141" t="s">
+      <c r="S22" s="139" t="s">
         <v>746</v>
       </c>
-      <c r="T22" s="142" t="s">
+      <c r="T22" s="140" t="s">
         <v>746</v>
       </c>
-      <c r="U22" s="140" t="s">
+      <c r="U22" s="138" t="s">
         <v>756</v>
       </c>
-      <c r="V22" s="140" t="s">
+      <c r="V22" s="138" t="s">
         <v>756</v>
       </c>
-      <c r="W22" s="143" t="s">
+      <c r="W22" s="141" t="s">
         <v>746</v>
       </c>
-      <c r="X22" s="266"/>
-      <c r="Y22" s="310"/>
-      <c r="Z22" s="316"/>
-      <c r="AA22" s="316"/>
-      <c r="AB22" s="313"/>
-      <c r="AC22" s="266"/>
+      <c r="X22" s="299"/>
+      <c r="Y22" s="287"/>
+      <c r="Z22" s="255"/>
+      <c r="AA22" s="255"/>
+      <c r="AB22" s="258"/>
+      <c r="AC22" s="299"/>
       <c r="AD22" s="113">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7087,87 +7096,87 @@
       </c>
     </row>
     <row r="23" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="247" t="s">
+      <c r="A23" s="306" t="s">
         <v>416</v>
       </c>
-      <c r="B23" s="167" t="s">
+      <c r="B23" s="165" t="s">
         <v>724</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="165" t="s">
         <v>816</v>
       </c>
-      <c r="D23" s="173" t="s">
+      <c r="D23" s="171" t="s">
         <v>820</v>
       </c>
-      <c r="E23" s="173" t="s">
+      <c r="E23" s="171" t="s">
         <v>825</v>
       </c>
-      <c r="F23" s="174" t="s">
+      <c r="F23" s="172" t="s">
         <v>828</v>
       </c>
-      <c r="G23" s="167" t="s">
+      <c r="G23" s="165" t="s">
         <v>833</v>
       </c>
-      <c r="H23" s="173" t="s">
+      <c r="H23" s="171" t="s">
         <v>837</v>
       </c>
-      <c r="I23" s="173" t="s">
+      <c r="I23" s="171" t="s">
         <v>842</v>
       </c>
-      <c r="J23" s="175" t="s">
+      <c r="J23" s="173" t="s">
         <v>847</v>
       </c>
-      <c r="K23" s="266"/>
-      <c r="L23" s="176" t="s">
+      <c r="K23" s="299"/>
+      <c r="L23" s="174" t="s">
         <v>853</v>
       </c>
-      <c r="M23" s="173" t="s">
+      <c r="M23" s="171" t="s">
         <v>857</v>
       </c>
-      <c r="N23" s="173" t="s">
+      <c r="N23" s="171" t="s">
         <v>860</v>
       </c>
-      <c r="O23" s="174" t="s">
+      <c r="O23" s="172" t="s">
         <v>864</v>
       </c>
-      <c r="P23" s="167" t="s">
+      <c r="P23" s="165" t="s">
         <v>865</v>
       </c>
-      <c r="Q23" s="173" t="s">
+      <c r="Q23" s="171" t="s">
         <v>873</v>
       </c>
-      <c r="R23" s="173" t="s">
+      <c r="R23" s="171" t="s">
         <v>877</v>
       </c>
-      <c r="S23" s="174" t="s">
+      <c r="S23" s="172" t="s">
         <v>881</v>
       </c>
-      <c r="T23" s="167" t="s">
+      <c r="T23" s="165" t="s">
         <v>885</v>
       </c>
-      <c r="U23" s="173" t="s">
+      <c r="U23" s="171" t="s">
         <v>889</v>
       </c>
-      <c r="V23" s="173" t="s">
+      <c r="V23" s="171" t="s">
         <v>892</v>
       </c>
-      <c r="W23" s="175" t="s">
+      <c r="W23" s="173" t="s">
         <v>895</v>
       </c>
-      <c r="X23" s="266"/>
-      <c r="Y23" s="326" t="s">
+      <c r="X23" s="299"/>
+      <c r="Y23" s="280" t="s">
         <v>914</v>
       </c>
-      <c r="Z23" s="327" t="s">
+      <c r="Z23" s="259" t="s">
         <v>915</v>
       </c>
-      <c r="AA23" s="327" t="s">
+      <c r="AA23" s="259" t="s">
         <v>916</v>
       </c>
-      <c r="AB23" s="328" t="s">
+      <c r="AB23" s="265" t="s">
         <v>917</v>
       </c>
-      <c r="AC23" s="266"/>
+      <c r="AC23" s="299"/>
       <c r="AD23" s="113"/>
       <c r="AE23" s="51"/>
       <c r="AF23" s="51"/>
@@ -7175,77 +7184,77 @@
       <c r="AH23" s="115"/>
     </row>
     <row r="24" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="246"/>
-      <c r="B24" s="168" t="s">
+      <c r="A24" s="305"/>
+      <c r="B24" s="166" t="s">
         <v>725</v>
       </c>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="166" t="s">
         <v>817</v>
       </c>
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="175" t="s">
         <v>767</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="175" t="s">
         <v>781</v>
       </c>
-      <c r="F24" s="178" t="s">
+      <c r="F24" s="176" t="s">
         <v>788</v>
       </c>
-      <c r="G24" s="168" t="s">
+      <c r="G24" s="166" t="s">
         <v>802</v>
       </c>
-      <c r="H24" s="177" t="s">
+      <c r="H24" s="175" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="177" t="s">
+      <c r="I24" s="175" t="s">
         <v>139</v>
       </c>
-      <c r="J24" s="179" t="s">
+      <c r="J24" s="177" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="266"/>
-      <c r="L24" s="180" t="s">
+      <c r="K24" s="299"/>
+      <c r="L24" s="178" t="s">
         <v>181</v>
       </c>
-      <c r="M24" s="177" t="s">
+      <c r="M24" s="175" t="s">
         <v>204</v>
       </c>
-      <c r="N24" s="177" t="s">
+      <c r="N24" s="175" t="s">
         <v>229</v>
       </c>
-      <c r="O24" s="178" t="s">
+      <c r="O24" s="176" t="s">
         <v>256</v>
       </c>
-      <c r="P24" s="168" t="s">
+      <c r="P24" s="166" t="s">
         <v>276</v>
       </c>
-      <c r="Q24" s="177" t="s">
+      <c r="Q24" s="175" t="s">
         <v>295</v>
       </c>
-      <c r="R24" s="177" t="s">
+      <c r="R24" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="S24" s="178" t="s">
+      <c r="S24" s="176" t="s">
         <v>331</v>
       </c>
-      <c r="T24" s="168" t="s">
+      <c r="T24" s="166" t="s">
         <v>348</v>
       </c>
-      <c r="U24" s="177" t="s">
+      <c r="U24" s="175" t="s">
         <v>366</v>
       </c>
-      <c r="V24" s="177" t="s">
+      <c r="V24" s="175" t="s">
         <v>383</v>
       </c>
-      <c r="W24" s="179" t="s">
+      <c r="W24" s="177" t="s">
         <v>399</v>
       </c>
-      <c r="X24" s="266"/>
-      <c r="Y24" s="329"/>
-      <c r="Z24" s="330"/>
-      <c r="AA24" s="330"/>
-      <c r="AB24" s="331"/>
-      <c r="AC24" s="266"/>
+      <c r="X24" s="299"/>
+      <c r="Y24" s="281"/>
+      <c r="Z24" s="260"/>
+      <c r="AA24" s="260"/>
+      <c r="AB24" s="266"/>
+      <c r="AC24" s="299"/>
       <c r="AD24" s="113"/>
       <c r="AE24" s="51"/>
       <c r="AF24" s="51"/>
@@ -7253,77 +7262,77 @@
       <c r="AH24" s="115"/>
     </row>
     <row r="25" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="245"/>
-      <c r="B25" s="169" t="s">
+      <c r="A25" s="304"/>
+      <c r="B25" s="167" t="s">
         <v>726</v>
       </c>
-      <c r="C25" s="169" t="s">
+      <c r="C25" s="167" t="s">
         <v>757</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="179" t="s">
         <v>768</v>
       </c>
-      <c r="E25" s="181" t="s">
+      <c r="E25" s="179" t="s">
         <v>782</v>
       </c>
-      <c r="F25" s="182" t="s">
+      <c r="F25" s="180" t="s">
         <v>789</v>
       </c>
-      <c r="G25" s="169" t="s">
+      <c r="G25" s="167" t="s">
         <v>803</v>
       </c>
-      <c r="H25" s="181" t="s">
+      <c r="H25" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="I25" s="181" t="s">
+      <c r="I25" s="179" t="s">
         <v>140</v>
       </c>
-      <c r="J25" s="183" t="s">
+      <c r="J25" s="181" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="266"/>
-      <c r="L25" s="184" t="s">
+      <c r="K25" s="299"/>
+      <c r="L25" s="182" t="s">
         <v>182</v>
       </c>
-      <c r="M25" s="181" t="s">
+      <c r="M25" s="179" t="s">
         <v>205</v>
       </c>
-      <c r="N25" s="181" t="s">
+      <c r="N25" s="179" t="s">
         <v>230</v>
       </c>
-      <c r="O25" s="182" t="s">
+      <c r="O25" s="180" t="s">
         <v>257</v>
       </c>
-      <c r="P25" s="169" t="s">
+      <c r="P25" s="167" t="s">
         <v>277</v>
       </c>
-      <c r="Q25" s="181" t="s">
+      <c r="Q25" s="179" t="s">
         <v>296</v>
       </c>
-      <c r="R25" s="181" t="s">
+      <c r="R25" s="179" t="s">
         <v>313</v>
       </c>
-      <c r="S25" s="182" t="s">
+      <c r="S25" s="180" t="s">
         <v>332</v>
       </c>
-      <c r="T25" s="169" t="s">
+      <c r="T25" s="167" t="s">
         <v>349</v>
       </c>
-      <c r="U25" s="181" t="s">
+      <c r="U25" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="V25" s="181" t="s">
+      <c r="V25" s="179" t="s">
         <v>384</v>
       </c>
-      <c r="W25" s="183" t="s">
+      <c r="W25" s="181" t="s">
         <v>400</v>
       </c>
-      <c r="X25" s="266"/>
-      <c r="Y25" s="329"/>
-      <c r="Z25" s="330"/>
-      <c r="AA25" s="330"/>
-      <c r="AB25" s="331"/>
-      <c r="AC25" s="266"/>
+      <c r="X25" s="299"/>
+      <c r="Y25" s="281"/>
+      <c r="Z25" s="260"/>
+      <c r="AA25" s="260"/>
+      <c r="AB25" s="266"/>
+      <c r="AC25" s="299"/>
       <c r="AD25" s="113"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
@@ -7331,77 +7340,77 @@
       <c r="AH25" s="115"/>
     </row>
     <row r="26" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="245"/>
-      <c r="B26" s="170" t="s">
+      <c r="A26" s="304"/>
+      <c r="B26" s="168" t="s">
         <v>727</v>
       </c>
-      <c r="C26" s="170" t="s">
+      <c r="C26" s="168" t="s">
         <v>818</v>
       </c>
-      <c r="D26" s="185" t="s">
+      <c r="D26" s="183" t="s">
         <v>821</v>
       </c>
-      <c r="E26" s="185" t="s">
+      <c r="E26" s="183" t="s">
         <v>826</v>
       </c>
-      <c r="F26" s="186" t="s">
+      <c r="F26" s="184" t="s">
         <v>829</v>
       </c>
-      <c r="G26" s="170" t="s">
+      <c r="G26" s="168" t="s">
         <v>834</v>
       </c>
-      <c r="H26" s="185" t="s">
+      <c r="H26" s="183" t="s">
         <v>838</v>
       </c>
-      <c r="I26" s="185" t="s">
+      <c r="I26" s="183" t="s">
         <v>843</v>
       </c>
-      <c r="J26" s="187" t="s">
+      <c r="J26" s="185" t="s">
         <v>848</v>
       </c>
-      <c r="K26" s="266"/>
-      <c r="L26" s="188" t="s">
+      <c r="K26" s="299"/>
+      <c r="L26" s="186" t="s">
         <v>854</v>
       </c>
-      <c r="M26" s="185" t="s">
+      <c r="M26" s="183" t="s">
         <v>858</v>
       </c>
-      <c r="N26" s="185" t="s">
+      <c r="N26" s="183" t="s">
         <v>861</v>
       </c>
-      <c r="O26" s="186" t="s">
+      <c r="O26" s="184" t="s">
         <v>866</v>
       </c>
-      <c r="P26" s="170" t="s">
+      <c r="P26" s="168" t="s">
         <v>870</v>
       </c>
-      <c r="Q26" s="185" t="s">
+      <c r="Q26" s="183" t="s">
         <v>874</v>
       </c>
-      <c r="R26" s="185" t="s">
+      <c r="R26" s="183" t="s">
         <v>878</v>
       </c>
-      <c r="S26" s="186" t="s">
+      <c r="S26" s="184" t="s">
         <v>882</v>
       </c>
-      <c r="T26" s="170" t="s">
+      <c r="T26" s="168" t="s">
         <v>886</v>
       </c>
-      <c r="U26" s="185" t="s">
+      <c r="U26" s="183" t="s">
         <v>890</v>
       </c>
-      <c r="V26" s="185" t="s">
+      <c r="V26" s="183" t="s">
         <v>893</v>
       </c>
-      <c r="W26" s="187" t="s">
+      <c r="W26" s="185" t="s">
         <v>896</v>
       </c>
-      <c r="X26" s="266"/>
-      <c r="Y26" s="329"/>
-      <c r="Z26" s="330"/>
-      <c r="AA26" s="330"/>
-      <c r="AB26" s="331"/>
-      <c r="AC26" s="266"/>
+      <c r="X26" s="299"/>
+      <c r="Y26" s="281"/>
+      <c r="Z26" s="260"/>
+      <c r="AA26" s="260"/>
+      <c r="AB26" s="266"/>
+      <c r="AC26" s="299"/>
       <c r="AD26" s="113"/>
       <c r="AE26" s="51"/>
       <c r="AF26" s="51"/>
@@ -7409,77 +7418,77 @@
       <c r="AH26" s="115"/>
     </row>
     <row r="27" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="246"/>
-      <c r="B27" s="168" t="s">
+      <c r="A27" s="305"/>
+      <c r="B27" s="166" t="s">
         <v>728</v>
       </c>
-      <c r="C27" s="168" t="s">
+      <c r="C27" s="166" t="s">
         <v>819</v>
       </c>
-      <c r="D27" s="177" t="s">
+      <c r="D27" s="175" t="s">
         <v>822</v>
       </c>
-      <c r="E27" s="177" t="s">
+      <c r="E27" s="175" t="s">
         <v>783</v>
       </c>
-      <c r="F27" s="178" t="s">
+      <c r="F27" s="176" t="s">
         <v>790</v>
       </c>
-      <c r="G27" s="168" t="s">
+      <c r="G27" s="166" t="s">
         <v>804</v>
       </c>
-      <c r="H27" s="177" t="s">
+      <c r="H27" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="I27" s="177" t="s">
+      <c r="I27" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="J27" s="179" t="s">
+      <c r="J27" s="177" t="s">
         <v>849</v>
       </c>
-      <c r="K27" s="266"/>
-      <c r="L27" s="180" t="s">
+      <c r="K27" s="299"/>
+      <c r="L27" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="M27" s="177" t="s">
+      <c r="M27" s="175" t="s">
         <v>207</v>
       </c>
-      <c r="N27" s="177" t="s">
+      <c r="N27" s="175" t="s">
         <v>232</v>
       </c>
-      <c r="O27" s="178" t="s">
+      <c r="O27" s="176" t="s">
         <v>259</v>
       </c>
-      <c r="P27" s="168" t="s">
+      <c r="P27" s="166" t="s">
         <v>279</v>
       </c>
-      <c r="Q27" s="177" t="s">
+      <c r="Q27" s="175" t="s">
         <v>298</v>
       </c>
-      <c r="R27" s="177" t="s">
+      <c r="R27" s="175" t="s">
         <v>315</v>
       </c>
-      <c r="S27" s="178" t="s">
+      <c r="S27" s="176" t="s">
         <v>334</v>
       </c>
-      <c r="T27" s="168" t="s">
+      <c r="T27" s="166" t="s">
         <v>351</v>
       </c>
-      <c r="U27" s="177" t="s">
+      <c r="U27" s="175" t="s">
         <v>369</v>
       </c>
-      <c r="V27" s="177" t="s">
+      <c r="V27" s="175" t="s">
         <v>386</v>
       </c>
-      <c r="W27" s="179" t="s">
+      <c r="W27" s="177" t="s">
         <v>402</v>
       </c>
-      <c r="X27" s="266"/>
-      <c r="Y27" s="329"/>
-      <c r="Z27" s="330"/>
-      <c r="AA27" s="330"/>
-      <c r="AB27" s="331"/>
-      <c r="AC27" s="266"/>
+      <c r="X27" s="299"/>
+      <c r="Y27" s="281"/>
+      <c r="Z27" s="260"/>
+      <c r="AA27" s="260"/>
+      <c r="AB27" s="266"/>
+      <c r="AC27" s="299"/>
       <c r="AD27" s="113"/>
       <c r="AE27" s="51"/>
       <c r="AF27" s="51"/>
@@ -7487,77 +7496,77 @@
       <c r="AH27" s="115"/>
     </row>
     <row r="28" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="245"/>
-      <c r="B28" s="169" t="s">
+      <c r="A28" s="304"/>
+      <c r="B28" s="167" t="s">
         <v>729</v>
       </c>
-      <c r="C28" s="169" t="s">
+      <c r="C28" s="167" t="s">
         <v>758</v>
       </c>
-      <c r="D28" s="181" t="s">
+      <c r="D28" s="179" t="s">
         <v>823</v>
       </c>
-      <c r="E28" s="181" t="s">
+      <c r="E28" s="179" t="s">
         <v>827</v>
       </c>
-      <c r="F28" s="182" t="s">
+      <c r="F28" s="180" t="s">
         <v>830</v>
       </c>
-      <c r="G28" s="169" t="s">
+      <c r="G28" s="167" t="s">
         <v>835</v>
       </c>
-      <c r="H28" s="181" t="s">
+      <c r="H28" s="179" t="s">
         <v>839</v>
       </c>
-      <c r="I28" s="181" t="s">
+      <c r="I28" s="179" t="s">
         <v>844</v>
       </c>
-      <c r="J28" s="183" t="s">
+      <c r="J28" s="181" t="s">
         <v>850</v>
       </c>
-      <c r="K28" s="266"/>
-      <c r="L28" s="184" t="s">
+      <c r="K28" s="299"/>
+      <c r="L28" s="182" t="s">
         <v>855</v>
       </c>
-      <c r="M28" s="181" t="s">
+      <c r="M28" s="179" t="s">
         <v>859</v>
       </c>
-      <c r="N28" s="181" t="s">
+      <c r="N28" s="179" t="s">
         <v>862</v>
       </c>
-      <c r="O28" s="182" t="s">
+      <c r="O28" s="180" t="s">
         <v>867</v>
       </c>
-      <c r="P28" s="169" t="s">
+      <c r="P28" s="167" t="s">
         <v>871</v>
       </c>
-      <c r="Q28" s="181" t="s">
+      <c r="Q28" s="179" t="s">
         <v>875</v>
       </c>
-      <c r="R28" s="181" t="s">
+      <c r="R28" s="179" t="s">
         <v>879</v>
       </c>
-      <c r="S28" s="182" t="s">
+      <c r="S28" s="180" t="s">
         <v>883</v>
       </c>
-      <c r="T28" s="169" t="s">
+      <c r="T28" s="167" t="s">
         <v>887</v>
       </c>
-      <c r="U28" s="181" t="s">
+      <c r="U28" s="179" t="s">
         <v>891</v>
       </c>
-      <c r="V28" s="181" t="s">
+      <c r="V28" s="179" t="s">
         <v>894</v>
       </c>
-      <c r="W28" s="183" t="s">
+      <c r="W28" s="181" t="s">
         <v>897</v>
       </c>
-      <c r="X28" s="266"/>
-      <c r="Y28" s="329"/>
-      <c r="Z28" s="330"/>
-      <c r="AA28" s="330"/>
-      <c r="AB28" s="331"/>
-      <c r="AC28" s="266"/>
+      <c r="X28" s="299"/>
+      <c r="Y28" s="281"/>
+      <c r="Z28" s="260"/>
+      <c r="AA28" s="260"/>
+      <c r="AB28" s="266"/>
+      <c r="AC28" s="299"/>
       <c r="AD28" s="113"/>
       <c r="AE28" s="51"/>
       <c r="AF28" s="51"/>
@@ -7565,77 +7574,77 @@
       <c r="AH28" s="115"/>
     </row>
     <row r="29" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="245"/>
-      <c r="B29" s="171" t="s">
+      <c r="A29" s="304"/>
+      <c r="B29" s="169" t="s">
         <v>730</v>
       </c>
-      <c r="C29" s="171" t="s">
+      <c r="C29" s="169" t="s">
         <v>759</v>
       </c>
-      <c r="D29" s="189" t="s">
+      <c r="D29" s="187" t="s">
         <v>824</v>
       </c>
-      <c r="E29" s="189" t="s">
+      <c r="E29" s="187" t="s">
         <v>784</v>
       </c>
-      <c r="F29" s="190" t="s">
+      <c r="F29" s="188" t="s">
         <v>831</v>
       </c>
-      <c r="G29" s="171" t="s">
+      <c r="G29" s="169" t="s">
         <v>836</v>
       </c>
-      <c r="H29" s="189" t="s">
+      <c r="H29" s="187" t="s">
         <v>840</v>
       </c>
-      <c r="I29" s="189" t="s">
+      <c r="I29" s="187" t="s">
         <v>845</v>
       </c>
-      <c r="J29" s="191" t="s">
+      <c r="J29" s="189" t="s">
         <v>851</v>
       </c>
-      <c r="K29" s="266"/>
-      <c r="L29" s="192" t="s">
+      <c r="K29" s="299"/>
+      <c r="L29" s="190" t="s">
         <v>856</v>
       </c>
-      <c r="M29" s="189" t="s">
+      <c r="M29" s="187" t="s">
         <v>209</v>
       </c>
-      <c r="N29" s="189" t="s">
+      <c r="N29" s="187" t="s">
         <v>863</v>
       </c>
-      <c r="O29" s="190" t="s">
+      <c r="O29" s="188" t="s">
         <v>868</v>
       </c>
-      <c r="P29" s="171" t="s">
+      <c r="P29" s="169" t="s">
         <v>872</v>
       </c>
-      <c r="Q29" s="189" t="s">
+      <c r="Q29" s="187" t="s">
         <v>876</v>
       </c>
-      <c r="R29" s="189" t="s">
+      <c r="R29" s="187" t="s">
         <v>880</v>
       </c>
-      <c r="S29" s="190" t="s">
+      <c r="S29" s="188" t="s">
         <v>884</v>
       </c>
-      <c r="T29" s="171" t="s">
+      <c r="T29" s="169" t="s">
         <v>888</v>
       </c>
-      <c r="U29" s="189" t="s">
+      <c r="U29" s="187" t="s">
         <v>371</v>
       </c>
-      <c r="V29" s="189" t="s">
+      <c r="V29" s="187" t="s">
         <v>872</v>
       </c>
-      <c r="W29" s="191" t="s">
+      <c r="W29" s="189" t="s">
         <v>209</v>
       </c>
-      <c r="X29" s="266"/>
-      <c r="Y29" s="329"/>
-      <c r="Z29" s="330"/>
-      <c r="AA29" s="330"/>
-      <c r="AB29" s="331"/>
-      <c r="AC29" s="266"/>
+      <c r="X29" s="299"/>
+      <c r="Y29" s="281"/>
+      <c r="Z29" s="260"/>
+      <c r="AA29" s="260"/>
+      <c r="AB29" s="266"/>
+      <c r="AC29" s="299"/>
       <c r="AD29" s="113"/>
       <c r="AE29" s="51"/>
       <c r="AF29" s="51"/>
@@ -7643,77 +7652,77 @@
       <c r="AH29" s="115"/>
     </row>
     <row r="30" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="245"/>
-      <c r="B30" s="171" t="s">
+      <c r="A30" s="304"/>
+      <c r="B30" s="169" t="s">
         <v>731</v>
       </c>
-      <c r="C30" s="171" t="s">
+      <c r="C30" s="169" t="s">
         <v>760</v>
       </c>
-      <c r="D30" s="189" t="s">
+      <c r="D30" s="187" t="s">
         <v>769</v>
       </c>
-      <c r="E30" s="189" t="s">
+      <c r="E30" s="187" t="s">
         <v>785</v>
       </c>
-      <c r="F30" s="190" t="s">
+      <c r="F30" s="188" t="s">
         <v>832</v>
       </c>
-      <c r="G30" s="171" t="s">
+      <c r="G30" s="169" t="s">
         <v>805</v>
       </c>
-      <c r="H30" s="189" t="s">
+      <c r="H30" s="187" t="s">
         <v>841</v>
       </c>
-      <c r="I30" s="189" t="s">
+      <c r="I30" s="187" t="s">
         <v>846</v>
       </c>
-      <c r="J30" s="191" t="s">
+      <c r="J30" s="189" t="s">
         <v>852</v>
       </c>
-      <c r="K30" s="266"/>
-      <c r="L30" s="192" t="s">
+      <c r="K30" s="299"/>
+      <c r="L30" s="190" t="s">
         <v>187</v>
       </c>
-      <c r="M30" s="189" t="s">
+      <c r="M30" s="187" t="s">
         <v>210</v>
       </c>
-      <c r="N30" s="189" t="s">
+      <c r="N30" s="187" t="s">
         <v>235</v>
       </c>
-      <c r="O30" s="190" t="s">
+      <c r="O30" s="188" t="s">
         <v>869</v>
       </c>
-      <c r="P30" s="171" t="s">
+      <c r="P30" s="169" t="s">
         <v>282</v>
       </c>
-      <c r="Q30" s="189" t="s">
+      <c r="Q30" s="187" t="s">
         <v>301</v>
       </c>
-      <c r="R30" s="189" t="s">
+      <c r="R30" s="187" t="s">
         <v>318</v>
       </c>
-      <c r="S30" s="190" t="s">
+      <c r="S30" s="188" t="s">
         <v>337</v>
       </c>
-      <c r="T30" s="171" t="s">
+      <c r="T30" s="169" t="s">
         <v>354</v>
       </c>
-      <c r="U30" s="189" t="s">
+      <c r="U30" s="187" t="s">
         <v>372</v>
       </c>
-      <c r="V30" s="189" t="s">
+      <c r="V30" s="187" t="s">
         <v>388</v>
       </c>
-      <c r="W30" s="191" t="s">
+      <c r="W30" s="189" t="s">
         <v>404</v>
       </c>
-      <c r="X30" s="266"/>
-      <c r="Y30" s="329"/>
-      <c r="Z30" s="330"/>
-      <c r="AA30" s="330"/>
-      <c r="AB30" s="331"/>
-      <c r="AC30" s="266"/>
+      <c r="X30" s="299"/>
+      <c r="Y30" s="281"/>
+      <c r="Z30" s="260"/>
+      <c r="AA30" s="260"/>
+      <c r="AB30" s="266"/>
+      <c r="AC30" s="299"/>
       <c r="AD30" s="113"/>
       <c r="AE30" s="51"/>
       <c r="AF30" s="51"/>
@@ -7721,77 +7730,77 @@
       <c r="AH30" s="115"/>
     </row>
     <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="245"/>
-      <c r="B31" s="172" t="s">
+      <c r="A31" s="304"/>
+      <c r="B31" s="170" t="s">
         <v>732</v>
       </c>
-      <c r="C31" s="169" t="s">
+      <c r="C31" s="167" t="s">
         <v>761</v>
       </c>
-      <c r="D31" s="181" t="s">
+      <c r="D31" s="179" t="s">
         <v>770</v>
       </c>
-      <c r="E31" s="181" t="s">
+      <c r="E31" s="179" t="s">
         <v>786</v>
       </c>
-      <c r="F31" s="182" t="s">
+      <c r="F31" s="180" t="s">
         <v>791</v>
       </c>
-      <c r="G31" s="169" t="s">
+      <c r="G31" s="167" t="s">
         <v>806</v>
       </c>
-      <c r="H31" s="181" t="s">
+      <c r="H31" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="I31" s="181" t="s">
+      <c r="I31" s="179" t="s">
         <v>146</v>
       </c>
-      <c r="J31" s="183" t="s">
+      <c r="J31" s="181" t="s">
         <v>170</v>
       </c>
-      <c r="K31" s="266"/>
-      <c r="L31" s="184" t="s">
+      <c r="K31" s="299"/>
+      <c r="L31" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="M31" s="181" t="s">
+      <c r="M31" s="179" t="s">
         <v>211</v>
       </c>
-      <c r="N31" s="181" t="s">
+      <c r="N31" s="179" t="s">
         <v>236</v>
       </c>
-      <c r="O31" s="182" t="s">
+      <c r="O31" s="180" t="s">
         <v>263</v>
       </c>
-      <c r="P31" s="169" t="s">
+      <c r="P31" s="167" t="s">
         <v>283</v>
       </c>
-      <c r="Q31" s="181" t="s">
+      <c r="Q31" s="179" t="s">
         <v>302</v>
       </c>
-      <c r="R31" s="181" t="s">
+      <c r="R31" s="179" t="s">
         <v>319</v>
       </c>
-      <c r="S31" s="182" t="s">
+      <c r="S31" s="180" t="s">
         <v>338</v>
       </c>
-      <c r="T31" s="169" t="s">
+      <c r="T31" s="167" t="s">
         <v>355</v>
       </c>
-      <c r="U31" s="181" t="s">
+      <c r="U31" s="179" t="s">
         <v>373</v>
       </c>
-      <c r="V31" s="181" t="s">
+      <c r="V31" s="179" t="s">
         <v>389</v>
       </c>
-      <c r="W31" s="183" t="s">
+      <c r="W31" s="181" t="s">
         <v>405</v>
       </c>
-      <c r="X31" s="266"/>
-      <c r="Y31" s="332"/>
-      <c r="Z31" s="333"/>
-      <c r="AA31" s="333"/>
-      <c r="AB31" s="334"/>
-      <c r="AC31" s="266"/>
+      <c r="X31" s="299"/>
+      <c r="Y31" s="282"/>
+      <c r="Z31" s="261"/>
+      <c r="AA31" s="261"/>
+      <c r="AB31" s="267"/>
+      <c r="AC31" s="299"/>
       <c r="AD31" s="113"/>
       <c r="AE31" s="51"/>
       <c r="AF31" s="51"/>
@@ -7799,83 +7808,83 @@
       <c r="AH31" s="115"/>
     </row>
     <row r="32" spans="1:34" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="247" t="s">
-        <v>417</v>
-      </c>
-      <c r="B32" s="167" t="s">
+      <c r="A32" s="306" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B32" s="165" t="s">
         <v>724</v>
       </c>
-      <c r="C32" s="193"/>
-      <c r="D32" s="194" t="s">
+      <c r="C32" s="191"/>
+      <c r="D32" s="192" t="s">
         <v>771</v>
       </c>
-      <c r="E32" s="195"/>
-      <c r="F32" s="196" t="s">
+      <c r="E32" s="193"/>
+      <c r="F32" s="194" t="s">
         <v>792</v>
       </c>
-      <c r="G32" s="197" t="s">
+      <c r="G32" s="195" t="s">
         <v>807</v>
       </c>
-      <c r="H32" s="198" t="s">
+      <c r="H32" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="I32" s="194" t="s">
+      <c r="I32" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="199" t="s">
+      <c r="J32" s="197" t="s">
         <v>171</v>
       </c>
-      <c r="K32" s="266"/>
-      <c r="L32" s="200" t="s">
+      <c r="K32" s="299"/>
+      <c r="L32" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="M32" s="198" t="s">
+      <c r="M32" s="196" t="s">
         <v>212</v>
       </c>
-      <c r="N32" s="198" t="s">
+      <c r="N32" s="196" t="s">
         <v>237</v>
       </c>
-      <c r="O32" s="196" t="s">
+      <c r="O32" s="194" t="s">
         <v>237</v>
       </c>
-      <c r="P32" s="201" t="s">
+      <c r="P32" s="199" t="s">
         <v>284</v>
       </c>
-      <c r="Q32" s="194" t="s">
+      <c r="Q32" s="192" t="s">
         <v>303</v>
       </c>
-      <c r="R32" s="194" t="s">
+      <c r="R32" s="192" t="s">
         <v>320</v>
       </c>
-      <c r="S32" s="202" t="s">
+      <c r="S32" s="200" t="s">
         <v>339</v>
       </c>
-      <c r="T32" s="197" t="s">
+      <c r="T32" s="195" t="s">
         <v>356</v>
       </c>
-      <c r="U32" s="203" t="s">
+      <c r="U32" s="201" t="s">
         <v>72</v>
       </c>
-      <c r="V32" s="203" t="s">
+      <c r="V32" s="201" t="s">
         <v>390</v>
       </c>
-      <c r="W32" s="199" t="s">
+      <c r="W32" s="197" t="s">
         <v>406</v>
       </c>
-      <c r="X32" s="266"/>
-      <c r="Y32" s="270" t="s">
+      <c r="X32" s="299"/>
+      <c r="Y32" s="288" t="s">
         <v>918</v>
       </c>
-      <c r="Z32" s="273" t="s">
+      <c r="Z32" s="262" t="s">
         <v>919</v>
       </c>
-      <c r="AA32" s="273" t="s">
+      <c r="AA32" s="262" t="s">
         <v>920</v>
       </c>
-      <c r="AB32" s="276" t="s">
+      <c r="AB32" s="268" t="s">
         <v>921</v>
       </c>
-      <c r="AC32" s="266"/>
+      <c r="AC32" s="299"/>
       <c r="AD32" s="113"/>
       <c r="AE32" s="51"/>
       <c r="AF32" s="51"/>
@@ -7883,73 +7892,73 @@
       <c r="AH32" s="115"/>
     </row>
     <row r="33" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="246"/>
-      <c r="B33" s="168" t="s">
+      <c r="A33" s="305"/>
+      <c r="B33" s="166" t="s">
         <v>725</v>
       </c>
-      <c r="C33" s="204"/>
-      <c r="D33" s="205" t="s">
+      <c r="C33" s="202"/>
+      <c r="D33" s="203" t="s">
         <v>772</v>
       </c>
-      <c r="E33" s="206"/>
-      <c r="F33" s="207" t="s">
+      <c r="E33" s="204"/>
+      <c r="F33" s="205" t="s">
         <v>793</v>
       </c>
-      <c r="G33" s="208" t="s">
+      <c r="G33" s="206" t="s">
         <v>793</v>
       </c>
-      <c r="H33" s="209" t="s">
+      <c r="H33" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="I33" s="205" t="s">
+      <c r="I33" s="203" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="210" t="s">
+      <c r="J33" s="208" t="s">
         <v>172</v>
       </c>
-      <c r="K33" s="266"/>
-      <c r="L33" s="211" t="s">
+      <c r="K33" s="299"/>
+      <c r="L33" s="209" t="s">
         <v>118</v>
       </c>
-      <c r="M33" s="209" t="s">
+      <c r="M33" s="207" t="s">
         <v>213</v>
       </c>
-      <c r="N33" s="209" t="s">
+      <c r="N33" s="207" t="s">
         <v>238</v>
       </c>
-      <c r="O33" s="207" t="s">
+      <c r="O33" s="205" t="s">
         <v>213</v>
       </c>
-      <c r="P33" s="212" t="s">
+      <c r="P33" s="210" t="s">
         <v>148</v>
       </c>
-      <c r="Q33" s="205" t="s">
+      <c r="Q33" s="203" t="s">
         <v>304</v>
       </c>
-      <c r="R33" s="205" t="s">
+      <c r="R33" s="203" t="s">
         <v>321</v>
       </c>
-      <c r="S33" s="213" t="s">
+      <c r="S33" s="211" t="s">
         <v>340</v>
       </c>
-      <c r="T33" s="208" t="s">
+      <c r="T33" s="206" t="s">
         <v>357</v>
       </c>
-      <c r="U33" s="214" t="s">
+      <c r="U33" s="212" t="s">
         <v>374</v>
       </c>
-      <c r="V33" s="214" t="s">
+      <c r="V33" s="212" t="s">
         <v>374</v>
       </c>
-      <c r="W33" s="210" t="s">
+      <c r="W33" s="208" t="s">
         <v>407</v>
       </c>
-      <c r="X33" s="266"/>
-      <c r="Y33" s="271"/>
-      <c r="Z33" s="274"/>
-      <c r="AA33" s="274"/>
-      <c r="AB33" s="277"/>
-      <c r="AC33" s="266"/>
+      <c r="X33" s="299"/>
+      <c r="Y33" s="289"/>
+      <c r="Z33" s="263"/>
+      <c r="AA33" s="263"/>
+      <c r="AB33" s="269"/>
+      <c r="AC33" s="299"/>
       <c r="AD33" s="113"/>
       <c r="AE33" s="51"/>
       <c r="AF33" s="51"/>
@@ -7957,73 +7966,73 @@
       <c r="AH33" s="115"/>
     </row>
     <row r="34" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="245"/>
-      <c r="B34" s="169" t="s">
+      <c r="A34" s="304"/>
+      <c r="B34" s="167" t="s">
         <v>726</v>
       </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="205" t="s">
+      <c r="C34" s="202"/>
+      <c r="D34" s="203" t="s">
         <v>773</v>
       </c>
-      <c r="E34" s="206"/>
-      <c r="F34" s="207" t="s">
+      <c r="E34" s="204"/>
+      <c r="F34" s="205" t="s">
         <v>794</v>
       </c>
-      <c r="G34" s="208" t="s">
+      <c r="G34" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="209" t="s">
+      <c r="H34" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="205" t="s">
+      <c r="I34" s="203" t="s">
         <v>149</v>
       </c>
-      <c r="J34" s="210" t="s">
+      <c r="J34" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="K34" s="266"/>
-      <c r="L34" s="211" t="s">
+      <c r="K34" s="299"/>
+      <c r="L34" s="209" t="s">
         <v>189</v>
       </c>
-      <c r="M34" s="209" t="s">
+      <c r="M34" s="207" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="209" t="s">
+      <c r="N34" s="207" t="s">
         <v>239</v>
       </c>
-      <c r="O34" s="207" t="s">
+      <c r="O34" s="205" t="s">
         <v>119</v>
       </c>
-      <c r="P34" s="212" t="s">
+      <c r="P34" s="210" t="s">
         <v>285</v>
       </c>
-      <c r="Q34" s="205" t="s">
+      <c r="Q34" s="203" t="s">
         <v>305</v>
       </c>
-      <c r="R34" s="205" t="s">
+      <c r="R34" s="203" t="s">
         <v>322</v>
       </c>
-      <c r="S34" s="213" t="s">
+      <c r="S34" s="211" t="s">
         <v>341</v>
       </c>
-      <c r="T34" s="208" t="s">
+      <c r="T34" s="206" t="s">
         <v>358</v>
       </c>
-      <c r="U34" s="214" t="s">
+      <c r="U34" s="212" t="s">
         <v>375</v>
       </c>
-      <c r="V34" s="214" t="s">
+      <c r="V34" s="212" t="s">
         <v>391</v>
       </c>
-      <c r="W34" s="210" t="s">
+      <c r="W34" s="208" t="s">
         <v>408</v>
       </c>
-      <c r="X34" s="266"/>
-      <c r="Y34" s="271"/>
-      <c r="Z34" s="274"/>
-      <c r="AA34" s="274"/>
-      <c r="AB34" s="277"/>
-      <c r="AC34" s="266"/>
+      <c r="X34" s="299"/>
+      <c r="Y34" s="289"/>
+      <c r="Z34" s="263"/>
+      <c r="AA34" s="263"/>
+      <c r="AB34" s="269"/>
+      <c r="AC34" s="299"/>
       <c r="AD34" s="113"/>
       <c r="AE34" s="51"/>
       <c r="AF34" s="51"/>
@@ -8031,73 +8040,73 @@
       <c r="AH34" s="115"/>
     </row>
     <row r="35" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="245"/>
-      <c r="B35" s="170" t="s">
+      <c r="A35" s="304"/>
+      <c r="B35" s="168" t="s">
         <v>727</v>
       </c>
-      <c r="C35" s="204"/>
-      <c r="D35" s="205" t="s">
+      <c r="C35" s="202"/>
+      <c r="D35" s="203" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="206"/>
-      <c r="F35" s="207" t="s">
+      <c r="E35" s="204"/>
+      <c r="F35" s="205" t="s">
         <v>795</v>
       </c>
-      <c r="G35" s="208" t="s">
+      <c r="G35" s="206" t="s">
         <v>99</v>
       </c>
-      <c r="H35" s="209" t="s">
+      <c r="H35" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="205" t="s">
+      <c r="I35" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="J35" s="210" t="s">
+      <c r="J35" s="208" t="s">
         <v>173</v>
       </c>
-      <c r="K35" s="266"/>
-      <c r="L35" s="211" t="s">
+      <c r="K35" s="299"/>
+      <c r="L35" s="209" t="s">
         <v>190</v>
       </c>
-      <c r="M35" s="209" t="s">
+      <c r="M35" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="N35" s="209" t="s">
+      <c r="N35" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="O35" s="207" t="s">
+      <c r="O35" s="205" t="s">
         <v>120</v>
       </c>
-      <c r="P35" s="212" t="s">
+      <c r="P35" s="210" t="s">
         <v>286</v>
       </c>
-      <c r="Q35" s="205" t="s">
+      <c r="Q35" s="203" t="s">
         <v>306</v>
       </c>
-      <c r="R35" s="205" t="s">
+      <c r="R35" s="203" t="s">
         <v>323</v>
       </c>
-      <c r="S35" s="213" t="s">
+      <c r="S35" s="211" t="s">
         <v>342</v>
       </c>
-      <c r="T35" s="208" t="s">
+      <c r="T35" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="U35" s="214" t="s">
+      <c r="U35" s="212" t="s">
         <v>376</v>
       </c>
-      <c r="V35" s="214" t="s">
+      <c r="V35" s="212" t="s">
         <v>392</v>
       </c>
-      <c r="W35" s="210" t="s">
+      <c r="W35" s="208" t="s">
         <v>409</v>
       </c>
-      <c r="X35" s="266"/>
-      <c r="Y35" s="271"/>
-      <c r="Z35" s="274"/>
-      <c r="AA35" s="274"/>
-      <c r="AB35" s="277"/>
-      <c r="AC35" s="266"/>
+      <c r="X35" s="299"/>
+      <c r="Y35" s="289"/>
+      <c r="Z35" s="263"/>
+      <c r="AA35" s="263"/>
+      <c r="AB35" s="269"/>
+      <c r="AC35" s="299"/>
       <c r="AD35" s="113"/>
       <c r="AE35" s="51"/>
       <c r="AF35" s="51"/>
@@ -8105,73 +8114,73 @@
       <c r="AH35" s="115"/>
     </row>
     <row r="36" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="246"/>
-      <c r="B36" s="168" t="s">
+      <c r="A36" s="305"/>
+      <c r="B36" s="166" t="s">
         <v>728</v>
       </c>
-      <c r="C36" s="204"/>
-      <c r="D36" s="205" t="s">
+      <c r="C36" s="202"/>
+      <c r="D36" s="203" t="s">
         <v>774</v>
       </c>
-      <c r="E36" s="206"/>
-      <c r="F36" s="207" t="s">
+      <c r="E36" s="204"/>
+      <c r="F36" s="205" t="s">
         <v>796</v>
       </c>
-      <c r="G36" s="208" t="s">
+      <c r="G36" s="206" t="s">
         <v>100</v>
       </c>
-      <c r="H36" s="209" t="s">
+      <c r="H36" s="207" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="205" t="s">
+      <c r="I36" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="J36" s="210" t="s">
+      <c r="J36" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="K36" s="266"/>
-      <c r="L36" s="211" t="s">
+      <c r="K36" s="299"/>
+      <c r="L36" s="209" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="209" t="s">
+      <c r="M36" s="207" t="s">
         <v>214</v>
       </c>
-      <c r="N36" s="209" t="s">
+      <c r="N36" s="207" t="s">
         <v>240</v>
       </c>
-      <c r="O36" s="207" t="s">
+      <c r="O36" s="205" t="s">
         <v>121</v>
       </c>
-      <c r="P36" s="212" t="s">
+      <c r="P36" s="210" t="s">
         <v>287</v>
       </c>
-      <c r="Q36" s="205" t="s">
+      <c r="Q36" s="203" t="s">
         <v>287</v>
       </c>
-      <c r="R36" s="205" t="s">
+      <c r="R36" s="203" t="s">
         <v>324</v>
       </c>
-      <c r="S36" s="213" t="s">
+      <c r="S36" s="211" t="s">
         <v>343</v>
       </c>
-      <c r="T36" s="208" t="s">
+      <c r="T36" s="206" t="s">
         <v>360</v>
       </c>
-      <c r="U36" s="214" t="s">
+      <c r="U36" s="212" t="s">
         <v>377</v>
       </c>
-      <c r="V36" s="214" t="s">
+      <c r="V36" s="212" t="s">
         <v>393</v>
       </c>
-      <c r="W36" s="210" t="s">
+      <c r="W36" s="208" t="s">
         <v>410</v>
       </c>
-      <c r="X36" s="266"/>
-      <c r="Y36" s="271"/>
-      <c r="Z36" s="274"/>
-      <c r="AA36" s="274"/>
-      <c r="AB36" s="277"/>
-      <c r="AC36" s="266"/>
+      <c r="X36" s="299"/>
+      <c r="Y36" s="289"/>
+      <c r="Z36" s="263"/>
+      <c r="AA36" s="263"/>
+      <c r="AB36" s="269"/>
+      <c r="AC36" s="299"/>
       <c r="AD36" s="113"/>
       <c r="AE36" s="51"/>
       <c r="AF36" s="51"/>
@@ -8179,73 +8188,73 @@
       <c r="AH36" s="115"/>
     </row>
     <row r="37" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="245"/>
-      <c r="B37" s="169" t="s">
+      <c r="A37" s="304"/>
+      <c r="B37" s="167" t="s">
         <v>729</v>
       </c>
-      <c r="C37" s="204"/>
-      <c r="D37" s="205" t="s">
+      <c r="C37" s="202"/>
+      <c r="D37" s="203" t="s">
         <v>775</v>
       </c>
-      <c r="E37" s="206"/>
-      <c r="F37" s="207" t="s">
+      <c r="E37" s="204"/>
+      <c r="F37" s="205" t="s">
         <v>797</v>
       </c>
-      <c r="G37" s="208" t="s">
+      <c r="G37" s="206" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="209" t="s">
+      <c r="H37" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="I37" s="205" t="s">
+      <c r="I37" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="J37" s="210" t="s">
+      <c r="J37" s="208" t="s">
         <v>174</v>
       </c>
-      <c r="K37" s="266"/>
-      <c r="L37" s="211" t="s">
+      <c r="K37" s="299"/>
+      <c r="L37" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="M37" s="209" t="s">
+      <c r="M37" s="207" t="s">
         <v>215</v>
       </c>
-      <c r="N37" s="209" t="s">
+      <c r="N37" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="O37" s="207" t="s">
+      <c r="O37" s="205" t="s">
         <v>215</v>
       </c>
-      <c r="P37" s="212" t="s">
+      <c r="P37" s="210" t="s">
         <v>288</v>
       </c>
-      <c r="Q37" s="205" t="s">
+      <c r="Q37" s="203" t="s">
         <v>307</v>
       </c>
-      <c r="R37" s="205" t="s">
+      <c r="R37" s="203" t="s">
         <v>325</v>
       </c>
-      <c r="S37" s="213" t="s">
+      <c r="S37" s="211" t="s">
         <v>344</v>
       </c>
-      <c r="T37" s="208" t="s">
+      <c r="T37" s="206" t="s">
         <v>361</v>
       </c>
-      <c r="U37" s="214" t="s">
+      <c r="U37" s="212" t="s">
         <v>378</v>
       </c>
-      <c r="V37" s="214" t="s">
+      <c r="V37" s="212" t="s">
         <v>394</v>
       </c>
-      <c r="W37" s="210" t="s">
+      <c r="W37" s="208" t="s">
         <v>411</v>
       </c>
-      <c r="X37" s="266"/>
-      <c r="Y37" s="271"/>
-      <c r="Z37" s="274"/>
-      <c r="AA37" s="274"/>
-      <c r="AB37" s="277"/>
-      <c r="AC37" s="266"/>
+      <c r="X37" s="299"/>
+      <c r="Y37" s="289"/>
+      <c r="Z37" s="263"/>
+      <c r="AA37" s="263"/>
+      <c r="AB37" s="269"/>
+      <c r="AC37" s="299"/>
       <c r="AD37" s="113"/>
       <c r="AE37" s="51"/>
       <c r="AF37" s="51"/>
@@ -8253,73 +8262,73 @@
       <c r="AH37" s="115"/>
     </row>
     <row r="38" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="245"/>
-      <c r="B38" s="171" t="s">
+      <c r="A38" s="304"/>
+      <c r="B38" s="169" t="s">
         <v>730</v>
       </c>
-      <c r="C38" s="204"/>
-      <c r="D38" s="205" t="s">
+      <c r="C38" s="202"/>
+      <c r="D38" s="203" t="s">
         <v>776</v>
       </c>
-      <c r="E38" s="206"/>
-      <c r="F38" s="207" t="s">
+      <c r="E38" s="204"/>
+      <c r="F38" s="205" t="s">
         <v>798</v>
       </c>
-      <c r="G38" s="208" t="s">
+      <c r="G38" s="206" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="209" t="s">
+      <c r="H38" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="205" t="s">
+      <c r="I38" s="203" t="s">
         <v>153</v>
       </c>
-      <c r="J38" s="210" t="s">
+      <c r="J38" s="208" t="s">
         <v>175</v>
       </c>
-      <c r="K38" s="266"/>
-      <c r="L38" s="211" t="s">
+      <c r="K38" s="299"/>
+      <c r="L38" s="209" t="s">
         <v>191</v>
       </c>
-      <c r="M38" s="209" t="s">
+      <c r="M38" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="N38" s="209" t="s">
+      <c r="N38" s="207" t="s">
         <v>241</v>
       </c>
-      <c r="O38" s="207" t="s">
+      <c r="O38" s="205" t="s">
         <v>123</v>
       </c>
-      <c r="P38" s="212" t="s">
+      <c r="P38" s="210" t="s">
         <v>289</v>
       </c>
-      <c r="Q38" s="205" t="s">
+      <c r="Q38" s="203" t="s">
         <v>308</v>
       </c>
-      <c r="R38" s="205" t="s">
+      <c r="R38" s="203" t="s">
         <v>326</v>
       </c>
-      <c r="S38" s="213" t="s">
+      <c r="S38" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="T38" s="208" t="s">
+      <c r="T38" s="206" t="s">
         <v>362</v>
       </c>
-      <c r="U38" s="214" t="s">
+      <c r="U38" s="212" t="s">
         <v>379</v>
       </c>
-      <c r="V38" s="214" t="s">
+      <c r="V38" s="212" t="s">
         <v>395</v>
       </c>
-      <c r="W38" s="210" t="s">
+      <c r="W38" s="208" t="s">
         <v>412</v>
       </c>
-      <c r="X38" s="266"/>
-      <c r="Y38" s="271"/>
-      <c r="Z38" s="274"/>
-      <c r="AA38" s="274"/>
-      <c r="AB38" s="277"/>
-      <c r="AC38" s="266"/>
+      <c r="X38" s="299"/>
+      <c r="Y38" s="289"/>
+      <c r="Z38" s="263"/>
+      <c r="AA38" s="263"/>
+      <c r="AB38" s="269"/>
+      <c r="AC38" s="299"/>
       <c r="AD38" s="113"/>
       <c r="AE38" s="51"/>
       <c r="AF38" s="51"/>
@@ -8327,73 +8336,73 @@
       <c r="AH38" s="115"/>
     </row>
     <row r="39" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="245"/>
-      <c r="B39" s="171" t="s">
+      <c r="A39" s="304"/>
+      <c r="B39" s="169" t="s">
         <v>731</v>
       </c>
-      <c r="C39" s="204"/>
-      <c r="D39" s="205" t="s">
+      <c r="C39" s="202"/>
+      <c r="D39" s="203" t="s">
         <v>777</v>
       </c>
-      <c r="E39" s="206"/>
-      <c r="F39" s="207" t="s">
+      <c r="E39" s="204"/>
+      <c r="F39" s="205" t="s">
         <v>799</v>
       </c>
-      <c r="G39" s="208" t="s">
+      <c r="G39" s="206" t="s">
         <v>79</v>
       </c>
-      <c r="H39" s="209" t="s">
+      <c r="H39" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="205" t="s">
+      <c r="I39" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="J39" s="210" t="s">
+      <c r="J39" s="208" t="s">
         <v>176</v>
       </c>
-      <c r="K39" s="266"/>
-      <c r="L39" s="211" t="s">
+      <c r="K39" s="299"/>
+      <c r="L39" s="209" t="s">
         <v>192</v>
       </c>
-      <c r="M39" s="209" t="s">
+      <c r="M39" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="N39" s="209" t="s">
+      <c r="N39" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="O39" s="207" t="s">
+      <c r="O39" s="205" t="s">
         <v>264</v>
       </c>
-      <c r="P39" s="212" t="s">
+      <c r="P39" s="210" t="s">
         <v>290</v>
       </c>
-      <c r="Q39" s="205" t="s">
+      <c r="Q39" s="203" t="s">
         <v>309</v>
       </c>
-      <c r="R39" s="205" t="s">
+      <c r="R39" s="203" t="s">
         <v>309</v>
       </c>
-      <c r="S39" s="213" t="s">
+      <c r="S39" s="211" t="s">
         <v>345</v>
       </c>
-      <c r="T39" s="208" t="s">
+      <c r="T39" s="206" t="s">
         <v>363</v>
       </c>
-      <c r="U39" s="214" t="s">
+      <c r="U39" s="212" t="s">
         <v>380</v>
       </c>
-      <c r="V39" s="214" t="s">
+      <c r="V39" s="212" t="s">
         <v>396</v>
       </c>
-      <c r="W39" s="210" t="s">
+      <c r="W39" s="208" t="s">
         <v>413</v>
       </c>
-      <c r="X39" s="266"/>
-      <c r="Y39" s="271"/>
-      <c r="Z39" s="274"/>
-      <c r="AA39" s="274"/>
-      <c r="AB39" s="277"/>
-      <c r="AC39" s="266"/>
+      <c r="X39" s="299"/>
+      <c r="Y39" s="289"/>
+      <c r="Z39" s="263"/>
+      <c r="AA39" s="263"/>
+      <c r="AB39" s="269"/>
+      <c r="AC39" s="299"/>
       <c r="AD39" s="113"/>
       <c r="AE39" s="51"/>
       <c r="AF39" s="51"/>
@@ -8401,73 +8410,73 @@
       <c r="AH39" s="115"/>
     </row>
     <row r="40" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="248"/>
-      <c r="B40" s="172" t="s">
+      <c r="A40" s="307"/>
+      <c r="B40" s="170" t="s">
         <v>732</v>
       </c>
-      <c r="C40" s="215"/>
-      <c r="D40" s="216" t="s">
+      <c r="C40" s="213"/>
+      <c r="D40" s="214" t="s">
         <v>778</v>
       </c>
-      <c r="E40" s="217"/>
-      <c r="F40" s="218" t="s">
+      <c r="E40" s="215"/>
+      <c r="F40" s="216" t="s">
         <v>800</v>
       </c>
-      <c r="G40" s="219" t="s">
+      <c r="G40" s="217" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="220" t="s">
+      <c r="H40" s="218" t="s">
         <v>125</v>
       </c>
-      <c r="I40" s="216" t="s">
+      <c r="I40" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="J40" s="221" t="s">
+      <c r="J40" s="219" t="s">
         <v>177</v>
       </c>
-      <c r="K40" s="266"/>
-      <c r="L40" s="222" t="s">
+      <c r="K40" s="299"/>
+      <c r="L40" s="220" t="s">
         <v>125</v>
       </c>
-      <c r="M40" s="220" t="s">
+      <c r="M40" s="218" t="s">
         <v>216</v>
       </c>
-      <c r="N40" s="220" t="s">
+      <c r="N40" s="218" t="s">
         <v>242</v>
       </c>
-      <c r="O40" s="218" t="s">
+      <c r="O40" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="P40" s="223" t="s">
+      <c r="P40" s="221" t="s">
         <v>291</v>
       </c>
-      <c r="Q40" s="216" t="s">
+      <c r="Q40" s="214" t="s">
         <v>310</v>
       </c>
-      <c r="R40" s="216" t="s">
+      <c r="R40" s="214" t="s">
         <v>327</v>
       </c>
-      <c r="S40" s="224" t="s">
+      <c r="S40" s="222" t="s">
         <v>327</v>
       </c>
-      <c r="T40" s="219" t="s">
+      <c r="T40" s="217" t="s">
         <v>364</v>
       </c>
-      <c r="U40" s="225" t="s">
+      <c r="U40" s="223" t="s">
         <v>381</v>
       </c>
-      <c r="V40" s="225" t="s">
+      <c r="V40" s="223" t="s">
         <v>397</v>
       </c>
-      <c r="W40" s="221" t="s">
+      <c r="W40" s="219" t="s">
         <v>414</v>
       </c>
-      <c r="X40" s="266"/>
-      <c r="Y40" s="272"/>
-      <c r="Z40" s="275"/>
-      <c r="AA40" s="275"/>
-      <c r="AB40" s="278"/>
-      <c r="AC40" s="266"/>
+      <c r="X40" s="299"/>
+      <c r="Y40" s="290"/>
+      <c r="Z40" s="264"/>
+      <c r="AA40" s="264"/>
+      <c r="AB40" s="270"/>
+      <c r="AC40" s="299"/>
       <c r="AD40" s="113"/>
       <c r="AE40" s="51"/>
       <c r="AF40" s="51"/>
@@ -8475,79 +8484,79 @@
       <c r="AH40" s="115"/>
     </row>
     <row r="41" spans="1:34" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="245" t="s">
-        <v>418</v>
-      </c>
-      <c r="B41" s="167" t="s">
+      <c r="A41" s="304" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B41" s="165" t="s">
         <v>724</v>
       </c>
-      <c r="C41" s="204"/>
-      <c r="D41" s="255" t="s">
+      <c r="C41" s="202"/>
+      <c r="D41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="E41" s="206"/>
-      <c r="F41" s="255" t="s">
+      <c r="E41" s="204"/>
+      <c r="F41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="G41" s="255" t="s">
+      <c r="G41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="H41" s="126" t="s">
+      <c r="H41" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="I41" s="255" t="s">
+      <c r="I41" s="274" t="s">
         <v>812</v>
       </c>
-      <c r="J41" s="255" t="s">
+      <c r="J41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="K41" s="266"/>
-      <c r="L41" s="149" t="s">
+      <c r="K41" s="299"/>
+      <c r="L41" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="M41" s="185" t="s">
+      <c r="M41" s="183" t="s">
         <v>217</v>
       </c>
-      <c r="N41" s="127" t="s">
+      <c r="N41" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="O41" s="132" t="s">
+      <c r="O41" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="255" t="s">
+      <c r="P41" s="274" t="s">
         <v>812</v>
       </c>
-      <c r="Q41" s="255" t="s">
+      <c r="Q41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="R41" s="255" t="s">
+      <c r="R41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="S41" s="255" t="s">
+      <c r="S41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="T41" s="255" t="s">
+      <c r="T41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="U41" s="255" t="s">
+      <c r="U41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="V41" s="255" t="s">
+      <c r="V41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="W41" s="255" t="s">
+      <c r="W41" s="274" t="s">
         <v>811</v>
       </c>
-      <c r="X41" s="266"/>
-      <c r="Y41" s="326"/>
-      <c r="Z41" s="317" t="s">
+      <c r="X41" s="299"/>
+      <c r="Y41" s="280"/>
+      <c r="Z41" s="276" t="s">
         <v>813</v>
       </c>
-      <c r="AA41" s="317" t="s">
+      <c r="AA41" s="276" t="s">
         <v>813</v>
       </c>
-      <c r="AB41" s="328"/>
-      <c r="AC41" s="266"/>
+      <c r="AB41" s="265"/>
+      <c r="AC41" s="299"/>
       <c r="AD41" s="113"/>
       <c r="AE41" s="51"/>
       <c r="AF41" s="51"/>
@@ -8555,47 +8564,47 @@
       <c r="AH41" s="115"/>
     </row>
     <row r="42" spans="1:34" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="246"/>
-      <c r="B42" s="168" t="s">
+      <c r="A42" s="305"/>
+      <c r="B42" s="166" t="s">
         <v>725</v>
       </c>
-      <c r="C42" s="204"/>
-      <c r="D42" s="256"/>
-      <c r="E42" s="206"/>
-      <c r="F42" s="256"/>
-      <c r="G42" s="256"/>
-      <c r="H42" s="126" t="s">
+      <c r="C42" s="202"/>
+      <c r="D42" s="275"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="275"/>
+      <c r="G42" s="275"/>
+      <c r="H42" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="I42" s="256"/>
-      <c r="J42" s="256"/>
-      <c r="K42" s="266"/>
-      <c r="L42" s="148" t="s">
+      <c r="I42" s="275"/>
+      <c r="J42" s="275"/>
+      <c r="K42" s="299"/>
+      <c r="L42" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="177" t="s">
+      <c r="M42" s="175" t="s">
         <v>218</v>
       </c>
-      <c r="N42" s="126" t="s">
+      <c r="N42" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="O42" s="178" t="s">
+      <c r="O42" s="176" t="s">
         <v>265</v>
       </c>
-      <c r="P42" s="256"/>
-      <c r="Q42" s="256"/>
-      <c r="R42" s="256"/>
-      <c r="S42" s="256"/>
-      <c r="T42" s="256"/>
-      <c r="U42" s="256"/>
-      <c r="V42" s="256"/>
-      <c r="W42" s="256"/>
-      <c r="X42" s="266"/>
-      <c r="Y42" s="329"/>
-      <c r="Z42" s="318"/>
-      <c r="AA42" s="318"/>
-      <c r="AB42" s="331"/>
-      <c r="AC42" s="266"/>
+      <c r="P42" s="275"/>
+      <c r="Q42" s="275"/>
+      <c r="R42" s="275"/>
+      <c r="S42" s="275"/>
+      <c r="T42" s="275"/>
+      <c r="U42" s="275"/>
+      <c r="V42" s="275"/>
+      <c r="W42" s="275"/>
+      <c r="X42" s="299"/>
+      <c r="Y42" s="281"/>
+      <c r="Z42" s="277"/>
+      <c r="AA42" s="277"/>
+      <c r="AB42" s="266"/>
+      <c r="AC42" s="299"/>
       <c r="AD42" s="113"/>
       <c r="AE42" s="51"/>
       <c r="AF42" s="51"/>
@@ -8603,47 +8612,47 @@
       <c r="AH42" s="115"/>
     </row>
     <row r="43" spans="1:34" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="245"/>
-      <c r="B43" s="169" t="s">
+      <c r="A43" s="304"/>
+      <c r="B43" s="167" t="s">
         <v>726</v>
       </c>
-      <c r="C43" s="204"/>
-      <c r="D43" s="256"/>
-      <c r="E43" s="206"/>
-      <c r="F43" s="256"/>
-      <c r="G43" s="256"/>
-      <c r="H43" s="127" t="s">
+      <c r="C43" s="202"/>
+      <c r="D43" s="275"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="275"/>
+      <c r="G43" s="275"/>
+      <c r="H43" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="I43" s="256"/>
-      <c r="J43" s="256"/>
-      <c r="K43" s="266"/>
-      <c r="L43" s="149" t="s">
+      <c r="I43" s="275"/>
+      <c r="J43" s="275"/>
+      <c r="K43" s="299"/>
+      <c r="L43" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="M43" s="126" t="s">
+      <c r="M43" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="N43" s="181" t="s">
+      <c r="N43" s="179" t="s">
         <v>243</v>
       </c>
-      <c r="O43" s="132" t="s">
+      <c r="O43" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="P43" s="256"/>
-      <c r="Q43" s="256"/>
-      <c r="R43" s="256"/>
-      <c r="S43" s="256"/>
-      <c r="T43" s="256"/>
-      <c r="U43" s="256"/>
-      <c r="V43" s="256"/>
-      <c r="W43" s="256"/>
-      <c r="X43" s="266"/>
-      <c r="Y43" s="329"/>
-      <c r="Z43" s="318"/>
-      <c r="AA43" s="318"/>
-      <c r="AB43" s="331"/>
-      <c r="AC43" s="266"/>
+      <c r="P43" s="275"/>
+      <c r="Q43" s="275"/>
+      <c r="R43" s="275"/>
+      <c r="S43" s="275"/>
+      <c r="T43" s="275"/>
+      <c r="U43" s="275"/>
+      <c r="V43" s="275"/>
+      <c r="W43" s="275"/>
+      <c r="X43" s="299"/>
+      <c r="Y43" s="281"/>
+      <c r="Z43" s="277"/>
+      <c r="AA43" s="277"/>
+      <c r="AB43" s="266"/>
+      <c r="AC43" s="299"/>
       <c r="AD43" s="113"/>
       <c r="AE43" s="51"/>
       <c r="AF43" s="51"/>
@@ -8651,47 +8660,47 @@
       <c r="AH43" s="115"/>
     </row>
     <row r="44" spans="1:34" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="245"/>
-      <c r="B44" s="170" t="s">
+      <c r="A44" s="304"/>
+      <c r="B44" s="168" t="s">
         <v>727</v>
       </c>
-      <c r="C44" s="204"/>
-      <c r="D44" s="256"/>
-      <c r="E44" s="206"/>
-      <c r="F44" s="256"/>
-      <c r="G44" s="256"/>
-      <c r="H44" s="126" t="s">
+      <c r="C44" s="202"/>
+      <c r="D44" s="275"/>
+      <c r="E44" s="204"/>
+      <c r="F44" s="275"/>
+      <c r="G44" s="275"/>
+      <c r="H44" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="256"/>
-      <c r="J44" s="256"/>
-      <c r="K44" s="266"/>
-      <c r="L44" s="228" t="s">
+      <c r="I44" s="275"/>
+      <c r="J44" s="275"/>
+      <c r="K44" s="299"/>
+      <c r="L44" s="226" t="s">
         <v>193</v>
       </c>
-      <c r="M44" s="126" t="s">
+      <c r="M44" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="127" t="s">
+      <c r="N44" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="O44" s="128" t="s">
+      <c r="O44" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="P44" s="256"/>
-      <c r="Q44" s="256"/>
-      <c r="R44" s="256"/>
-      <c r="S44" s="256"/>
-      <c r="T44" s="256"/>
-      <c r="U44" s="256"/>
-      <c r="V44" s="256"/>
-      <c r="W44" s="256"/>
-      <c r="X44" s="266"/>
-      <c r="Y44" s="329"/>
-      <c r="Z44" s="318"/>
-      <c r="AA44" s="318"/>
-      <c r="AB44" s="331"/>
-      <c r="AC44" s="266"/>
+      <c r="P44" s="275"/>
+      <c r="Q44" s="275"/>
+      <c r="R44" s="275"/>
+      <c r="S44" s="275"/>
+      <c r="T44" s="275"/>
+      <c r="U44" s="275"/>
+      <c r="V44" s="275"/>
+      <c r="W44" s="275"/>
+      <c r="X44" s="299"/>
+      <c r="Y44" s="281"/>
+      <c r="Z44" s="277"/>
+      <c r="AA44" s="277"/>
+      <c r="AB44" s="266"/>
+      <c r="AC44" s="299"/>
       <c r="AD44" s="113"/>
       <c r="AE44" s="51"/>
       <c r="AF44" s="51"/>
@@ -8699,47 +8708,47 @@
       <c r="AH44" s="115"/>
     </row>
     <row r="45" spans="1:34" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="246"/>
-      <c r="B45" s="168" t="s">
+      <c r="A45" s="305"/>
+      <c r="B45" s="166" t="s">
         <v>728</v>
       </c>
-      <c r="C45" s="204"/>
-      <c r="D45" s="256"/>
-      <c r="E45" s="206"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="256"/>
-      <c r="H45" s="177" t="s">
+      <c r="C45" s="202"/>
+      <c r="D45" s="275"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="275"/>
+      <c r="G45" s="275"/>
+      <c r="H45" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="I45" s="256"/>
-      <c r="J45" s="256"/>
-      <c r="K45" s="266"/>
-      <c r="L45" s="180" t="s">
+      <c r="I45" s="275"/>
+      <c r="J45" s="275"/>
+      <c r="K45" s="299"/>
+      <c r="L45" s="178" t="s">
         <v>194</v>
       </c>
-      <c r="M45" s="126" t="s">
+      <c r="M45" s="124" t="s">
         <v>137</v>
       </c>
-      <c r="N45" s="127" t="s">
+      <c r="N45" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="178" t="s">
+      <c r="O45" s="176" t="s">
         <v>266</v>
       </c>
-      <c r="P45" s="256"/>
-      <c r="Q45" s="256"/>
-      <c r="R45" s="256"/>
-      <c r="S45" s="256"/>
-      <c r="T45" s="256"/>
-      <c r="U45" s="256"/>
-      <c r="V45" s="256"/>
-      <c r="W45" s="256"/>
-      <c r="X45" s="266"/>
-      <c r="Y45" s="329"/>
-      <c r="Z45" s="318"/>
-      <c r="AA45" s="318"/>
-      <c r="AB45" s="331"/>
-      <c r="AC45" s="266"/>
+      <c r="P45" s="275"/>
+      <c r="Q45" s="275"/>
+      <c r="R45" s="275"/>
+      <c r="S45" s="275"/>
+      <c r="T45" s="275"/>
+      <c r="U45" s="275"/>
+      <c r="V45" s="275"/>
+      <c r="W45" s="275"/>
+      <c r="X45" s="299"/>
+      <c r="Y45" s="281"/>
+      <c r="Z45" s="277"/>
+      <c r="AA45" s="277"/>
+      <c r="AB45" s="266"/>
+      <c r="AC45" s="299"/>
       <c r="AD45" s="113"/>
       <c r="AE45" s="51"/>
       <c r="AF45" s="51"/>
@@ -8747,47 +8756,47 @@
       <c r="AH45" s="115"/>
     </row>
     <row r="46" spans="1:34" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="245"/>
-      <c r="B46" s="169" t="s">
+      <c r="A46" s="304"/>
+      <c r="B46" s="167" t="s">
         <v>729</v>
       </c>
-      <c r="C46" s="204"/>
-      <c r="D46" s="256"/>
-      <c r="E46" s="206"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="256"/>
-      <c r="H46" s="126" t="s">
+      <c r="C46" s="202"/>
+      <c r="D46" s="275"/>
+      <c r="E46" s="204"/>
+      <c r="F46" s="275"/>
+      <c r="G46" s="275"/>
+      <c r="H46" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="256"/>
-      <c r="J46" s="256"/>
-      <c r="K46" s="266"/>
-      <c r="L46" s="149" t="s">
+      <c r="I46" s="275"/>
+      <c r="J46" s="275"/>
+      <c r="K46" s="299"/>
+      <c r="L46" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="M46" s="134" t="s">
+      <c r="M46" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="N46" s="127" t="s">
+      <c r="N46" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="O46" s="128" t="s">
+      <c r="O46" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="P46" s="256"/>
-      <c r="Q46" s="256"/>
-      <c r="R46" s="256"/>
-      <c r="S46" s="256"/>
-      <c r="T46" s="256"/>
-      <c r="U46" s="256"/>
-      <c r="V46" s="256"/>
-      <c r="W46" s="256"/>
-      <c r="X46" s="266"/>
-      <c r="Y46" s="329"/>
-      <c r="Z46" s="318"/>
-      <c r="AA46" s="318"/>
-      <c r="AB46" s="331"/>
-      <c r="AC46" s="266"/>
+      <c r="P46" s="275"/>
+      <c r="Q46" s="275"/>
+      <c r="R46" s="275"/>
+      <c r="S46" s="275"/>
+      <c r="T46" s="275"/>
+      <c r="U46" s="275"/>
+      <c r="V46" s="275"/>
+      <c r="W46" s="275"/>
+      <c r="X46" s="299"/>
+      <c r="Y46" s="281"/>
+      <c r="Z46" s="277"/>
+      <c r="AA46" s="277"/>
+      <c r="AB46" s="266"/>
+      <c r="AC46" s="299"/>
       <c r="AD46" s="113"/>
       <c r="AE46" s="51"/>
       <c r="AF46" s="51"/>
@@ -8795,49 +8804,49 @@
       <c r="AH46" s="115"/>
     </row>
     <row r="47" spans="1:34" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="245"/>
-      <c r="B47" s="171" t="s">
+      <c r="A47" s="304"/>
+      <c r="B47" s="169" t="s">
         <v>730</v>
       </c>
-      <c r="C47" s="204"/>
-      <c r="D47" s="256"/>
-      <c r="E47" s="206"/>
-      <c r="F47" s="256"/>
-      <c r="G47" s="256"/>
-      <c r="H47" s="126" t="s">
+      <c r="C47" s="202"/>
+      <c r="D47" s="275"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="275"/>
+      <c r="G47" s="275"/>
+      <c r="H47" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="I47" s="127" t="s">
+      <c r="I47" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="256"/>
-      <c r="K47" s="266"/>
-      <c r="L47" s="228" t="s">
+      <c r="J47" s="275"/>
+      <c r="K47" s="299"/>
+      <c r="L47" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="M47" s="134" t="s">
+      <c r="M47" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="N47" s="189" t="s">
+      <c r="N47" s="187" t="s">
         <v>244</v>
       </c>
-      <c r="O47" s="132" t="s">
+      <c r="O47" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="P47" s="256"/>
-      <c r="Q47" s="256"/>
-      <c r="R47" s="256"/>
-      <c r="S47" s="256"/>
-      <c r="T47" s="256"/>
-      <c r="U47" s="256"/>
-      <c r="V47" s="256"/>
-      <c r="W47" s="256"/>
-      <c r="X47" s="266"/>
-      <c r="Y47" s="329"/>
-      <c r="Z47" s="318"/>
-      <c r="AA47" s="318"/>
-      <c r="AB47" s="331"/>
-      <c r="AC47" s="266"/>
+      <c r="P47" s="275"/>
+      <c r="Q47" s="275"/>
+      <c r="R47" s="275"/>
+      <c r="S47" s="275"/>
+      <c r="T47" s="275"/>
+      <c r="U47" s="275"/>
+      <c r="V47" s="275"/>
+      <c r="W47" s="275"/>
+      <c r="X47" s="299"/>
+      <c r="Y47" s="281"/>
+      <c r="Z47" s="277"/>
+      <c r="AA47" s="277"/>
+      <c r="AB47" s="266"/>
+      <c r="AC47" s="299"/>
       <c r="AD47" s="113"/>
       <c r="AE47" s="51"/>
       <c r="AF47" s="51"/>
@@ -8845,49 +8854,49 @@
       <c r="AH47" s="115"/>
     </row>
     <row r="48" spans="1:34" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="245"/>
-      <c r="B48" s="171" t="s">
+      <c r="A48" s="304"/>
+      <c r="B48" s="169" t="s">
         <v>731</v>
       </c>
-      <c r="C48" s="204"/>
-      <c r="D48" s="256"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="256"/>
-      <c r="G48" s="256"/>
-      <c r="H48" s="127" t="s">
+      <c r="C48" s="202"/>
+      <c r="D48" s="275"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="275"/>
+      <c r="G48" s="275"/>
+      <c r="H48" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="I48" s="257" t="s">
+      <c r="I48" s="312" t="s">
         <v>812</v>
       </c>
-      <c r="J48" s="256"/>
-      <c r="K48" s="266"/>
-      <c r="L48" s="149" t="s">
+      <c r="J48" s="275"/>
+      <c r="K48" s="299"/>
+      <c r="L48" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="M48" s="134" t="s">
+      <c r="M48" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="N48" s="127" t="s">
+      <c r="N48" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="O48" s="190" t="s">
+      <c r="O48" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="P48" s="256"/>
-      <c r="Q48" s="256"/>
-      <c r="R48" s="256"/>
-      <c r="S48" s="256"/>
-      <c r="T48" s="256"/>
-      <c r="U48" s="256"/>
-      <c r="V48" s="256"/>
-      <c r="W48" s="256"/>
-      <c r="X48" s="266"/>
-      <c r="Y48" s="329"/>
-      <c r="Z48" s="318"/>
-      <c r="AA48" s="318"/>
-      <c r="AB48" s="331"/>
-      <c r="AC48" s="266"/>
+      <c r="P48" s="275"/>
+      <c r="Q48" s="275"/>
+      <c r="R48" s="275"/>
+      <c r="S48" s="275"/>
+      <c r="T48" s="275"/>
+      <c r="U48" s="275"/>
+      <c r="V48" s="275"/>
+      <c r="W48" s="275"/>
+      <c r="X48" s="299"/>
+      <c r="Y48" s="281"/>
+      <c r="Z48" s="277"/>
+      <c r="AA48" s="277"/>
+      <c r="AB48" s="266"/>
+      <c r="AC48" s="299"/>
       <c r="AD48" s="113"/>
       <c r="AE48" s="51"/>
       <c r="AF48" s="51"/>
@@ -8895,49 +8904,49 @@
       <c r="AH48" s="115"/>
     </row>
     <row r="49" spans="1:34" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="245"/>
-      <c r="B49" s="172" t="s">
+      <c r="A49" s="304"/>
+      <c r="B49" s="170" t="s">
         <v>732</v>
       </c>
-      <c r="C49" s="204"/>
-      <c r="D49" s="268"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="268"/>
-      <c r="G49" s="268"/>
-      <c r="H49" s="181" t="s">
+      <c r="C49" s="202"/>
+      <c r="D49" s="291"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="291"/>
+      <c r="G49" s="291"/>
+      <c r="H49" s="179" t="s">
         <v>127</v>
       </c>
-      <c r="I49" s="258"/>
-      <c r="J49" s="268"/>
-      <c r="K49" s="266"/>
-      <c r="L49" s="184" t="s">
+      <c r="I49" s="313"/>
+      <c r="J49" s="291"/>
+      <c r="K49" s="299"/>
+      <c r="L49" s="182" t="s">
         <v>195</v>
       </c>
-      <c r="M49" s="134" t="s">
+      <c r="M49" s="132" t="s">
         <v>220</v>
       </c>
-      <c r="N49" s="127" t="s">
+      <c r="N49" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="182" t="s">
+      <c r="O49" s="180" t="s">
         <v>747</v>
       </c>
-      <c r="P49" s="129" t="s">
+      <c r="P49" s="127" t="s">
         <v>746</v>
       </c>
-      <c r="Q49" s="268"/>
-      <c r="R49" s="268"/>
-      <c r="S49" s="268"/>
-      <c r="T49" s="268"/>
-      <c r="U49" s="268"/>
-      <c r="V49" s="268"/>
-      <c r="W49" s="268"/>
-      <c r="X49" s="266"/>
-      <c r="Y49" s="332"/>
-      <c r="Z49" s="319"/>
-      <c r="AA49" s="319"/>
-      <c r="AB49" s="334"/>
-      <c r="AC49" s="266"/>
+      <c r="Q49" s="291"/>
+      <c r="R49" s="291"/>
+      <c r="S49" s="291"/>
+      <c r="T49" s="291"/>
+      <c r="U49" s="291"/>
+      <c r="V49" s="291"/>
+      <c r="W49" s="291"/>
+      <c r="X49" s="299"/>
+      <c r="Y49" s="282"/>
+      <c r="Z49" s="278"/>
+      <c r="AA49" s="278"/>
+      <c r="AB49" s="267"/>
+      <c r="AC49" s="299"/>
       <c r="AD49" s="113"/>
       <c r="AE49" s="51"/>
       <c r="AF49" s="51"/>
@@ -8945,53 +8954,53 @@
       <c r="AH49" s="115"/>
     </row>
     <row r="50" spans="1:34" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="247" t="s">
-        <v>419</v>
-      </c>
-      <c r="B50" s="167" t="s">
+      <c r="A50" s="306" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B50" s="165" t="s">
         <v>724</v>
       </c>
-      <c r="C50" s="193"/>
-      <c r="D50" s="195"/>
-      <c r="E50" s="195"/>
-      <c r="F50" s="229"/>
-      <c r="G50" s="193"/>
-      <c r="H50" s="173" t="s">
+      <c r="C50" s="191"/>
+      <c r="D50" s="193"/>
+      <c r="E50" s="193"/>
+      <c r="F50" s="227"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="171" t="s">
         <v>898</v>
       </c>
-      <c r="I50" s="195"/>
-      <c r="J50" s="230"/>
-      <c r="K50" s="266"/>
-      <c r="L50" s="176" t="s">
+      <c r="I50" s="193"/>
+      <c r="J50" s="228"/>
+      <c r="K50" s="299"/>
+      <c r="L50" s="174" t="s">
         <v>902</v>
       </c>
-      <c r="M50" s="173" t="s">
+      <c r="M50" s="171" t="s">
         <v>857</v>
       </c>
-      <c r="N50" s="173" t="s">
+      <c r="N50" s="171" t="s">
         <v>907</v>
       </c>
-      <c r="O50" s="118" t="s">
+      <c r="O50" s="172" t="s">
         <v>910</v>
       </c>
-      <c r="P50" s="193"/>
-      <c r="Q50" s="195"/>
-      <c r="R50" s="195"/>
-      <c r="S50" s="229"/>
-      <c r="T50" s="193"/>
-      <c r="U50" s="195"/>
-      <c r="V50" s="195"/>
-      <c r="W50" s="230"/>
-      <c r="X50" s="266"/>
-      <c r="Y50" s="326"/>
-      <c r="Z50" s="327" t="s">
+      <c r="P50" s="191"/>
+      <c r="Q50" s="193"/>
+      <c r="R50" s="193"/>
+      <c r="S50" s="227"/>
+      <c r="T50" s="191"/>
+      <c r="U50" s="193"/>
+      <c r="V50" s="193"/>
+      <c r="W50" s="228"/>
+      <c r="X50" s="299"/>
+      <c r="Y50" s="280"/>
+      <c r="Z50" s="259" t="s">
         <v>923</v>
       </c>
-      <c r="AA50" s="327" t="s">
+      <c r="AA50" s="259" t="s">
         <v>924</v>
       </c>
-      <c r="AB50" s="328"/>
-      <c r="AC50" s="266"/>
+      <c r="AB50" s="265"/>
+      <c r="AC50" s="299"/>
       <c r="AD50" s="113"/>
       <c r="AE50" s="51"/>
       <c r="AF50" s="51"/>
@@ -8999,47 +9008,47 @@
       <c r="AH50" s="115"/>
     </row>
     <row r="51" spans="1:34" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="246"/>
-      <c r="B51" s="168" t="s">
+      <c r="A51" s="305"/>
+      <c r="B51" s="166" t="s">
         <v>725</v>
       </c>
-      <c r="C51" s="204"/>
-      <c r="D51" s="206"/>
-      <c r="E51" s="206"/>
-      <c r="F51" s="226"/>
-      <c r="G51" s="204"/>
-      <c r="H51" s="119" t="s">
+      <c r="C51" s="202"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="224"/>
+      <c r="G51" s="202"/>
+      <c r="H51" s="175" t="s">
         <v>129</v>
       </c>
-      <c r="I51" s="206"/>
-      <c r="J51" s="227"/>
-      <c r="K51" s="266"/>
-      <c r="L51" s="180" t="s">
+      <c r="I51" s="204"/>
+      <c r="J51" s="225"/>
+      <c r="K51" s="299"/>
+      <c r="L51" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="M51" s="177" t="s">
+      <c r="M51" s="175" t="s">
         <v>204</v>
       </c>
-      <c r="N51" s="177" t="s">
+      <c r="N51" s="175" t="s">
         <v>246</v>
       </c>
-      <c r="O51" s="178" t="s">
+      <c r="O51" s="176" t="s">
         <v>256</v>
       </c>
-      <c r="P51" s="204"/>
-      <c r="Q51" s="206"/>
-      <c r="R51" s="206"/>
-      <c r="S51" s="226"/>
-      <c r="T51" s="204"/>
-      <c r="U51" s="206"/>
-      <c r="V51" s="206"/>
-      <c r="W51" s="227"/>
-      <c r="X51" s="266"/>
-      <c r="Y51" s="329"/>
-      <c r="Z51" s="330"/>
-      <c r="AA51" s="330"/>
-      <c r="AB51" s="331"/>
-      <c r="AC51" s="266"/>
+      <c r="P51" s="202"/>
+      <c r="Q51" s="204"/>
+      <c r="R51" s="204"/>
+      <c r="S51" s="224"/>
+      <c r="T51" s="202"/>
+      <c r="U51" s="204"/>
+      <c r="V51" s="204"/>
+      <c r="W51" s="225"/>
+      <c r="X51" s="299"/>
+      <c r="Y51" s="281"/>
+      <c r="Z51" s="260"/>
+      <c r="AA51" s="260"/>
+      <c r="AB51" s="266"/>
+      <c r="AC51" s="299"/>
       <c r="AD51" s="113"/>
       <c r="AE51" s="51"/>
       <c r="AF51" s="51"/>
@@ -9047,47 +9056,47 @@
       <c r="AH51" s="115"/>
     </row>
     <row r="52" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="245"/>
-      <c r="B52" s="169" t="s">
+      <c r="A52" s="304"/>
+      <c r="B52" s="167" t="s">
         <v>726</v>
       </c>
-      <c r="C52" s="204"/>
-      <c r="D52" s="206"/>
-      <c r="E52" s="206"/>
-      <c r="F52" s="226"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="181" t="s">
+      <c r="C52" s="202"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="224"/>
+      <c r="G52" s="202"/>
+      <c r="H52" s="179" t="s">
         <v>130</v>
       </c>
-      <c r="I52" s="206"/>
-      <c r="J52" s="227"/>
-      <c r="K52" s="266"/>
-      <c r="L52" s="184" t="s">
+      <c r="I52" s="204"/>
+      <c r="J52" s="225"/>
+      <c r="K52" s="299"/>
+      <c r="L52" s="182" t="s">
         <v>198</v>
       </c>
-      <c r="M52" s="181" t="s">
+      <c r="M52" s="179" t="s">
         <v>221</v>
       </c>
-      <c r="N52" s="181" t="s">
+      <c r="N52" s="179" t="s">
         <v>230</v>
       </c>
-      <c r="O52" s="182" t="s">
+      <c r="O52" s="180" t="s">
         <v>270</v>
       </c>
-      <c r="P52" s="204"/>
-      <c r="Q52" s="206"/>
-      <c r="R52" s="206"/>
-      <c r="S52" s="226"/>
-      <c r="T52" s="204"/>
-      <c r="U52" s="206"/>
-      <c r="V52" s="206"/>
-      <c r="W52" s="227"/>
-      <c r="X52" s="266"/>
-      <c r="Y52" s="329"/>
-      <c r="Z52" s="330"/>
-      <c r="AA52" s="330"/>
-      <c r="AB52" s="331"/>
-      <c r="AC52" s="266"/>
+      <c r="P52" s="202"/>
+      <c r="Q52" s="204"/>
+      <c r="R52" s="204"/>
+      <c r="S52" s="224"/>
+      <c r="T52" s="202"/>
+      <c r="U52" s="204"/>
+      <c r="V52" s="204"/>
+      <c r="W52" s="225"/>
+      <c r="X52" s="299"/>
+      <c r="Y52" s="281"/>
+      <c r="Z52" s="260"/>
+      <c r="AA52" s="260"/>
+      <c r="AB52" s="266"/>
+      <c r="AC52" s="299"/>
       <c r="AD52" s="113"/>
       <c r="AE52" s="51"/>
       <c r="AF52" s="51"/>
@@ -9095,47 +9104,47 @@
       <c r="AH52" s="115"/>
     </row>
     <row r="53" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="245"/>
-      <c r="B53" s="170" t="s">
+      <c r="A53" s="304"/>
+      <c r="B53" s="168" t="s">
         <v>727</v>
       </c>
-      <c r="C53" s="204"/>
-      <c r="D53" s="206"/>
-      <c r="E53" s="206"/>
-      <c r="F53" s="226"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="185" t="s">
+      <c r="C53" s="202"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="224"/>
+      <c r="G53" s="202"/>
+      <c r="H53" s="183" t="s">
         <v>899</v>
       </c>
-      <c r="I53" s="206"/>
-      <c r="J53" s="227"/>
-      <c r="K53" s="266"/>
-      <c r="L53" s="188" t="s">
+      <c r="I53" s="204"/>
+      <c r="J53" s="225"/>
+      <c r="K53" s="299"/>
+      <c r="L53" s="186" t="s">
         <v>903</v>
       </c>
-      <c r="M53" s="185" t="s">
+      <c r="M53" s="183" t="s">
         <v>905</v>
       </c>
-      <c r="N53" s="185" t="s">
+      <c r="N53" s="183" t="s">
         <v>908</v>
       </c>
-      <c r="O53" s="186" t="s">
+      <c r="O53" s="184" t="s">
         <v>911</v>
       </c>
-      <c r="P53" s="204"/>
-      <c r="Q53" s="206"/>
-      <c r="R53" s="206"/>
-      <c r="S53" s="226"/>
-      <c r="T53" s="204"/>
-      <c r="U53" s="206"/>
-      <c r="V53" s="206"/>
-      <c r="W53" s="227"/>
-      <c r="X53" s="266"/>
-      <c r="Y53" s="329"/>
-      <c r="Z53" s="330"/>
-      <c r="AA53" s="330"/>
-      <c r="AB53" s="331"/>
-      <c r="AC53" s="266"/>
+      <c r="P53" s="202"/>
+      <c r="Q53" s="204"/>
+      <c r="R53" s="204"/>
+      <c r="S53" s="224"/>
+      <c r="T53" s="202"/>
+      <c r="U53" s="204"/>
+      <c r="V53" s="204"/>
+      <c r="W53" s="225"/>
+      <c r="X53" s="299"/>
+      <c r="Y53" s="281"/>
+      <c r="Z53" s="260"/>
+      <c r="AA53" s="260"/>
+      <c r="AB53" s="266"/>
+      <c r="AC53" s="299"/>
       <c r="AD53" s="113"/>
       <c r="AE53" s="51"/>
       <c r="AF53" s="51"/>
@@ -9143,47 +9152,47 @@
       <c r="AH53" s="115"/>
     </row>
     <row r="54" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="246"/>
-      <c r="B54" s="168" t="s">
+      <c r="A54" s="305"/>
+      <c r="B54" s="166" t="s">
         <v>728</v>
       </c>
-      <c r="C54" s="204"/>
-      <c r="D54" s="206"/>
-      <c r="E54" s="206"/>
-      <c r="F54" s="226"/>
-      <c r="G54" s="204"/>
-      <c r="H54" s="177" t="s">
+      <c r="C54" s="202"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="204"/>
+      <c r="F54" s="224"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="I54" s="206"/>
-      <c r="J54" s="227"/>
-      <c r="K54" s="266"/>
-      <c r="L54" s="180" t="s">
+      <c r="I54" s="204"/>
+      <c r="J54" s="225"/>
+      <c r="K54" s="299"/>
+      <c r="L54" s="178" t="s">
         <v>184</v>
       </c>
-      <c r="M54" s="177" t="s">
+      <c r="M54" s="175" t="s">
         <v>223</v>
       </c>
-      <c r="N54" s="177" t="s">
+      <c r="N54" s="175" t="s">
         <v>248</v>
       </c>
-      <c r="O54" s="178" t="s">
+      <c r="O54" s="176" t="s">
         <v>259</v>
       </c>
-      <c r="P54" s="204"/>
-      <c r="Q54" s="206"/>
-      <c r="R54" s="206"/>
-      <c r="S54" s="226"/>
-      <c r="T54" s="204"/>
-      <c r="U54" s="206"/>
-      <c r="V54" s="206"/>
-      <c r="W54" s="227"/>
-      <c r="X54" s="266"/>
-      <c r="Y54" s="329"/>
-      <c r="Z54" s="330"/>
-      <c r="AA54" s="330"/>
-      <c r="AB54" s="331"/>
-      <c r="AC54" s="266"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="204"/>
+      <c r="R54" s="204"/>
+      <c r="S54" s="224"/>
+      <c r="T54" s="202"/>
+      <c r="U54" s="204"/>
+      <c r="V54" s="204"/>
+      <c r="W54" s="225"/>
+      <c r="X54" s="299"/>
+      <c r="Y54" s="281"/>
+      <c r="Z54" s="260"/>
+      <c r="AA54" s="260"/>
+      <c r="AB54" s="266"/>
+      <c r="AC54" s="299"/>
       <c r="AD54" s="113"/>
       <c r="AE54" s="51"/>
       <c r="AF54" s="51"/>
@@ -9191,47 +9200,47 @@
       <c r="AH54" s="115"/>
     </row>
     <row r="55" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="245"/>
-      <c r="B55" s="169" t="s">
+      <c r="A55" s="304"/>
+      <c r="B55" s="167" t="s">
         <v>729</v>
       </c>
-      <c r="C55" s="204"/>
-      <c r="D55" s="206"/>
-      <c r="E55" s="206"/>
-      <c r="F55" s="226"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="181" t="s">
+      <c r="C55" s="202"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="224"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="179" t="s">
         <v>900</v>
       </c>
-      <c r="I55" s="206"/>
-      <c r="J55" s="227"/>
-      <c r="K55" s="266"/>
-      <c r="L55" s="184" t="s">
+      <c r="I55" s="204"/>
+      <c r="J55" s="225"/>
+      <c r="K55" s="299"/>
+      <c r="L55" s="182" t="s">
         <v>904</v>
       </c>
-      <c r="M55" s="181" t="s">
+      <c r="M55" s="179" t="s">
         <v>906</v>
       </c>
-      <c r="N55" s="181" t="s">
+      <c r="N55" s="179" t="s">
         <v>909</v>
       </c>
-      <c r="O55" s="182" t="s">
+      <c r="O55" s="180" t="s">
         <v>912</v>
       </c>
-      <c r="P55" s="204"/>
-      <c r="Q55" s="206"/>
-      <c r="R55" s="206"/>
-      <c r="S55" s="226"/>
-      <c r="T55" s="204"/>
-      <c r="U55" s="206"/>
-      <c r="V55" s="206"/>
-      <c r="W55" s="227"/>
-      <c r="X55" s="266"/>
-      <c r="Y55" s="329"/>
-      <c r="Z55" s="330"/>
-      <c r="AA55" s="330"/>
-      <c r="AB55" s="331"/>
-      <c r="AC55" s="266"/>
+      <c r="P55" s="202"/>
+      <c r="Q55" s="204"/>
+      <c r="R55" s="204"/>
+      <c r="S55" s="224"/>
+      <c r="T55" s="202"/>
+      <c r="U55" s="204"/>
+      <c r="V55" s="204"/>
+      <c r="W55" s="225"/>
+      <c r="X55" s="299"/>
+      <c r="Y55" s="281"/>
+      <c r="Z55" s="260"/>
+      <c r="AA55" s="260"/>
+      <c r="AB55" s="266"/>
+      <c r="AC55" s="299"/>
       <c r="AD55" s="113"/>
       <c r="AE55" s="51"/>
       <c r="AF55" s="51"/>
@@ -9239,45 +9248,45 @@
       <c r="AH55" s="115"/>
     </row>
     <row r="56" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="245"/>
-      <c r="B56" s="171" t="s">
+      <c r="A56" s="304"/>
+      <c r="B56" s="169" t="s">
         <v>730</v>
       </c>
-      <c r="C56" s="204"/>
-      <c r="D56" s="206"/>
-      <c r="E56" s="206"/>
-      <c r="F56" s="226"/>
-      <c r="G56" s="204"/>
-      <c r="H56" s="189" t="s">
+      <c r="C56" s="202"/>
+      <c r="D56" s="204"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="224"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="187" t="s">
         <v>901</v>
       </c>
-      <c r="I56" s="189" t="s">
+      <c r="I56" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="J56" s="227"/>
-      <c r="K56" s="266"/>
-      <c r="L56" s="231"/>
-      <c r="M56" s="206"/>
-      <c r="N56" s="189" t="s">
+      <c r="J56" s="225"/>
+      <c r="K56" s="299"/>
+      <c r="L56" s="229"/>
+      <c r="M56" s="204"/>
+      <c r="N56" s="187" t="s">
         <v>863</v>
       </c>
-      <c r="O56" s="190" t="s">
+      <c r="O56" s="188" t="s">
         <v>913</v>
       </c>
-      <c r="P56" s="204"/>
-      <c r="Q56" s="206"/>
-      <c r="R56" s="206"/>
-      <c r="S56" s="226"/>
-      <c r="T56" s="204"/>
-      <c r="U56" s="206"/>
-      <c r="V56" s="206"/>
-      <c r="W56" s="227"/>
-      <c r="X56" s="266"/>
-      <c r="Y56" s="329"/>
-      <c r="Z56" s="330"/>
-      <c r="AA56" s="330"/>
-      <c r="AB56" s="331"/>
-      <c r="AC56" s="266"/>
+      <c r="P56" s="202"/>
+      <c r="Q56" s="204"/>
+      <c r="R56" s="204"/>
+      <c r="S56" s="224"/>
+      <c r="T56" s="202"/>
+      <c r="U56" s="204"/>
+      <c r="V56" s="204"/>
+      <c r="W56" s="225"/>
+      <c r="X56" s="299"/>
+      <c r="Y56" s="281"/>
+      <c r="Z56" s="260"/>
+      <c r="AA56" s="260"/>
+      <c r="AB56" s="266"/>
+      <c r="AC56" s="299"/>
       <c r="AD56" s="113"/>
       <c r="AE56" s="51"/>
       <c r="AF56" s="51"/>
@@ -9285,47 +9294,47 @@
       <c r="AH56" s="115"/>
     </row>
     <row r="57" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="245"/>
-      <c r="B57" s="171" t="s">
+      <c r="A57" s="304"/>
+      <c r="B57" s="169" t="s">
         <v>731</v>
       </c>
-      <c r="C57" s="204"/>
-      <c r="D57" s="206"/>
-      <c r="E57" s="206"/>
-      <c r="F57" s="226"/>
-      <c r="G57" s="204"/>
-      <c r="H57" s="189" t="s">
+      <c r="C57" s="202"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="224"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="I57" s="206"/>
-      <c r="J57" s="227"/>
-      <c r="K57" s="266"/>
-      <c r="L57" s="192" t="s">
+      <c r="I57" s="204"/>
+      <c r="J57" s="225"/>
+      <c r="K57" s="299"/>
+      <c r="L57" s="190" t="s">
         <v>201</v>
       </c>
-      <c r="M57" s="189" t="s">
+      <c r="M57" s="187" t="s">
         <v>225</v>
       </c>
-      <c r="N57" s="189" t="s">
+      <c r="N57" s="187" t="s">
         <v>250</v>
       </c>
-      <c r="O57" s="190" t="s">
+      <c r="O57" s="188" t="s">
         <v>262</v>
       </c>
-      <c r="P57" s="204"/>
-      <c r="Q57" s="206"/>
-      <c r="R57" s="206"/>
-      <c r="S57" s="226"/>
-      <c r="T57" s="204"/>
-      <c r="U57" s="206"/>
-      <c r="V57" s="206"/>
-      <c r="W57" s="227"/>
-      <c r="X57" s="266"/>
-      <c r="Y57" s="329"/>
-      <c r="Z57" s="330"/>
-      <c r="AA57" s="330"/>
-      <c r="AB57" s="331"/>
-      <c r="AC57" s="266"/>
+      <c r="P57" s="202"/>
+      <c r="Q57" s="204"/>
+      <c r="R57" s="204"/>
+      <c r="S57" s="224"/>
+      <c r="T57" s="202"/>
+      <c r="U57" s="204"/>
+      <c r="V57" s="204"/>
+      <c r="W57" s="225"/>
+      <c r="X57" s="299"/>
+      <c r="Y57" s="281"/>
+      <c r="Z57" s="260"/>
+      <c r="AA57" s="260"/>
+      <c r="AB57" s="266"/>
+      <c r="AC57" s="299"/>
       <c r="AD57" s="113"/>
       <c r="AE57" s="51"/>
       <c r="AF57" s="51"/>
@@ -9333,49 +9342,49 @@
       <c r="AH57" s="115"/>
     </row>
     <row r="58" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="248"/>
-      <c r="B58" s="172" t="s">
+      <c r="A58" s="307"/>
+      <c r="B58" s="170" t="s">
         <v>732</v>
       </c>
-      <c r="C58" s="215"/>
-      <c r="D58" s="206"/>
-      <c r="E58" s="217"/>
-      <c r="F58" s="232"/>
-      <c r="G58" s="215"/>
-      <c r="H58" s="233" t="s">
+      <c r="C58" s="213"/>
+      <c r="D58" s="204"/>
+      <c r="E58" s="215"/>
+      <c r="F58" s="230"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="231" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="217"/>
-      <c r="J58" s="234"/>
-      <c r="K58" s="266"/>
-      <c r="L58" s="235" t="s">
+      <c r="I58" s="215"/>
+      <c r="J58" s="232"/>
+      <c r="K58" s="299"/>
+      <c r="L58" s="233" t="s">
         <v>188</v>
       </c>
-      <c r="M58" s="233" t="s">
+      <c r="M58" s="231" t="s">
         <v>226</v>
       </c>
-      <c r="N58" s="233" t="s">
+      <c r="N58" s="231" t="s">
         <v>251</v>
       </c>
-      <c r="O58" s="236" t="s">
+      <c r="O58" s="234" t="s">
         <v>263</v>
       </c>
-      <c r="P58" s="172" t="s">
+      <c r="P58" s="170" t="s">
         <v>292</v>
       </c>
-      <c r="Q58" s="217"/>
-      <c r="R58" s="217"/>
-      <c r="S58" s="232"/>
-      <c r="T58" s="215"/>
-      <c r="U58" s="217"/>
-      <c r="V58" s="217"/>
-      <c r="W58" s="234"/>
-      <c r="X58" s="266"/>
-      <c r="Y58" s="332"/>
-      <c r="Z58" s="333"/>
-      <c r="AA58" s="333"/>
-      <c r="AB58" s="334"/>
-      <c r="AC58" s="266"/>
+      <c r="Q58" s="215"/>
+      <c r="R58" s="215"/>
+      <c r="S58" s="230"/>
+      <c r="T58" s="213"/>
+      <c r="U58" s="215"/>
+      <c r="V58" s="215"/>
+      <c r="W58" s="232"/>
+      <c r="X58" s="299"/>
+      <c r="Y58" s="282"/>
+      <c r="Z58" s="261"/>
+      <c r="AA58" s="261"/>
+      <c r="AB58" s="267"/>
+      <c r="AC58" s="299"/>
       <c r="AD58" s="113" t="s">
         <v>430</v>
       </c>
@@ -9393,83 +9402,83 @@
       </c>
     </row>
     <row r="59" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="245" t="s">
+      <c r="A59" s="304" t="s">
         <v>420</v>
       </c>
-      <c r="B59" s="167" t="s">
+      <c r="B59" s="165" t="s">
         <v>724</v>
       </c>
-      <c r="C59" s="204"/>
-      <c r="D59" s="126" t="s">
+      <c r="C59" s="202"/>
+      <c r="D59" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="E59" s="206"/>
-      <c r="F59" s="128" t="s">
+      <c r="E59" s="204"/>
+      <c r="F59" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="G59" s="131" t="s">
+      <c r="G59" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="H59" s="127" t="s">
+      <c r="H59" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="I59" s="127" t="s">
+      <c r="I59" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="J59" s="133" t="s">
+      <c r="J59" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="K59" s="266"/>
-      <c r="L59" s="148" t="s">
+      <c r="K59" s="299"/>
+      <c r="L59" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="M59" s="127" t="s">
+      <c r="M59" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="N59" s="134" t="s">
+      <c r="N59" s="132" t="s">
         <v>815</v>
       </c>
-      <c r="O59" s="128" t="s">
+      <c r="O59" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="P59" s="136" t="s">
+      <c r="P59" s="134" t="s">
         <v>815</v>
       </c>
-      <c r="Q59" s="127" t="s">
+      <c r="Q59" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="R59" s="127" t="s">
+      <c r="R59" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="S59" s="128" t="s">
+      <c r="S59" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="T59" s="131" t="s">
+      <c r="T59" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="U59" s="134" t="s">
+      <c r="U59" s="132" t="s">
         <v>815</v>
       </c>
-      <c r="V59" s="127" t="s">
+      <c r="V59" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="W59" s="133" t="s">
+      <c r="W59" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="X59" s="266"/>
-      <c r="Y59" s="320" t="s">
+      <c r="X59" s="299"/>
+      <c r="Y59" s="283" t="s">
         <v>813</v>
       </c>
-      <c r="Z59" s="318" t="s">
+      <c r="Z59" s="277" t="s">
         <v>813</v>
       </c>
-      <c r="AA59" s="317" t="s">
+      <c r="AA59" s="276" t="s">
         <v>813</v>
       </c>
-      <c r="AB59" s="323" t="s">
+      <c r="AB59" s="271" t="s">
         <v>922</v>
       </c>
-      <c r="AC59" s="266"/>
+      <c r="AC59" s="299"/>
       <c r="AD59" s="113">
         <f>COUNTIF(C59:W59, "*No*") - COUNTIF(C59:W59,"*know*")</f>
         <v>14</v>
@@ -9492,73 +9501,73 @@
       </c>
     </row>
     <row r="60" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="246"/>
-      <c r="B60" s="168" t="s">
+      <c r="A60" s="305"/>
+      <c r="B60" s="166" t="s">
         <v>725</v>
       </c>
-      <c r="C60" s="204"/>
-      <c r="D60" s="127" t="s">
+      <c r="C60" s="202"/>
+      <c r="D60" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="E60" s="206"/>
-      <c r="F60" s="128" t="s">
+      <c r="E60" s="204"/>
+      <c r="F60" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="G60" s="131" t="s">
+      <c r="G60" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="H60" s="127" t="s">
+      <c r="H60" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="I60" s="127" t="s">
+      <c r="I60" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="J60" s="133" t="s">
+      <c r="J60" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="K60" s="266"/>
-      <c r="L60" s="148" t="s">
+      <c r="K60" s="299"/>
+      <c r="L60" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="M60" s="134" t="s">
+      <c r="M60" s="132" t="s">
         <v>815</v>
       </c>
-      <c r="N60" s="127" t="s">
+      <c r="N60" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="O60" s="128" t="s">
+      <c r="O60" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="P60" s="131" t="s">
+      <c r="P60" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="Q60" s="127" t="s">
+      <c r="Q60" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="R60" s="126" t="s">
+      <c r="R60" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="S60" s="132" t="s">
+      <c r="S60" s="130" t="s">
         <v>814</v>
       </c>
-      <c r="T60" s="131" t="s">
+      <c r="T60" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="U60" s="127" t="s">
+      <c r="U60" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="V60" s="127" t="s">
+      <c r="V60" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="W60" s="133" t="s">
+      <c r="W60" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="X60" s="266"/>
-      <c r="Y60" s="320"/>
-      <c r="Z60" s="318"/>
-      <c r="AA60" s="318"/>
-      <c r="AB60" s="324"/>
-      <c r="AC60" s="266"/>
+      <c r="X60" s="299"/>
+      <c r="Y60" s="283"/>
+      <c r="Z60" s="277"/>
+      <c r="AA60" s="277"/>
+      <c r="AB60" s="272"/>
+      <c r="AC60" s="299"/>
       <c r="AD60" s="113">
         <f t="shared" ref="AD60:AD67" si="6">COUNTIF(C60:W60, "*No*") - COUNTIF(C60:W60,"*know*")</f>
         <v>15</v>
@@ -9581,73 +9590,73 @@
       </c>
     </row>
     <row r="61" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="245"/>
-      <c r="B61" s="169" t="s">
+      <c r="A61" s="304"/>
+      <c r="B61" s="167" t="s">
         <v>726</v>
       </c>
-      <c r="C61" s="204"/>
-      <c r="D61" s="127" t="s">
+      <c r="C61" s="202"/>
+      <c r="D61" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="E61" s="206"/>
-      <c r="F61" s="128" t="s">
+      <c r="E61" s="204"/>
+      <c r="F61" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="G61" s="131" t="s">
+      <c r="G61" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="H61" s="127" t="s">
+      <c r="H61" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="I61" s="127" t="s">
+      <c r="I61" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="J61" s="133" t="s">
+      <c r="J61" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="K61" s="266"/>
-      <c r="L61" s="148" t="s">
+      <c r="K61" s="299"/>
+      <c r="L61" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="M61" s="127" t="s">
+      <c r="M61" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="N61" s="127" t="s">
+      <c r="N61" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="O61" s="128" t="s">
+      <c r="O61" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="P61" s="131" t="s">
+      <c r="P61" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="Q61" s="127" t="s">
+      <c r="Q61" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="R61" s="126" t="s">
+      <c r="R61" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="S61" s="128" t="s">
+      <c r="S61" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="T61" s="131" t="s">
+      <c r="T61" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="U61" s="127" t="s">
+      <c r="U61" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="V61" s="127" t="s">
+      <c r="V61" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="W61" s="133" t="s">
+      <c r="W61" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="X61" s="266"/>
-      <c r="Y61" s="320"/>
-      <c r="Z61" s="318"/>
-      <c r="AA61" s="318"/>
-      <c r="AB61" s="324"/>
-      <c r="AC61" s="266"/>
+      <c r="X61" s="299"/>
+      <c r="Y61" s="283"/>
+      <c r="Z61" s="277"/>
+      <c r="AA61" s="277"/>
+      <c r="AB61" s="272"/>
+      <c r="AC61" s="299"/>
       <c r="AD61" s="113">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -9670,73 +9679,73 @@
       </c>
     </row>
     <row r="62" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="245"/>
-      <c r="B62" s="170" t="s">
+      <c r="A62" s="304"/>
+      <c r="B62" s="168" t="s">
         <v>727</v>
       </c>
-      <c r="C62" s="204"/>
-      <c r="D62" s="127" t="s">
+      <c r="C62" s="202"/>
+      <c r="D62" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="E62" s="206"/>
-      <c r="F62" s="128" t="s">
+      <c r="E62" s="204"/>
+      <c r="F62" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="G62" s="131" t="s">
+      <c r="G62" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="H62" s="127" t="s">
+      <c r="H62" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="I62" s="127" t="s">
+      <c r="I62" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="J62" s="130" t="s">
+      <c r="J62" s="128" t="s">
         <v>814</v>
       </c>
-      <c r="K62" s="266"/>
-      <c r="L62" s="148" t="s">
+      <c r="K62" s="299"/>
+      <c r="L62" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="M62" s="127" t="s">
+      <c r="M62" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="N62" s="126" t="s">
+      <c r="N62" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="O62" s="135" t="s">
+      <c r="O62" s="133" t="s">
         <v>815</v>
       </c>
-      <c r="P62" s="131" t="s">
+      <c r="P62" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="Q62" s="126" t="s">
+      <c r="Q62" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="R62" s="127" t="s">
+      <c r="R62" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="S62" s="128" t="s">
+      <c r="S62" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="T62" s="136" t="s">
+      <c r="T62" s="134" t="s">
         <v>815</v>
       </c>
-      <c r="U62" s="127" t="s">
+      <c r="U62" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="V62" s="127" t="s">
+      <c r="V62" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="W62" s="133" t="s">
+      <c r="W62" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="X62" s="266"/>
-      <c r="Y62" s="320"/>
-      <c r="Z62" s="318"/>
-      <c r="AA62" s="318"/>
-      <c r="AB62" s="324"/>
-      <c r="AC62" s="266"/>
+      <c r="X62" s="299"/>
+      <c r="Y62" s="283"/>
+      <c r="Z62" s="277"/>
+      <c r="AA62" s="277"/>
+      <c r="AB62" s="272"/>
+      <c r="AC62" s="299"/>
       <c r="AD62" s="113">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -9759,73 +9768,73 @@
       </c>
     </row>
     <row r="63" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="246"/>
-      <c r="B63" s="168" t="s">
+      <c r="A63" s="305"/>
+      <c r="B63" s="166" t="s">
         <v>728</v>
       </c>
-      <c r="C63" s="204"/>
-      <c r="D63" s="127" t="s">
+      <c r="C63" s="202"/>
+      <c r="D63" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="E63" s="206"/>
-      <c r="F63" s="128" t="s">
+      <c r="E63" s="204"/>
+      <c r="F63" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="G63" s="131" t="s">
+      <c r="G63" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="H63" s="126" t="s">
+      <c r="H63" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="I63" s="127" t="s">
+      <c r="I63" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="J63" s="133" t="s">
+      <c r="J63" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="K63" s="266"/>
-      <c r="L63" s="148" t="s">
+      <c r="K63" s="299"/>
+      <c r="L63" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="M63" s="127" t="s">
+      <c r="M63" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="N63" s="126" t="s">
+      <c r="N63" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="O63" s="128" t="s">
+      <c r="O63" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="P63" s="131" t="s">
+      <c r="P63" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="Q63" s="127" t="s">
+      <c r="Q63" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="R63" s="127" t="s">
+      <c r="R63" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="S63" s="128" t="s">
+      <c r="S63" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="T63" s="131" t="s">
+      <c r="T63" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="U63" s="127" t="s">
+      <c r="U63" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="V63" s="127" t="s">
+      <c r="V63" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="W63" s="133" t="s">
+      <c r="W63" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="X63" s="266"/>
-      <c r="Y63" s="320"/>
-      <c r="Z63" s="318"/>
-      <c r="AA63" s="318"/>
-      <c r="AB63" s="324"/>
-      <c r="AC63" s="266"/>
+      <c r="X63" s="299"/>
+      <c r="Y63" s="283"/>
+      <c r="Z63" s="277"/>
+      <c r="AA63" s="277"/>
+      <c r="AB63" s="272"/>
+      <c r="AC63" s="299"/>
       <c r="AD63" s="113">
         <f t="shared" si="6"/>
         <v>16</v>
@@ -9848,73 +9857,73 @@
       </c>
     </row>
     <row r="64" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="245"/>
-      <c r="B64" s="169" t="s">
+      <c r="A64" s="304"/>
+      <c r="B64" s="167" t="s">
         <v>729</v>
       </c>
-      <c r="C64" s="204"/>
-      <c r="D64" s="127" t="s">
+      <c r="C64" s="202"/>
+      <c r="D64" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="E64" s="206"/>
-      <c r="F64" s="128" t="s">
+      <c r="E64" s="204"/>
+      <c r="F64" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="G64" s="131" t="s">
+      <c r="G64" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="H64" s="127" t="s">
+      <c r="H64" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="I64" s="126" t="s">
+      <c r="I64" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="J64" s="133" t="s">
+      <c r="J64" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="K64" s="266"/>
-      <c r="L64" s="148" t="s">
+      <c r="K64" s="299"/>
+      <c r="L64" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="M64" s="127" t="s">
+      <c r="M64" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="N64" s="127" t="s">
+      <c r="N64" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="O64" s="128" t="s">
+      <c r="O64" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="P64" s="131" t="s">
+      <c r="P64" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="Q64" s="127" t="s">
+      <c r="Q64" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="R64" s="127" t="s">
+      <c r="R64" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="S64" s="128" t="s">
+      <c r="S64" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="T64" s="131" t="s">
+      <c r="T64" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="U64" s="127" t="s">
+      <c r="U64" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="V64" s="127" t="s">
+      <c r="V64" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="W64" s="133" t="s">
+      <c r="W64" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="X64" s="266"/>
-      <c r="Y64" s="320"/>
-      <c r="Z64" s="318"/>
-      <c r="AA64" s="318"/>
-      <c r="AB64" s="324"/>
-      <c r="AC64" s="266"/>
+      <c r="X64" s="299"/>
+      <c r="Y64" s="283"/>
+      <c r="Z64" s="277"/>
+      <c r="AA64" s="277"/>
+      <c r="AB64" s="272"/>
+      <c r="AC64" s="299"/>
       <c r="AD64" s="113">
         <f t="shared" si="6"/>
         <v>17</v>
@@ -9937,73 +9946,73 @@
       </c>
     </row>
     <row r="65" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="245"/>
-      <c r="B65" s="171" t="s">
+      <c r="A65" s="304"/>
+      <c r="B65" s="169" t="s">
         <v>730</v>
       </c>
-      <c r="C65" s="204"/>
-      <c r="D65" s="126" t="s">
+      <c r="C65" s="202"/>
+      <c r="D65" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="E65" s="206"/>
-      <c r="F65" s="132" t="s">
+      <c r="E65" s="204"/>
+      <c r="F65" s="130" t="s">
         <v>814</v>
       </c>
-      <c r="G65" s="131" t="s">
+      <c r="G65" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="H65" s="127" t="s">
+      <c r="H65" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="I65" s="127" t="s">
+      <c r="I65" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="J65" s="133" t="s">
+      <c r="J65" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="K65" s="266"/>
-      <c r="L65" s="228" t="s">
+      <c r="K65" s="299"/>
+      <c r="L65" s="226" t="s">
         <v>815</v>
       </c>
-      <c r="M65" s="127" t="s">
+      <c r="M65" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="N65" s="127" t="s">
+      <c r="N65" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="O65" s="128" t="s">
+      <c r="O65" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="P65" s="131" t="s">
+      <c r="P65" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="Q65" s="127" t="s">
+      <c r="Q65" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="R65" s="127" t="s">
+      <c r="R65" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="S65" s="132" t="s">
+      <c r="S65" s="130" t="s">
         <v>814</v>
       </c>
-      <c r="T65" s="136" t="s">
+      <c r="T65" s="134" t="s">
         <v>815</v>
       </c>
-      <c r="U65" s="127" t="s">
+      <c r="U65" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="V65" s="127" t="s">
+      <c r="V65" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="W65" s="133" t="s">
+      <c r="W65" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="X65" s="266"/>
-      <c r="Y65" s="320"/>
-      <c r="Z65" s="318"/>
-      <c r="AA65" s="318"/>
-      <c r="AB65" s="324"/>
-      <c r="AC65" s="266"/>
+      <c r="X65" s="299"/>
+      <c r="Y65" s="283"/>
+      <c r="Z65" s="277"/>
+      <c r="AA65" s="277"/>
+      <c r="AB65" s="272"/>
+      <c r="AC65" s="299"/>
       <c r="AD65" s="113">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -10026,73 +10035,73 @@
       </c>
     </row>
     <row r="66" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="245"/>
-      <c r="B66" s="171" t="s">
+      <c r="A66" s="304"/>
+      <c r="B66" s="169" t="s">
         <v>731</v>
       </c>
-      <c r="C66" s="204"/>
-      <c r="D66" s="127" t="s">
+      <c r="C66" s="202"/>
+      <c r="D66" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="E66" s="206"/>
-      <c r="F66" s="132" t="s">
+      <c r="E66" s="204"/>
+      <c r="F66" s="130" t="s">
         <v>814</v>
       </c>
-      <c r="G66" s="131" t="s">
+      <c r="G66" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="H66" s="127" t="s">
+      <c r="H66" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="I66" s="126" t="s">
+      <c r="I66" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="J66" s="137" t="s">
+      <c r="J66" s="135" t="s">
         <v>815</v>
       </c>
-      <c r="K66" s="266"/>
-      <c r="L66" s="148" t="s">
+      <c r="K66" s="299"/>
+      <c r="L66" s="146" t="s">
         <v>813</v>
       </c>
-      <c r="M66" s="127" t="s">
+      <c r="M66" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="N66" s="127" t="s">
+      <c r="N66" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="O66" s="128" t="s">
+      <c r="O66" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="P66" s="129" t="s">
+      <c r="P66" s="127" t="s">
         <v>814</v>
       </c>
-      <c r="Q66" s="127" t="s">
+      <c r="Q66" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="R66" s="127" t="s">
+      <c r="R66" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="S66" s="128" t="s">
+      <c r="S66" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="T66" s="131" t="s">
+      <c r="T66" s="129" t="s">
         <v>813</v>
       </c>
-      <c r="U66" s="126" t="s">
+      <c r="U66" s="124" t="s">
         <v>814</v>
       </c>
-      <c r="V66" s="127" t="s">
+      <c r="V66" s="125" t="s">
         <v>813</v>
       </c>
-      <c r="W66" s="133" t="s">
+      <c r="W66" s="131" t="s">
         <v>813</v>
       </c>
-      <c r="X66" s="266"/>
-      <c r="Y66" s="320"/>
-      <c r="Z66" s="318"/>
-      <c r="AA66" s="318"/>
-      <c r="AB66" s="324"/>
-      <c r="AC66" s="266"/>
+      <c r="X66" s="299"/>
+      <c r="Y66" s="283"/>
+      <c r="Z66" s="277"/>
+      <c r="AA66" s="277"/>
+      <c r="AB66" s="272"/>
+      <c r="AC66" s="299"/>
       <c r="AD66" s="113">
         <f t="shared" si="6"/>
         <v>13</v>
@@ -10115,73 +10124,73 @@
       </c>
     </row>
     <row r="67" spans="1:34" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="249"/>
-      <c r="B67" s="237" t="s">
+      <c r="A67" s="308"/>
+      <c r="B67" s="235" t="s">
         <v>732</v>
       </c>
-      <c r="C67" s="238"/>
-      <c r="D67" s="240" t="s">
+      <c r="C67" s="236"/>
+      <c r="D67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="E67" s="239"/>
-      <c r="F67" s="241" t="s">
+      <c r="E67" s="237"/>
+      <c r="F67" s="239" t="s">
         <v>813</v>
       </c>
-      <c r="G67" s="242" t="s">
+      <c r="G67" s="240" t="s">
         <v>813</v>
       </c>
-      <c r="H67" s="240" t="s">
+      <c r="H67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="I67" s="240" t="s">
+      <c r="I67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="J67" s="243" t="s">
+      <c r="J67" s="241" t="s">
         <v>813</v>
       </c>
-      <c r="K67" s="267"/>
-      <c r="L67" s="244" t="s">
+      <c r="K67" s="300"/>
+      <c r="L67" s="242" t="s">
         <v>813</v>
       </c>
-      <c r="M67" s="240" t="s">
+      <c r="M67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="N67" s="240" t="s">
+      <c r="N67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="O67" s="241" t="s">
+      <c r="O67" s="239" t="s">
         <v>813</v>
       </c>
-      <c r="P67" s="242" t="s">
+      <c r="P67" s="240" t="s">
         <v>813</v>
       </c>
-      <c r="Q67" s="240" t="s">
+      <c r="Q67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="R67" s="240" t="s">
+      <c r="R67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="S67" s="241" t="s">
+      <c r="S67" s="239" t="s">
         <v>813</v>
       </c>
-      <c r="T67" s="242" t="s">
+      <c r="T67" s="240" t="s">
         <v>813</v>
       </c>
-      <c r="U67" s="240" t="s">
+      <c r="U67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="V67" s="240" t="s">
+      <c r="V67" s="238" t="s">
         <v>813</v>
       </c>
-      <c r="W67" s="243" t="s">
+      <c r="W67" s="241" t="s">
         <v>813</v>
       </c>
-      <c r="X67" s="267"/>
-      <c r="Y67" s="321"/>
-      <c r="Z67" s="322"/>
-      <c r="AA67" s="322"/>
-      <c r="AB67" s="325"/>
-      <c r="AC67" s="267"/>
+      <c r="X67" s="300"/>
+      <c r="Y67" s="284"/>
+      <c r="Z67" s="279"/>
+      <c r="AA67" s="279"/>
+      <c r="AB67" s="273"/>
+      <c r="AC67" s="300"/>
       <c r="AD67" s="116">
         <f t="shared" si="6"/>
         <v>18</v>
@@ -10216,7 +10225,7 @@
       <c r="F69" s="75"/>
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A70" s="301" t="s">
+      <c r="A70" s="246" t="s">
         <v>421</v>
       </c>
       <c r="B70" s="72" t="s">
@@ -10230,7 +10239,7 @@
       <c r="F70" s="75"/>
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A71" s="302" t="s">
+      <c r="A71" s="247" t="s">
         <v>422</v>
       </c>
       <c r="B71" s="75" t="s">
@@ -10244,7 +10253,7 @@
       <c r="F71" s="75"/>
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A72" s="303" t="s">
+      <c r="A72" s="251" t="s">
         <v>423</v>
       </c>
       <c r="B72" s="75" t="s">
@@ -10258,7 +10267,7 @@
       <c r="F72" s="75"/>
     </row>
     <row r="73" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="304" t="s">
+      <c r="A73" s="252" t="s">
         <v>424</v>
       </c>
       <c r="B73" s="77" t="s">
@@ -10280,8 +10289,8 @@
       <c r="F74" s="75"/>
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A75" s="305"/>
-      <c r="B75" s="298" t="s">
+      <c r="A75" s="248"/>
+      <c r="B75" s="243" t="s">
         <v>925</v>
       </c>
       <c r="C75" s="75"/>
@@ -10290,8 +10299,8 @@
       <c r="F75" s="75"/>
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A76" s="306"/>
-      <c r="B76" s="299" t="s">
+      <c r="A76" s="249"/>
+      <c r="B76" s="244" t="s">
         <v>926</v>
       </c>
       <c r="C76" s="75"/>
@@ -10300,8 +10309,8 @@
       <c r="F76" s="75"/>
     </row>
     <row r="77" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="307"/>
-      <c r="B77" s="300" t="s">
+      <c r="A77" s="250"/>
+      <c r="B77" s="245" t="s">
         <v>927</v>
       </c>
       <c r="C77" s="75"/>
@@ -10311,37 +10320,16 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="Z14:Z22"/>
-    <mergeCell ref="AA14:AA22"/>
-    <mergeCell ref="AB14:AB22"/>
-    <mergeCell ref="Z23:Z31"/>
-    <mergeCell ref="Z32:Z40"/>
-    <mergeCell ref="AB23:AB31"/>
-    <mergeCell ref="AB32:AB40"/>
-    <mergeCell ref="AA32:AA40"/>
-    <mergeCell ref="AB41:AB49"/>
-    <mergeCell ref="AB50:AB58"/>
-    <mergeCell ref="AB59:AB67"/>
-    <mergeCell ref="AA23:AA31"/>
-    <mergeCell ref="P41:P48"/>
-    <mergeCell ref="AA41:AA49"/>
-    <mergeCell ref="AA50:AA58"/>
-    <mergeCell ref="AA59:AA67"/>
-    <mergeCell ref="Y50:Y58"/>
-    <mergeCell ref="Y59:Y67"/>
-    <mergeCell ref="Z41:Z49"/>
-    <mergeCell ref="Z50:Z58"/>
-    <mergeCell ref="Z59:Z67"/>
-    <mergeCell ref="Y14:Y22"/>
-    <mergeCell ref="Y23:Y31"/>
-    <mergeCell ref="Y32:Y40"/>
-    <mergeCell ref="Y41:Y49"/>
-    <mergeCell ref="R41:R49"/>
-    <mergeCell ref="S41:S49"/>
-    <mergeCell ref="T41:T49"/>
-    <mergeCell ref="U41:U49"/>
-    <mergeCell ref="V41:V49"/>
-    <mergeCell ref="W41:W49"/>
+    <mergeCell ref="A41:A49"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A59:A67"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="I48:I49"/>
     <mergeCell ref="Y2:AB2"/>
     <mergeCell ref="Y3:AB3"/>
     <mergeCell ref="X2:X67"/>
@@ -10358,16 +10346,37 @@
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="T3:W3"/>
-    <mergeCell ref="A41:A49"/>
-    <mergeCell ref="A50:A58"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="Y14:Y22"/>
+    <mergeCell ref="Y23:Y31"/>
+    <mergeCell ref="Y32:Y40"/>
+    <mergeCell ref="Y41:Y49"/>
+    <mergeCell ref="R41:R49"/>
+    <mergeCell ref="S41:S49"/>
+    <mergeCell ref="T41:T49"/>
+    <mergeCell ref="U41:U49"/>
+    <mergeCell ref="V41:V49"/>
+    <mergeCell ref="W41:W49"/>
+    <mergeCell ref="AB41:AB49"/>
+    <mergeCell ref="AB50:AB58"/>
+    <mergeCell ref="AB59:AB67"/>
+    <mergeCell ref="AA23:AA31"/>
+    <mergeCell ref="P41:P48"/>
+    <mergeCell ref="AA41:AA49"/>
+    <mergeCell ref="AA50:AA58"/>
+    <mergeCell ref="AA59:AA67"/>
+    <mergeCell ref="Y50:Y58"/>
+    <mergeCell ref="Y59:Y67"/>
+    <mergeCell ref="Z41:Z49"/>
+    <mergeCell ref="Z50:Z58"/>
+    <mergeCell ref="Z59:Z67"/>
+    <mergeCell ref="Z14:Z22"/>
+    <mergeCell ref="AA14:AA22"/>
+    <mergeCell ref="AB14:AB22"/>
+    <mergeCell ref="Z23:Z31"/>
+    <mergeCell ref="Z32:Z40"/>
+    <mergeCell ref="AB23:AB31"/>
+    <mergeCell ref="AB32:AB40"/>
+    <mergeCell ref="AA32:AA40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10378,8 +10387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B870D45-F13D-4F8F-9B59-A956B296D93E}">
   <dimension ref="B2:W68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10402,36 +10411,36 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="38"/>
-      <c r="C2" s="282" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="282" t="s">
-        <v>436</v>
-      </c>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="284"/>
-      <c r="Q2" s="282" t="s">
+      <c r="C2" s="317" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="317" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="318"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="317" t="s">
         <v>437</v>
       </c>
-      <c r="R2" s="283"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="283"/>
-      <c r="U2" s="283"/>
-      <c r="V2" s="283"/>
-      <c r="W2" s="284"/>
+      <c r="R2" s="318"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="318"/>
+      <c r="U2" s="318"/>
+      <c r="V2" s="318"/>
+      <c r="W2" s="319"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="320" t="s">
         <v>421</v>
       </c>
       <c r="C3" s="89" t="s">
@@ -10487,7 +10496,7 @@
       <c r="W3" s="52"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="286"/>
+      <c r="B4" s="321"/>
       <c r="C4" s="86">
         <v>1</v>
       </c>
@@ -10535,7 +10544,7 @@
       <c r="W4" s="52"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="286"/>
+      <c r="B5" s="321"/>
       <c r="C5" s="86">
         <v>2</v>
       </c>
@@ -10587,7 +10596,7 @@
       <c r="W5" s="52"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="286"/>
+      <c r="B6" s="321"/>
       <c r="C6" s="86">
         <v>3</v>
       </c>
@@ -10641,7 +10650,7 @@
       <c r="W6" s="52"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="286"/>
+      <c r="B7" s="321"/>
       <c r="C7" s="86">
         <v>4</v>
       </c>
@@ -10685,7 +10694,7 @@
       <c r="W7" s="52"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="286"/>
+      <c r="B8" s="321"/>
       <c r="C8" s="86">
         <v>5</v>
       </c>
@@ -10735,7 +10744,7 @@
       <c r="W8" s="52"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="286"/>
+      <c r="B9" s="321"/>
       <c r="C9" s="86">
         <v>6</v>
       </c>
@@ -10779,7 +10788,7 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="286"/>
+      <c r="B10" s="321"/>
       <c r="C10" s="86">
         <v>7</v>
       </c>
@@ -10823,7 +10832,7 @@
       <c r="W10" s="52"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="286"/>
+      <c r="B11" s="321"/>
       <c r="C11" s="86">
         <v>8</v>
       </c>
@@ -10869,7 +10878,7 @@
       <c r="W11" s="52"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="287"/>
+      <c r="B12" s="322"/>
       <c r="C12" s="87">
         <v>9</v>
       </c>
@@ -10899,7 +10908,7 @@
       <c r="W12" s="52"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="288" t="s">
+      <c r="B13" s="323" t="s">
         <v>422</v>
       </c>
       <c r="C13" s="89" t="s">
@@ -10955,7 +10964,7 @@
       <c r="W13" s="52"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="289"/>
+      <c r="B14" s="324"/>
       <c r="C14" s="86">
         <v>1</v>
       </c>
@@ -11009,7 +11018,7 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="289"/>
+      <c r="B15" s="324"/>
       <c r="C15" s="86">
         <v>2</v>
       </c>
@@ -11057,7 +11066,7 @@
       <c r="W15" s="52"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="289"/>
+      <c r="B16" s="324"/>
       <c r="C16" s="86">
         <v>3</v>
       </c>
@@ -11109,7 +11118,7 @@
       <c r="W16" s="52"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="289"/>
+      <c r="B17" s="324"/>
       <c r="C17" s="86">
         <v>4</v>
       </c>
@@ -11159,7 +11168,7 @@
       <c r="W17" s="52"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="289"/>
+      <c r="B18" s="324"/>
       <c r="C18" s="86">
         <v>5</v>
       </c>
@@ -11211,7 +11220,7 @@
       <c r="W18" s="52"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="289"/>
+      <c r="B19" s="324"/>
       <c r="C19" s="86">
         <v>6</v>
       </c>
@@ -11261,7 +11270,7 @@
       <c r="W19" s="52"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="289"/>
+      <c r="B20" s="324"/>
       <c r="C20" s="86">
         <v>7</v>
       </c>
@@ -11309,7 +11318,7 @@
       <c r="W20" s="52"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="289"/>
+      <c r="B21" s="324"/>
       <c r="C21" s="86">
         <v>8</v>
       </c>
@@ -11361,7 +11370,7 @@
       <c r="W21" s="52"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="290"/>
+      <c r="B22" s="325"/>
       <c r="C22" s="87">
         <v>9</v>
       </c>
@@ -11391,7 +11400,7 @@
       <c r="W22" s="52"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="291" t="s">
+      <c r="B23" s="326" t="s">
         <v>424</v>
       </c>
       <c r="C23" s="88" t="s">
@@ -11447,7 +11456,7 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="292"/>
+      <c r="B24" s="327"/>
       <c r="C24" s="86">
         <v>1</v>
       </c>
@@ -11499,7 +11508,7 @@
       <c r="W24" s="52"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="292"/>
+      <c r="B25" s="327"/>
       <c r="C25" s="86">
         <v>2</v>
       </c>
@@ -11553,7 +11562,7 @@
       <c r="W25" s="52"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="292"/>
+      <c r="B26" s="327"/>
       <c r="C26" s="86">
         <v>3</v>
       </c>
@@ -11603,7 +11612,7 @@
       <c r="W26" s="52"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="292"/>
+      <c r="B27" s="327"/>
       <c r="C27" s="86">
         <v>4</v>
       </c>
@@ -11653,7 +11662,7 @@
       <c r="W27" s="52"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="292"/>
+      <c r="B28" s="327"/>
       <c r="C28" s="86">
         <v>5</v>
       </c>
@@ -11683,7 +11692,7 @@
       <c r="W28" s="52"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="292"/>
+      <c r="B29" s="327"/>
       <c r="C29" s="86">
         <v>6</v>
       </c>
@@ -11733,7 +11742,7 @@
       <c r="W29" s="52"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="292"/>
+      <c r="B30" s="327"/>
       <c r="C30" s="86">
         <v>7</v>
       </c>
@@ -11781,7 +11790,7 @@
       <c r="W30" s="52"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="292"/>
+      <c r="B31" s="327"/>
       <c r="C31" s="86">
         <v>8</v>
       </c>
@@ -11833,7 +11842,7 @@
       <c r="W31" s="52"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="293"/>
+      <c r="B32" s="328"/>
       <c r="C32" s="87">
         <v>9</v>
       </c>
@@ -11863,7 +11872,7 @@
       <c r="W32" s="52"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="279" t="s">
+      <c r="B33" s="314" t="s">
         <v>423</v>
       </c>
       <c r="C33" s="89" t="s">
@@ -11931,7 +11940,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="280"/>
+      <c r="B34" s="315"/>
       <c r="C34" s="86">
         <v>1</v>
       </c>
@@ -11997,7 +12006,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="280"/>
+      <c r="B35" s="315"/>
       <c r="C35" s="86">
         <v>2</v>
       </c>
@@ -12063,7 +12072,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="280"/>
+      <c r="B36" s="315"/>
       <c r="C36" s="86">
         <v>3</v>
       </c>
@@ -12129,7 +12138,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="280"/>
+      <c r="B37" s="315"/>
       <c r="C37" s="86">
         <v>4</v>
       </c>
@@ -12195,7 +12204,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="280"/>
+      <c r="B38" s="315"/>
       <c r="C38" s="86">
         <v>5</v>
       </c>
@@ -12225,7 +12234,7 @@
       <c r="W38" s="41"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="280"/>
+      <c r="B39" s="315"/>
       <c r="C39" s="86">
         <v>6</v>
       </c>
@@ -12291,7 +12300,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="280"/>
+      <c r="B40" s="315"/>
       <c r="C40" s="86">
         <v>7</v>
       </c>
@@ -12357,7 +12366,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="280"/>
+      <c r="B41" s="315"/>
       <c r="C41" s="86">
         <v>8</v>
       </c>
@@ -12423,7 +12432,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="281"/>
+      <c r="B42" s="316"/>
       <c r="C42" s="87">
         <v>9</v>
       </c>
@@ -12456,49 +12465,57 @@
       <c r="V42" s="43"/>
       <c r="W42" s="44"/>
     </row>
-    <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="75"/>
+      <c r="C43" s="75" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>1010</v>
+      </c>
+    </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="246" t="s">
         <v>421</v>
       </c>
-      <c r="C44" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>683</v>
+      <c r="C44" s="72" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D44" s="73" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="247" t="s">
         <v>422</v>
       </c>
-      <c r="C45" s="68" t="s">
-        <v>433</v>
-      </c>
-      <c r="D45" s="69" t="s">
-        <v>684</v>
+      <c r="C45" s="75" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D45" s="76" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="251" t="s">
         <v>423</v>
       </c>
-      <c r="C46" s="68" t="s">
-        <v>434</v>
-      </c>
-      <c r="D46" s="69" t="s">
-        <v>683</v>
+      <c r="C46" s="75" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D46" s="76" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="47" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="85" t="s">
+      <c r="B47" s="252" t="s">
         <v>424</v>
       </c>
-      <c r="C47" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>684</v>
+      <c r="C47" s="77" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="48" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -12841,36 +12858,36 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B2" s="38"/>
-      <c r="C2" s="282" t="s">
+      <c r="C2" s="317" t="s">
         <v>435</v>
       </c>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="283"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="282" t="s">
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
+      <c r="G2" s="318"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="317" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="284"/>
-      <c r="Q2" s="282" t="s">
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="318"/>
+      <c r="N2" s="318"/>
+      <c r="O2" s="318"/>
+      <c r="P2" s="319"/>
+      <c r="Q2" s="317" t="s">
         <v>437</v>
       </c>
-      <c r="R2" s="283"/>
-      <c r="S2" s="283"/>
-      <c r="T2" s="283"/>
-      <c r="U2" s="283"/>
-      <c r="V2" s="283"/>
-      <c r="W2" s="284"/>
+      <c r="R2" s="318"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="318"/>
+      <c r="U2" s="318"/>
+      <c r="V2" s="318"/>
+      <c r="W2" s="319"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="320" t="s">
         <v>421</v>
       </c>
       <c r="C3" s="89" t="s">
@@ -12926,7 +12943,7 @@
       <c r="W3" s="52"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="286"/>
+      <c r="B4" s="321"/>
       <c r="C4" s="86">
         <v>1</v>
       </c>
@@ -12974,7 +12991,7 @@
       <c r="W4" s="52"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="286"/>
+      <c r="B5" s="321"/>
       <c r="C5" s="86">
         <v>2</v>
       </c>
@@ -13026,7 +13043,7 @@
       <c r="W5" s="52"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="286"/>
+      <c r="B6" s="321"/>
       <c r="C6" s="86">
         <v>3</v>
       </c>
@@ -13080,7 +13097,7 @@
       <c r="W6" s="52"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="286"/>
+      <c r="B7" s="321"/>
       <c r="C7" s="86">
         <v>4</v>
       </c>
@@ -13124,7 +13141,7 @@
       <c r="W7" s="52"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="286"/>
+      <c r="B8" s="321"/>
       <c r="C8" s="86">
         <v>5</v>
       </c>
@@ -13174,7 +13191,7 @@
       <c r="W8" s="52"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="286"/>
+      <c r="B9" s="321"/>
       <c r="C9" s="86">
         <v>6</v>
       </c>
@@ -13218,7 +13235,7 @@
       <c r="W9" s="52"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B10" s="286"/>
+      <c r="B10" s="321"/>
       <c r="C10" s="86">
         <v>7</v>
       </c>
@@ -13262,7 +13279,7 @@
       <c r="W10" s="52"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="286"/>
+      <c r="B11" s="321"/>
       <c r="C11" s="86">
         <v>8</v>
       </c>
@@ -13308,7 +13325,7 @@
       <c r="W11" s="52"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="287"/>
+      <c r="B12" s="322"/>
       <c r="C12" s="87">
         <v>9</v>
       </c>
@@ -13338,7 +13355,7 @@
       <c r="W12" s="52"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="288" t="s">
+      <c r="B13" s="323" t="s">
         <v>422</v>
       </c>
       <c r="C13" s="89" t="s">
@@ -13394,7 +13411,7 @@
       <c r="W13" s="52"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="289"/>
+      <c r="B14" s="324"/>
       <c r="C14" s="86">
         <v>1</v>
       </c>
@@ -13448,7 +13465,7 @@
       <c r="W14" s="52"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="289"/>
+      <c r="B15" s="324"/>
       <c r="C15" s="86">
         <v>2</v>
       </c>
@@ -13496,7 +13513,7 @@
       <c r="W15" s="52"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="289"/>
+      <c r="B16" s="324"/>
       <c r="C16" s="86">
         <v>3</v>
       </c>
@@ -13548,7 +13565,7 @@
       <c r="W16" s="52"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="289"/>
+      <c r="B17" s="324"/>
       <c r="C17" s="86">
         <v>4</v>
       </c>
@@ -13598,7 +13615,7 @@
       <c r="W17" s="52"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="289"/>
+      <c r="B18" s="324"/>
       <c r="C18" s="86">
         <v>5</v>
       </c>
@@ -13650,7 +13667,7 @@
       <c r="W18" s="52"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="289"/>
+      <c r="B19" s="324"/>
       <c r="C19" s="86">
         <v>6</v>
       </c>
@@ -13700,7 +13717,7 @@
       <c r="W19" s="52"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="289"/>
+      <c r="B20" s="324"/>
       <c r="C20" s="86">
         <v>7</v>
       </c>
@@ -13748,7 +13765,7 @@
       <c r="W20" s="52"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="289"/>
+      <c r="B21" s="324"/>
       <c r="C21" s="86">
         <v>8</v>
       </c>
@@ -13800,7 +13817,7 @@
       <c r="W21" s="52"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="290"/>
+      <c r="B22" s="325"/>
       <c r="C22" s="87">
         <v>9</v>
       </c>
@@ -13830,7 +13847,7 @@
       <c r="W22" s="52"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="291" t="s">
+      <c r="B23" s="326" t="s">
         <v>424</v>
       </c>
       <c r="C23" s="88" t="s">
@@ -13886,7 +13903,7 @@
       <c r="W23" s="52"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="292"/>
+      <c r="B24" s="327"/>
       <c r="C24" s="86">
         <v>1</v>
       </c>
@@ -13938,7 +13955,7 @@
       <c r="W24" s="52"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="292"/>
+      <c r="B25" s="327"/>
       <c r="C25" s="86">
         <v>2</v>
       </c>
@@ -13992,7 +14009,7 @@
       <c r="W25" s="52"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="292"/>
+      <c r="B26" s="327"/>
       <c r="C26" s="86">
         <v>3</v>
       </c>
@@ -14042,7 +14059,7 @@
       <c r="W26" s="52"/>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="292"/>
+      <c r="B27" s="327"/>
       <c r="C27" s="86">
         <v>4</v>
       </c>
@@ -14092,7 +14109,7 @@
       <c r="W27" s="52"/>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="292"/>
+      <c r="B28" s="327"/>
       <c r="C28" s="86">
         <v>5</v>
       </c>
@@ -14122,7 +14139,7 @@
       <c r="W28" s="52"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29" s="292"/>
+      <c r="B29" s="327"/>
       <c r="C29" s="86">
         <v>6</v>
       </c>
@@ -14172,7 +14189,7 @@
       <c r="W29" s="52"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="292"/>
+      <c r="B30" s="327"/>
       <c r="C30" s="86">
         <v>7</v>
       </c>
@@ -14220,7 +14237,7 @@
       <c r="W30" s="52"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="292"/>
+      <c r="B31" s="327"/>
       <c r="C31" s="86">
         <v>8</v>
       </c>
@@ -14272,7 +14289,7 @@
       <c r="W31" s="52"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="293"/>
+      <c r="B32" s="328"/>
       <c r="C32" s="87">
         <v>9</v>
       </c>
@@ -14302,7 +14319,7 @@
       <c r="W32" s="52"/>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B33" s="279" t="s">
+      <c r="B33" s="314" t="s">
         <v>423</v>
       </c>
       <c r="C33" s="89" t="s">
@@ -14370,7 +14387,7 @@
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B34" s="280"/>
+      <c r="B34" s="315"/>
       <c r="C34" s="86">
         <v>1</v>
       </c>
@@ -14436,7 +14453,7 @@
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" s="280"/>
+      <c r="B35" s="315"/>
       <c r="C35" s="86">
         <v>2</v>
       </c>
@@ -14502,7 +14519,7 @@
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" s="280"/>
+      <c r="B36" s="315"/>
       <c r="C36" s="86">
         <v>3</v>
       </c>
@@ -14568,7 +14585,7 @@
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" s="280"/>
+      <c r="B37" s="315"/>
       <c r="C37" s="86">
         <v>4</v>
       </c>
@@ -14634,7 +14651,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" s="280"/>
+      <c r="B38" s="315"/>
       <c r="C38" s="86">
         <v>5</v>
       </c>
@@ -14664,7 +14681,7 @@
       <c r="W38" s="41"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B39" s="280"/>
+      <c r="B39" s="315"/>
       <c r="C39" s="86">
         <v>6</v>
       </c>
@@ -14730,7 +14747,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B40" s="280"/>
+      <c r="B40" s="315"/>
       <c r="C40" s="86">
         <v>7</v>
       </c>
@@ -14796,7 +14813,7 @@
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B41" s="280"/>
+      <c r="B41" s="315"/>
       <c r="C41" s="86">
         <v>8</v>
       </c>
@@ -14862,7 +14879,7 @@
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B42" s="281"/>
+      <c r="B42" s="316"/>
       <c r="C42" s="87">
         <v>9</v>
       </c>
@@ -15258,7 +15275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AD73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
@@ -16000,7 +16017,7 @@
       <c r="AD14" s="105"/>
     </row>
     <row r="15" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="332" t="s">
         <v>415</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -16065,7 +16082,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="295"/>
+      <c r="A16" s="330"/>
       <c r="B16" s="23" t="s">
         <v>1</v>
       </c>
@@ -16128,7 +16145,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="294"/>
+      <c r="A17" s="329"/>
       <c r="B17" s="20" t="s">
         <v>2</v>
       </c>
@@ -16191,7 +16208,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="294"/>
+      <c r="A18" s="329"/>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
@@ -16254,7 +16271,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="295"/>
+      <c r="A19" s="330"/>
       <c r="B19" s="23" t="s">
         <v>4</v>
       </c>
@@ -16317,7 +16334,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="294"/>
+      <c r="A20" s="329"/>
       <c r="B20" s="20" t="s">
         <v>5</v>
       </c>
@@ -16380,7 +16397,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="294"/>
+      <c r="A21" s="329"/>
       <c r="B21" s="14" t="s">
         <v>6</v>
       </c>
@@ -16443,7 +16460,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="294"/>
+      <c r="A22" s="329"/>
       <c r="B22" s="14" t="s">
         <v>7</v>
       </c>
@@ -16506,7 +16523,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="296"/>
+      <c r="A23" s="331"/>
       <c r="B23" s="17" t="s">
         <v>8</v>
       </c>
@@ -16569,7 +16586,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="297" t="s">
+      <c r="A24" s="332" t="s">
         <v>416</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -16634,7 +16651,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="295"/>
+      <c r="A25" s="330"/>
       <c r="B25" s="23" t="s">
         <v>10</v>
       </c>
@@ -16697,7 +16714,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="294"/>
+      <c r="A26" s="329"/>
       <c r="B26" s="20" t="s">
         <v>11</v>
       </c>
@@ -16760,7 +16777,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="294"/>
+      <c r="A27" s="329"/>
       <c r="B27" s="11" t="s">
         <v>12</v>
       </c>
@@ -16823,7 +16840,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="295"/>
+      <c r="A28" s="330"/>
       <c r="B28" s="23" t="s">
         <v>13</v>
       </c>
@@ -16886,7 +16903,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="294"/>
+      <c r="A29" s="329"/>
       <c r="B29" s="20" t="s">
         <v>14</v>
       </c>
@@ -16949,7 +16966,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="294"/>
+      <c r="A30" s="329"/>
       <c r="B30" s="14" t="s">
         <v>15</v>
       </c>
@@ -17012,7 +17029,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="294"/>
+      <c r="A31" s="329"/>
       <c r="B31" s="14" t="s">
         <v>16</v>
       </c>
@@ -17075,7 +17092,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="294"/>
+      <c r="A32" s="329"/>
       <c r="B32" s="20" t="s">
         <v>17</v>
       </c>
@@ -17138,7 +17155,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="297" t="s">
+      <c r="A33" s="332" t="s">
         <v>417</v>
       </c>
       <c r="B33" s="26"/>
@@ -17199,7 +17216,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="295"/>
+      <c r="A34" s="330"/>
       <c r="B34" s="29"/>
       <c r="C34" s="24" t="s">
         <v>34</v>
@@ -17258,7 +17275,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="294"/>
+      <c r="A35" s="329"/>
       <c r="B35" s="29"/>
       <c r="C35" s="21" t="s">
         <v>35</v>
@@ -17317,7 +17334,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="294"/>
+      <c r="A36" s="329"/>
       <c r="B36" s="29"/>
       <c r="C36" s="12" t="s">
         <v>36</v>
@@ -17376,7 +17393,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="295"/>
+      <c r="A37" s="330"/>
       <c r="B37" s="29"/>
       <c r="C37" s="24" t="s">
         <v>37</v>
@@ -17435,7 +17452,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="294"/>
+      <c r="A38" s="329"/>
       <c r="B38" s="29"/>
       <c r="C38" s="21" t="s">
         <v>38</v>
@@ -17494,7 +17511,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="294"/>
+      <c r="A39" s="329"/>
       <c r="B39" s="29"/>
       <c r="C39" s="15" t="s">
         <v>39</v>
@@ -17553,7 +17570,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="294"/>
+      <c r="A40" s="329"/>
       <c r="B40" s="29"/>
       <c r="C40" s="15" t="s">
         <v>40</v>
@@ -17612,7 +17629,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="296"/>
+      <c r="A41" s="331"/>
       <c r="B41" s="32"/>
       <c r="C41" s="18" t="s">
         <v>41</v>
@@ -17671,7 +17688,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="294" t="s">
+      <c r="A42" s="329" t="s">
         <v>418</v>
       </c>
       <c r="B42" s="29"/>
@@ -17732,7 +17749,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="295"/>
+      <c r="A43" s="330"/>
       <c r="B43" s="29"/>
       <c r="C43" s="35" t="s">
         <v>432</v>
@@ -17791,7 +17808,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="294"/>
+      <c r="A44" s="329"/>
       <c r="B44" s="29"/>
       <c r="C44" s="35" t="s">
         <v>432</v>
@@ -17850,7 +17867,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="294"/>
+      <c r="A45" s="329"/>
       <c r="B45" s="29"/>
       <c r="C45" s="35" t="s">
         <v>432</v>
@@ -17909,7 +17926,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="295"/>
+      <c r="A46" s="330"/>
       <c r="B46" s="29"/>
       <c r="C46" s="35" t="s">
         <v>432</v>
@@ -17968,7 +17985,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="294"/>
+      <c r="A47" s="329"/>
       <c r="B47" s="29"/>
       <c r="C47" s="35" t="s">
         <v>432</v>
@@ -18027,7 +18044,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="294"/>
+      <c r="A48" s="329"/>
       <c r="B48" s="29"/>
       <c r="C48" s="35" t="s">
         <v>432</v>
@@ -18086,7 +18103,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="294"/>
+      <c r="A49" s="329"/>
       <c r="B49" s="29"/>
       <c r="C49" s="35" t="s">
         <v>432</v>
@@ -18145,7 +18162,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="294"/>
+      <c r="A50" s="329"/>
       <c r="B50" s="29"/>
       <c r="C50" s="35" t="s">
         <v>432</v>
@@ -18204,7 +18221,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="297" t="s">
+      <c r="A51" s="332" t="s">
         <v>419</v>
       </c>
       <c r="B51" s="26"/>
@@ -18239,7 +18256,7 @@
       <c r="U51" s="28"/>
     </row>
     <row r="52" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="295"/>
+      <c r="A52" s="330"/>
       <c r="B52" s="29"/>
       <c r="C52" s="30"/>
       <c r="D52" s="30"/>
@@ -18272,7 +18289,7 @@
       <c r="U52" s="31"/>
     </row>
     <row r="53" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="294"/>
+      <c r="A53" s="329"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
@@ -18305,7 +18322,7 @@
       <c r="U53" s="31"/>
     </row>
     <row r="54" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="294"/>
+      <c r="A54" s="329"/>
       <c r="B54" s="29"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
@@ -18338,7 +18355,7 @@
       <c r="U54" s="31"/>
     </row>
     <row r="55" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="295"/>
+      <c r="A55" s="330"/>
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -18371,7 +18388,7 @@
       <c r="U55" s="31"/>
     </row>
     <row r="56" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="294"/>
+      <c r="A56" s="329"/>
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
@@ -18404,7 +18421,7 @@
       <c r="U56" s="31"/>
     </row>
     <row r="57" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="294"/>
+      <c r="A57" s="329"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
@@ -18435,7 +18452,7 @@
       <c r="U57" s="31"/>
     </row>
     <row r="58" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="294"/>
+      <c r="A58" s="329"/>
       <c r="B58" s="29"/>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
@@ -18468,7 +18485,7 @@
       <c r="U58" s="31"/>
     </row>
     <row r="59" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="296"/>
+      <c r="A59" s="331"/>
       <c r="B59" s="32"/>
       <c r="C59" s="30"/>
       <c r="D59" s="33"/>
@@ -18503,7 +18520,7 @@
       <c r="U59" s="34"/>
     </row>
     <row r="60" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="294" t="s">
+      <c r="A60" s="329" t="s">
         <v>420</v>
       </c>
       <c r="B60" s="29"/>
@@ -18564,7 +18581,7 @@
       </c>
     </row>
     <row r="61" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="295"/>
+      <c r="A61" s="330"/>
       <c r="B61" s="29"/>
       <c r="C61" s="24" t="s">
         <v>43</v>
@@ -18623,7 +18640,7 @@
       </c>
     </row>
     <row r="62" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="294"/>
+      <c r="A62" s="329"/>
       <c r="B62" s="29"/>
       <c r="C62" s="21" t="s">
         <v>44</v>
@@ -18682,7 +18699,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="294"/>
+      <c r="A63" s="329"/>
       <c r="B63" s="29"/>
       <c r="C63" s="12" t="s">
         <v>45</v>
@@ -18741,7 +18758,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="295"/>
+      <c r="A64" s="330"/>
       <c r="B64" s="29"/>
       <c r="C64" s="24" t="s">
         <v>46</v>
@@ -18800,7 +18817,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="294"/>
+      <c r="A65" s="329"/>
       <c r="B65" s="29"/>
       <c r="C65" s="21" t="s">
         <v>47</v>
@@ -18859,7 +18876,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="294"/>
+      <c r="A66" s="329"/>
       <c r="B66" s="29"/>
       <c r="C66" s="15" t="s">
         <v>48</v>
@@ -18918,7 +18935,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="294"/>
+      <c r="A67" s="329"/>
       <c r="B67" s="29"/>
       <c r="C67" s="15" t="s">
         <v>49</v>
@@ -18977,7 +18994,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="296"/>
+      <c r="A68" s="331"/>
       <c r="B68" s="32"/>
       <c r="C68" s="18" t="s">
         <v>50</v>
